--- a/data/villains.xlsx
+++ b/data/villains.xlsx
@@ -161,9 +161,6 @@
     <t>1 if it has an ambush effect</t>
   </si>
   <si>
-    <t>Spider-Friends</t>
-  </si>
-  <si>
     <t>Moon Knight</t>
   </si>
   <si>
@@ -539,9 +536,6 @@
     <t>Kraven, Animal Trainer</t>
   </si>
   <si>
-    <t>Great Lake Avengers</t>
-  </si>
-  <si>
     <t>Squirrel Girl</t>
   </si>
   <si>
@@ -707,9 +701,6 @@
     <t>Ronan the Accuser</t>
   </si>
   <si>
-    <t>K'un-Lun</t>
-  </si>
-  <si>
     <t>Razor Fist</t>
   </si>
   <si>
@@ -977,9 +968,6 @@
     <t>Betrayal of the shadow</t>
   </si>
   <si>
-    <t>Shi'Ar Imperial Guard</t>
-  </si>
-  <si>
     <t>Smasher</t>
   </si>
   <si>
@@ -992,9 +980,6 @@
     <t>Shi'Ar trial by combat</t>
   </si>
   <si>
-    <t>SHIELD Elite</t>
-  </si>
-  <si>
     <t>Dum Dum Dugan</t>
   </si>
   <si>
@@ -1091,9 +1076,6 @@
     <t>Hammerhead</t>
   </si>
   <si>
-    <t>Subterranean</t>
-  </si>
-  <si>
     <t>Moloids</t>
   </si>
   <si>
@@ -1205,9 +1187,6 @@
     <t>Wasteland Kingpin</t>
   </si>
   <si>
-    <t>X-men '92</t>
-  </si>
-  <si>
     <t>92 Wolverine</t>
   </si>
   <si>
@@ -1220,9 +1199,6 @@
     <t>92 Professor X</t>
   </si>
   <si>
-    <t>X-men Noir</t>
-  </si>
-  <si>
     <t>Comrade Rasputin</t>
   </si>
   <si>
@@ -1724,9 +1700,6 @@
     <t>Gorgon</t>
   </si>
   <si>
-    <t>AIM, HYDRA Offshoot</t>
-  </si>
-  <si>
     <t>Mentallo</t>
   </si>
   <si>
@@ -1824,6 +1797,33 @@
   </si>
   <si>
     <t>S'Ym</t>
+  </si>
+  <si>
+    <t>S.H.I.E.L.D. Elite</t>
+  </si>
+  <si>
+    <t>Shi'ar Imperial Guard</t>
+  </si>
+  <si>
+    <t>Great Lakes Avengers</t>
+  </si>
+  <si>
+    <t>K'un-lun</t>
+  </si>
+  <si>
+    <t>Subterranea</t>
+  </si>
+  <si>
+    <t>Spider Friends</t>
+  </si>
+  <si>
+    <t>X-Men '92</t>
+  </si>
+  <si>
+    <t>X-Men Noir</t>
+  </si>
+  <si>
+    <t>A.I.M., Hydra Offshoot</t>
   </si>
 </sst>
 </file>
@@ -2168,8 +2168,8 @@
   <dimension ref="A1:Y412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A376" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A413" sqref="A413"/>
+      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A389" sqref="A389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2234,7 +2234,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>44</v>
@@ -2267,7 +2267,7 @@
         <v>42</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>16</v>
@@ -2376,10 +2376,10 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B6" t="s">
         <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>599</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2425,10 +2425,10 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>599</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2451,10 +2451,10 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>599</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2469,47 +2469,47 @@
         <v>2</v>
       </c>
       <c r="X9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>56</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="X10" t="s">
         <v>57</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="X10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -2524,122 +2524,122 @@
         <v>1</v>
       </c>
       <c r="X11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="X12" t="s">
         <v>57</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="X12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="X13" t="s">
         <v>57</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="X13" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="X14" t="s">
         <v>57</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="X14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="X15" t="s">
         <v>57</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="X15" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -2654,21 +2654,21 @@
         <v>1</v>
       </c>
       <c r="X16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -2677,15 +2677,15 @@
         <v>3</v>
       </c>
       <c r="X17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
         <v>66</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -2708,10 +2708,10 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -2726,15 +2726,15 @@
         <v>3</v>
       </c>
       <c r="X19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2751,10 +2751,10 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -2774,10 +2774,10 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
         <v>71</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -2797,10 +2797,10 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -2823,10 +2823,10 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -2843,10 +2843,10 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -2869,10 +2869,10 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
         <v>76</v>
-      </c>
-      <c r="B26" t="s">
-        <v>77</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -2898,10 +2898,10 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -2918,10 +2918,10 @@
     </row>
     <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -2941,10 +2941,10 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -2970,10 +2970,10 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
         <v>80</v>
-      </c>
-      <c r="B30" t="s">
-        <v>81</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -2996,10 +2996,10 @@
     </row>
     <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -3019,10 +3019,10 @@
     </row>
     <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -3045,10 +3045,10 @@
     </row>
     <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3074,10 +3074,10 @@
     </row>
     <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3100,10 +3100,10 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
         <v>86</v>
-      </c>
-      <c r="B35" t="s">
-        <v>87</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -3118,15 +3118,15 @@
         <v>1</v>
       </c>
       <c r="X35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -3141,15 +3141,15 @@
         <v>3</v>
       </c>
       <c r="X36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3178,10 +3178,10 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3205,15 +3205,15 @@
         <v>1</v>
       </c>
       <c r="X38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -3233,10 +3233,10 @@
     </row>
     <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3259,28 +3259,28 @@
     </row>
     <row r="41" spans="1:24">
       <c r="A41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" t="s">
         <v>96</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
         <v>97</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41">
-        <v>3</v>
-      </c>
-      <c r="F41">
-        <v>5</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="O41" t="s">
-        <v>98</v>
       </c>
       <c r="P41">
         <v>1</v>
@@ -3291,10 +3291,10 @@
     </row>
     <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -3343,10 +3343,10 @@
     </row>
     <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -3361,7 +3361,7 @@
         <v>4</v>
       </c>
       <c r="O44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P44">
         <v>2</v>
@@ -3369,16 +3369,16 @@
     </row>
     <row r="45" spans="1:24">
       <c r="A45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" t="s">
         <v>102</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
         <v>103</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45" t="s">
-        <v>104</v>
       </c>
       <c r="E45">
         <v>4</v>
@@ -3396,21 +3396,21 @@
         <v>1</v>
       </c>
       <c r="X45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -3421,16 +3421,16 @@
     </row>
     <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -3447,39 +3447,39 @@
     </row>
     <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="X48" t="s">
         <v>108</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48" t="s">
-        <v>104</v>
-      </c>
-      <c r="E48">
-        <v>3</v>
-      </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-      <c r="X48" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:24">
       <c r="A49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" t="s">
         <v>110</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
         <v>111</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s">
-        <v>112</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3496,42 +3496,42 @@
     </row>
     <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="X50" t="s">
         <v>113</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50">
-        <v>3</v>
-      </c>
-      <c r="F50">
-        <v>4</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="X50" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -3548,16 +3548,16 @@
     </row>
     <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E52">
         <v>5</v>
@@ -3569,21 +3569,21 @@
         <v>1</v>
       </c>
       <c r="X52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E53">
         <v>3</v>
@@ -3595,50 +3595,50 @@
         <v>1</v>
       </c>
       <c r="X53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" t="s">
         <v>120</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
         <v>121</v>
       </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="X54" t="s">
         <v>122</v>
-      </c>
-      <c r="E54">
-        <v>4</v>
-      </c>
-      <c r="F54">
-        <v>3</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="U54">
-        <v>1</v>
-      </c>
-      <c r="X54" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E55">
         <v>3</v>
@@ -3650,21 +3650,21 @@
         <v>1</v>
       </c>
       <c r="X55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E56">
         <v>4</v>
@@ -3676,21 +3676,21 @@
         <v>1</v>
       </c>
       <c r="X56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E57">
         <v>3</v>
@@ -3702,21 +3702,21 @@
         <v>1</v>
       </c>
       <c r="X57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:24">
       <c r="A58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s">
         <v>129</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
         <v>130</v>
-      </c>
-      <c r="C58">
-        <v>3</v>
-      </c>
-      <c r="D58" t="s">
-        <v>131</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -3733,16 +3733,16 @@
     </row>
     <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -3756,77 +3756,77 @@
     </row>
     <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="X60" t="s">
         <v>135</v>
-      </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="D60" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60">
-        <v>4</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="U60">
-        <v>1</v>
-      </c>
-      <c r="X60" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="X61" t="s">
         <v>137</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
-        <v>131</v>
-      </c>
-      <c r="E61">
-        <v>5</v>
-      </c>
-      <c r="F61">
-        <v>5</v>
-      </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="T61">
-        <v>1</v>
-      </c>
-      <c r="V61">
-        <v>1</v>
-      </c>
-      <c r="X61" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:24">
       <c r="A62" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" t="s">
         <v>139</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
         <v>140</v>
-      </c>
-      <c r="C62">
-        <v>3</v>
-      </c>
-      <c r="D62" t="s">
-        <v>141</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -3837,16 +3837,16 @@
     </row>
     <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E63">
         <v>4</v>
@@ -3860,16 +3860,16 @@
     </row>
     <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E64">
         <v>5</v>
@@ -3886,16 +3886,16 @@
     </row>
     <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E65">
         <v>6</v>
@@ -3907,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="O65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P65">
         <v>1</v>
@@ -3918,16 +3918,16 @@
     </row>
     <row r="66" spans="1:24">
       <c r="A66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" t="s">
         <v>145</v>
       </c>
-      <c r="B66" t="s">
-        <v>146</v>
-      </c>
       <c r="C66">
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -3944,16 +3944,16 @@
     </row>
     <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E67">
         <v>3</v>
@@ -3970,16 +3970,16 @@
     </row>
     <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B68" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
         <v>148</v>
-      </c>
-      <c r="C68">
-        <v>2</v>
-      </c>
-      <c r="D68" t="s">
-        <v>149</v>
       </c>
       <c r="E68">
         <v>3</v>
@@ -3993,16 +3993,16 @@
     </row>
     <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E69">
         <v>4</v>
@@ -4016,10 +4016,10 @@
     </row>
     <row r="70" spans="1:24">
       <c r="A70" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70" t="s">
         <v>151</v>
-      </c>
-      <c r="B70" t="s">
-        <v>152</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -4045,10 +4045,10 @@
     </row>
     <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -4065,10 +4065,10 @@
     </row>
     <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -4094,10 +4094,10 @@
     </row>
     <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4120,16 +4120,16 @@
     </row>
     <row r="74" spans="1:24">
       <c r="A74" t="s">
+        <v>155</v>
+      </c>
+      <c r="B74" t="s">
         <v>156</v>
       </c>
-      <c r="B74" t="s">
-        <v>157</v>
-      </c>
       <c r="C74">
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E74">
         <v>6</v>
@@ -4144,21 +4144,21 @@
         <v>1</v>
       </c>
       <c r="X74" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -4170,21 +4170,21 @@
         <v>1</v>
       </c>
       <c r="X75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E76">
         <v>4</v>
@@ -4196,21 +4196,21 @@
         <v>1</v>
       </c>
       <c r="X76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E77">
         <v>4</v>
@@ -4222,21 +4222,21 @@
         <v>1</v>
       </c>
       <c r="X77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:24">
       <c r="A78" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" t="s">
         <v>161</v>
       </c>
-      <c r="B78" t="s">
-        <v>162</v>
-      </c>
       <c r="C78">
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E78">
         <v>4</v>
@@ -4256,16 +4256,16 @@
     </row>
     <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E79">
         <v>3</v>
@@ -4279,16 +4279,16 @@
     </row>
     <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -4305,16 +4305,16 @@
     </row>
     <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B81" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E81">
         <v>5</v>
@@ -4331,16 +4331,16 @@
     </row>
     <row r="82" spans="1:24">
       <c r="A82" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" t="s">
         <v>166</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
         <v>167</v>
-      </c>
-      <c r="C82">
-        <v>2</v>
-      </c>
-      <c r="D82" t="s">
-        <v>168</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -4360,16 +4360,16 @@
     </row>
     <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E83">
         <v>3</v>
@@ -4395,16 +4395,16 @@
     </row>
     <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -4421,16 +4421,16 @@
     </row>
     <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E85">
         <v>2</v>
@@ -4450,16 +4450,16 @@
     </row>
     <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E86">
         <v>3</v>
@@ -4479,16 +4479,16 @@
     </row>
     <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B87" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E87">
         <v>4</v>
@@ -4505,16 +4505,16 @@
     </row>
     <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>174</v>
+        <v>596</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -4531,16 +4531,16 @@
     </row>
     <row r="89" spans="1:24">
       <c r="A89" t="s">
+        <v>596</v>
+      </c>
+      <c r="B89" t="s">
         <v>174</v>
       </c>
-      <c r="B89" t="s">
-        <v>176</v>
-      </c>
       <c r="C89">
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E89">
         <v>2</v>
@@ -4558,21 +4558,21 @@
         <v>1</v>
       </c>
       <c r="X89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>174</v>
+        <v>596</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E90">
         <v>4</v>
@@ -4590,21 +4590,21 @@
         <v>1</v>
       </c>
       <c r="X90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>174</v>
+        <v>596</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -4618,16 +4618,16 @@
     </row>
     <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -4641,16 +4641,16 @@
     </row>
     <row r="93" spans="1:24">
       <c r="A93" t="s">
+        <v>177</v>
+      </c>
+      <c r="B93" t="s">
         <v>179</v>
       </c>
-      <c r="B93" t="s">
-        <v>181</v>
-      </c>
       <c r="C93">
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E93">
         <v>4</v>
@@ -4664,16 +4664,16 @@
     </row>
     <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C94">
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E94">
         <v>4</v>
@@ -4690,16 +4690,16 @@
     </row>
     <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E95">
         <v>5</v>
@@ -4719,16 +4719,16 @@
     </row>
     <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B96" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E96">
         <v>4</v>
@@ -4751,16 +4751,16 @@
     </row>
     <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B97" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E97">
         <v>3</v>
@@ -4777,16 +4777,16 @@
     </row>
     <row r="98" spans="1:24">
       <c r="A98" t="s">
+        <v>183</v>
+      </c>
+      <c r="B98" t="s">
         <v>185</v>
       </c>
-      <c r="B98" t="s">
-        <v>187</v>
-      </c>
       <c r="C98">
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E98">
         <v>4</v>
@@ -4803,16 +4803,16 @@
     </row>
     <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B99" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E99">
         <v>4</v>
@@ -4824,7 +4824,7 @@
         <v>1</v>
       </c>
       <c r="O99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P99">
         <v>2</v>
@@ -4832,16 +4832,16 @@
     </row>
     <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B100" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E100">
         <v>6</v>
@@ -4858,16 +4858,16 @@
     </row>
     <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B101" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E101">
         <v>3</v>
@@ -4881,16 +4881,16 @@
     </row>
     <row r="102" spans="1:24">
       <c r="A102" t="s">
+        <v>189</v>
+      </c>
+      <c r="B102" t="s">
+        <v>190</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
         <v>191</v>
-      </c>
-      <c r="B102" t="s">
-        <v>192</v>
-      </c>
-      <c r="C102">
-        <v>2</v>
-      </c>
-      <c r="D102" t="s">
-        <v>193</v>
       </c>
       <c r="E102">
         <v>5</v>
@@ -4902,21 +4902,21 @@
         <v>2</v>
       </c>
       <c r="X102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="103" spans="1:24">
       <c r="A103" t="s">
+        <v>189</v>
+      </c>
+      <c r="B103" t="s">
+        <v>192</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
         <v>191</v>
-      </c>
-      <c r="B103" t="s">
-        <v>194</v>
-      </c>
-      <c r="C103">
-        <v>2</v>
-      </c>
-      <c r="D103" t="s">
-        <v>193</v>
       </c>
       <c r="E103">
         <v>5</v>
@@ -4934,21 +4934,21 @@
         <v>1</v>
       </c>
       <c r="X103" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="104" spans="1:24">
       <c r="A104" t="s">
+        <v>189</v>
+      </c>
+      <c r="B104" t="s">
+        <v>193</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
         <v>191</v>
-      </c>
-      <c r="B104" t="s">
-        <v>195</v>
-      </c>
-      <c r="C104">
-        <v>2</v>
-      </c>
-      <c r="D104" t="s">
-        <v>193</v>
       </c>
       <c r="E104">
         <v>4</v>
@@ -4966,21 +4966,21 @@
         <v>1</v>
       </c>
       <c r="X104" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="105" spans="1:24">
       <c r="A105" t="s">
+        <v>189</v>
+      </c>
+      <c r="B105" t="s">
+        <v>194</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
         <v>191</v>
-      </c>
-      <c r="B105" t="s">
-        <v>196</v>
-      </c>
-      <c r="C105">
-        <v>2</v>
-      </c>
-      <c r="D105" t="s">
-        <v>193</v>
       </c>
       <c r="E105">
         <v>6</v>
@@ -4995,21 +4995,21 @@
         <v>1</v>
       </c>
       <c r="X105" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B106" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E106">
         <v>5</v>
@@ -5024,47 +5024,47 @@
         <v>1</v>
       </c>
       <c r="X106" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="107" spans="1:24">
       <c r="A107" t="s">
+        <v>196</v>
+      </c>
+      <c r="B107" t="s">
+        <v>199</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>103</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>3</v>
+      </c>
+      <c r="T107">
+        <v>1</v>
+      </c>
+      <c r="X107" t="s">
         <v>198</v>
-      </c>
-      <c r="B107" t="s">
-        <v>201</v>
-      </c>
-      <c r="C107">
-        <v>2</v>
-      </c>
-      <c r="D107" t="s">
-        <v>104</v>
-      </c>
-      <c r="E107">
-        <v>2</v>
-      </c>
-      <c r="F107">
-        <v>3</v>
-      </c>
-      <c r="T107">
-        <v>1</v>
-      </c>
-      <c r="X107" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B108" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E108">
         <v>5</v>
@@ -5076,41 +5076,41 @@
         <v>1</v>
       </c>
       <c r="X108" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="109" spans="1:24">
       <c r="A109" t="s">
+        <v>196</v>
+      </c>
+      <c r="B109" t="s">
+        <v>201</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>103</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+      <c r="F109">
+        <v>5</v>
+      </c>
+      <c r="R109">
+        <v>1</v>
+      </c>
+      <c r="X109" t="s">
         <v>198</v>
-      </c>
-      <c r="B109" t="s">
-        <v>203</v>
-      </c>
-      <c r="C109">
-        <v>2</v>
-      </c>
-      <c r="D109" t="s">
-        <v>104</v>
-      </c>
-      <c r="E109">
-        <v>3</v>
-      </c>
-      <c r="F109">
-        <v>5</v>
-      </c>
-      <c r="R109">
-        <v>1</v>
-      </c>
-      <c r="X109" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B110" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C110">
         <v>3</v>
@@ -5127,10 +5127,10 @@
     </row>
     <row r="111" spans="1:24">
       <c r="A111" t="s">
+        <v>202</v>
+      </c>
+      <c r="B111" t="s">
         <v>204</v>
-      </c>
-      <c r="B111" t="s">
-        <v>206</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -5150,10 +5150,10 @@
     </row>
     <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B112" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5176,10 +5176,10 @@
     </row>
     <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B113" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5196,16 +5196,16 @@
     </row>
     <row r="114" spans="1:24">
       <c r="A114" t="s">
+        <v>207</v>
+      </c>
+      <c r="B114" t="s">
+        <v>208</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
         <v>209</v>
-      </c>
-      <c r="B114" t="s">
-        <v>210</v>
-      </c>
-      <c r="C114">
-        <v>2</v>
-      </c>
-      <c r="D114" t="s">
-        <v>211</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -5220,21 +5220,21 @@
         <v>1</v>
       </c>
       <c r="X114" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="115" spans="1:24">
       <c r="A115" t="s">
+        <v>207</v>
+      </c>
+      <c r="B115" t="s">
+        <v>214</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
         <v>209</v>
-      </c>
-      <c r="B115" t="s">
-        <v>216</v>
-      </c>
-      <c r="C115">
-        <v>2</v>
-      </c>
-      <c r="D115" t="s">
-        <v>211</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -5246,21 +5246,21 @@
         <v>1</v>
       </c>
       <c r="X115" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="116" spans="1:24">
       <c r="A116" t="s">
+        <v>207</v>
+      </c>
+      <c r="B116" t="s">
+        <v>216</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
         <v>209</v>
-      </c>
-      <c r="B116" t="s">
-        <v>218</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-      <c r="D116" t="s">
-        <v>211</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -5272,21 +5272,21 @@
         <v>1</v>
       </c>
       <c r="X116" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="117" spans="1:24">
       <c r="A117" t="s">
+        <v>207</v>
+      </c>
+      <c r="B117" t="s">
+        <v>217</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
         <v>209</v>
-      </c>
-      <c r="B117" t="s">
-        <v>219</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" t="s">
-        <v>211</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -5301,21 +5301,21 @@
         <v>1</v>
       </c>
       <c r="X117" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="118" spans="1:24">
       <c r="A118" t="s">
+        <v>207</v>
+      </c>
+      <c r="B118" t="s">
+        <v>218</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
         <v>209</v>
-      </c>
-      <c r="B118" t="s">
-        <v>220</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118" t="s">
-        <v>211</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -5327,21 +5327,21 @@
         <v>1</v>
       </c>
       <c r="X118" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="119" spans="1:24">
       <c r="A119" t="s">
+        <v>207</v>
+      </c>
+      <c r="B119" t="s">
+        <v>219</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
         <v>209</v>
-      </c>
-      <c r="B119" t="s">
-        <v>221</v>
-      </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119" t="s">
-        <v>211</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -5350,21 +5350,21 @@
         <v>6</v>
       </c>
       <c r="X119" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B120" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E120">
         <v>2</v>
@@ -5376,21 +5376,21 @@
         <v>1</v>
       </c>
       <c r="X120" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="121" spans="1:24">
       <c r="A121" t="s">
+        <v>220</v>
+      </c>
+      <c r="B121" t="s">
         <v>222</v>
       </c>
-      <c r="B121" t="s">
-        <v>224</v>
-      </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E121">
         <v>3</v>
@@ -5402,21 +5402,21 @@
         <v>1</v>
       </c>
       <c r="X121" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B122" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E122">
         <v>3</v>
@@ -5431,21 +5431,21 @@
         <v>1</v>
       </c>
       <c r="X122" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B123" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E123">
         <v>3</v>
@@ -5457,21 +5457,21 @@
         <v>1</v>
       </c>
       <c r="X123" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B124" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E124">
         <v>4</v>
@@ -5483,21 +5483,21 @@
         <v>1</v>
       </c>
       <c r="X124" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B125" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E125">
         <v>3</v>
@@ -5506,21 +5506,21 @@
         <v>5</v>
       </c>
       <c r="X125" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B126" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E126">
         <v>5</v>
@@ -5540,16 +5540,16 @@
     </row>
     <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>230</v>
+        <v>597</v>
       </c>
       <c r="B127" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E127">
         <v>3</v>
@@ -5561,21 +5561,21 @@
         <v>1</v>
       </c>
       <c r="X127" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="128" spans="1:24">
       <c r="A128" t="s">
+        <v>597</v>
+      </c>
+      <c r="B128" t="s">
         <v>230</v>
       </c>
-      <c r="B128" t="s">
-        <v>233</v>
-      </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E128">
         <v>5</v>
@@ -5587,21 +5587,21 @@
         <v>1</v>
       </c>
       <c r="X128" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>230</v>
+        <v>597</v>
       </c>
       <c r="B129" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E129">
         <v>4</v>
@@ -5610,21 +5610,21 @@
         <v>4</v>
       </c>
       <c r="X129" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>230</v>
+        <v>597</v>
       </c>
       <c r="B130" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E130">
         <v>6</v>
@@ -5636,21 +5636,21 @@
         <v>1</v>
       </c>
       <c r="X130" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B131" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E131">
         <v>3</v>
@@ -5670,16 +5670,16 @@
     </row>
     <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B132" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E132">
         <v>3</v>
@@ -5696,16 +5696,16 @@
     </row>
     <row r="133" spans="1:24">
       <c r="A133" t="s">
+        <v>236</v>
+      </c>
+      <c r="B133" t="s">
         <v>239</v>
       </c>
-      <c r="B133" t="s">
-        <v>242</v>
-      </c>
       <c r="C133">
         <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E133">
         <v>2</v>
@@ -5716,16 +5716,16 @@
     </row>
     <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B134" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
       <c r="D134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E134">
         <v>4</v>
@@ -5745,16 +5745,16 @@
     </row>
     <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B135" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
       <c r="D135" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -5765,16 +5765,16 @@
     </row>
     <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B136" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -5791,16 +5791,16 @@
     </row>
     <row r="137" spans="1:24">
       <c r="A137" t="s">
+        <v>241</v>
+      </c>
+      <c r="B137" t="s">
         <v>244</v>
       </c>
-      <c r="B137" t="s">
-        <v>247</v>
-      </c>
       <c r="C137">
         <v>2</v>
       </c>
       <c r="D137" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -5814,16 +5814,16 @@
     </row>
     <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B138" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -5837,16 +5837,16 @@
     </row>
     <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B139" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E139">
         <v>3</v>
@@ -5857,94 +5857,94 @@
     </row>
     <row r="140" spans="1:24">
       <c r="A140" t="s">
+        <v>246</v>
+      </c>
+      <c r="B140" t="s">
+        <v>248</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>148</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+      <c r="F140">
+        <v>4</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="U140">
+        <v>1</v>
+      </c>
+      <c r="X140" t="s">
         <v>249</v>
-      </c>
-      <c r="B140" t="s">
-        <v>251</v>
-      </c>
-      <c r="C140">
-        <v>2</v>
-      </c>
-      <c r="D140" t="s">
-        <v>149</v>
-      </c>
-      <c r="E140">
-        <v>2</v>
-      </c>
-      <c r="F140">
-        <v>4</v>
-      </c>
-      <c r="N140">
-        <v>1</v>
-      </c>
-      <c r="U140">
-        <v>1</v>
-      </c>
-      <c r="X140" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="141" spans="1:24">
       <c r="A141" t="s">
+        <v>246</v>
+      </c>
+      <c r="B141" t="s">
+        <v>250</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+      <c r="D141" t="s">
+        <v>148</v>
+      </c>
+      <c r="E141">
+        <v>3</v>
+      </c>
+      <c r="F141">
+        <v>3</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="U141">
+        <v>1</v>
+      </c>
+      <c r="X141" t="s">
         <v>249</v>
-      </c>
-      <c r="B141" t="s">
-        <v>253</v>
-      </c>
-      <c r="C141">
-        <v>2</v>
-      </c>
-      <c r="D141" t="s">
-        <v>149</v>
-      </c>
-      <c r="E141">
-        <v>3</v>
-      </c>
-      <c r="F141">
-        <v>3</v>
-      </c>
-      <c r="N141">
-        <v>1</v>
-      </c>
-      <c r="U141">
-        <v>1</v>
-      </c>
-      <c r="X141" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="142" spans="1:24">
       <c r="A142" t="s">
+        <v>246</v>
+      </c>
+      <c r="B142" t="s">
+        <v>251</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s">
+        <v>148</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+      <c r="F142">
+        <v>4</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="X142" t="s">
         <v>249</v>
-      </c>
-      <c r="B142" t="s">
-        <v>254</v>
-      </c>
-      <c r="C142">
-        <v>2</v>
-      </c>
-      <c r="D142" t="s">
-        <v>149</v>
-      </c>
-      <c r="E142">
-        <v>2</v>
-      </c>
-      <c r="F142">
-        <v>4</v>
-      </c>
-      <c r="N142">
-        <v>1</v>
-      </c>
-      <c r="X142" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B143" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C143">
         <v>2</v>
@@ -5964,10 +5964,10 @@
     </row>
     <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B144" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C144">
         <v>2</v>
@@ -5990,10 +5990,10 @@
     </row>
     <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B145" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C145">
         <v>2</v>
@@ -6016,10 +6016,10 @@
     </row>
     <row r="146" spans="1:24">
       <c r="A146" t="s">
+        <v>253</v>
+      </c>
+      <c r="B146" t="s">
         <v>256</v>
-      </c>
-      <c r="B146" t="s">
-        <v>259</v>
       </c>
       <c r="C146">
         <v>2</v>
@@ -6034,7 +6034,7 @@
         <v>6</v>
       </c>
       <c r="O146" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P146">
         <v>2</v>
@@ -6045,16 +6045,16 @@
     </row>
     <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B147" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C147">
         <v>2</v>
       </c>
       <c r="D147" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E147">
         <v>4</v>
@@ -6077,16 +6077,16 @@
     </row>
     <row r="148" spans="1:24">
       <c r="A148" t="s">
+        <v>257</v>
+      </c>
+      <c r="B148" t="s">
         <v>260</v>
       </c>
-      <c r="B148" t="s">
-        <v>263</v>
-      </c>
       <c r="C148">
         <v>2</v>
       </c>
       <c r="D148" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E148">
         <v>3</v>
@@ -6109,16 +6109,16 @@
     </row>
     <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B149" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C149">
         <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E149">
         <v>2</v>
@@ -6138,16 +6138,16 @@
     </row>
     <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B150" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C150">
         <v>2</v>
       </c>
       <c r="D150" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E150">
         <v>3</v>
@@ -6167,16 +6167,16 @@
     </row>
     <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B151" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C151">
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E151">
         <v>4</v>
@@ -6196,16 +6196,16 @@
     </row>
     <row r="152" spans="1:24">
       <c r="A152" t="s">
+        <v>263</v>
+      </c>
+      <c r="B152" t="s">
         <v>266</v>
       </c>
-      <c r="B152" t="s">
-        <v>269</v>
-      </c>
       <c r="C152">
         <v>2</v>
       </c>
       <c r="D152" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E152">
         <v>3</v>
@@ -6225,16 +6225,16 @@
     </row>
     <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B153" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C153">
         <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E153">
         <v>3</v>
@@ -6251,16 +6251,16 @@
     </row>
     <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B154" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C154">
         <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E154">
         <v>3</v>
@@ -6274,16 +6274,16 @@
     </row>
     <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B155" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C155">
         <v>2</v>
       </c>
       <c r="D155" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E155">
         <v>4</v>
@@ -6295,21 +6295,21 @@
         <v>1</v>
       </c>
       <c r="X155" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="156" spans="1:24">
       <c r="A156" t="s">
+        <v>269</v>
+      </c>
+      <c r="B156" t="s">
         <v>272</v>
       </c>
-      <c r="B156" t="s">
-        <v>275</v>
-      </c>
       <c r="C156">
         <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E156">
         <v>2</v>
@@ -6323,16 +6323,16 @@
     </row>
     <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B157" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C157">
         <v>2</v>
       </c>
       <c r="D157" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E157">
         <v>3</v>
@@ -6349,16 +6349,16 @@
     </row>
     <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B158" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C158">
         <v>2</v>
       </c>
       <c r="D158" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E158">
         <v>4</v>
@@ -6372,16 +6372,16 @@
     </row>
     <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B159" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C159">
         <v>2</v>
       </c>
       <c r="D159" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E159">
         <v>2</v>
@@ -6399,21 +6399,21 @@
         <v>1</v>
       </c>
       <c r="X159" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="160" spans="1:24">
       <c r="A160" t="s">
+        <v>275</v>
+      </c>
+      <c r="B160" t="s">
         <v>278</v>
       </c>
-      <c r="B160" t="s">
-        <v>281</v>
-      </c>
       <c r="C160">
         <v>2</v>
       </c>
       <c r="D160" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E160">
         <v>3</v>
@@ -6431,21 +6431,21 @@
         <v>1</v>
       </c>
       <c r="X160" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B161" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C161">
         <v>2</v>
       </c>
       <c r="D161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E161">
         <v>2</v>
@@ -6463,21 +6463,21 @@
         <v>1</v>
       </c>
       <c r="X161" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B162" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E162">
         <v>4</v>
@@ -6497,16 +6497,16 @@
     </row>
     <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B163" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E163">
         <v>3</v>
@@ -6523,16 +6523,16 @@
     </row>
     <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B164" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C164">
         <v>2</v>
       </c>
       <c r="D164" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E164">
         <v>3</v>
@@ -6550,21 +6550,21 @@
         <v>-1</v>
       </c>
       <c r="X164" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="165" spans="1:24">
       <c r="A165" t="s">
+        <v>282</v>
+      </c>
+      <c r="B165" t="s">
         <v>285</v>
       </c>
-      <c r="B165" t="s">
-        <v>288</v>
-      </c>
       <c r="C165">
         <v>2</v>
       </c>
       <c r="D165" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E165">
         <v>5</v>
@@ -6581,16 +6581,16 @@
     </row>
     <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B166" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C166">
         <v>2</v>
       </c>
       <c r="D166" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E166">
         <v>4</v>
@@ -6610,16 +6610,16 @@
     </row>
     <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B167" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C167">
         <v>2</v>
       </c>
       <c r="D167" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E167">
         <v>3</v>
@@ -6639,16 +6639,16 @@
     </row>
     <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B168" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C168">
         <v>2</v>
       </c>
       <c r="D168" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E168">
         <v>2</v>
@@ -6662,16 +6662,16 @@
     </row>
     <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B169" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C169">
         <v>2</v>
       </c>
       <c r="D169" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E169">
         <v>2</v>
@@ -6688,16 +6688,16 @@
     </row>
     <row r="170" spans="1:24">
       <c r="A170" t="s">
+        <v>288</v>
+      </c>
+      <c r="B170" t="s">
         <v>291</v>
       </c>
-      <c r="B170" t="s">
-        <v>294</v>
-      </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E170">
         <v>3</v>
@@ -6708,16 +6708,16 @@
     </row>
     <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B171" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E171">
         <v>3</v>
@@ -6734,16 +6734,16 @@
     </row>
     <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B172" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C172">
         <v>2</v>
       </c>
       <c r="D172" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E172">
         <v>2</v>
@@ -6757,10 +6757,10 @@
     </row>
     <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B173" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C173">
         <v>2</v>
@@ -6783,10 +6783,10 @@
     </row>
     <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B174" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C174">
         <v>2</v>
@@ -6809,10 +6809,10 @@
     </row>
     <row r="175" spans="1:24">
       <c r="A175" t="s">
+        <v>294</v>
+      </c>
+      <c r="B175" t="s">
         <v>297</v>
-      </c>
-      <c r="B175" t="s">
-        <v>300</v>
       </c>
       <c r="C175">
         <v>2</v>
@@ -6835,10 +6835,10 @@
     </row>
     <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B176" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C176">
         <v>2</v>
@@ -6864,16 +6864,16 @@
     </row>
     <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B177" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C177">
         <v>2</v>
       </c>
       <c r="D177" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E177">
         <v>2</v>
@@ -6887,16 +6887,16 @@
     </row>
     <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B178" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C178">
         <v>2</v>
       </c>
       <c r="D178" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E178">
         <v>3</v>
@@ -6911,21 +6911,21 @@
         <v>1</v>
       </c>
       <c r="X178" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="179" spans="1:24">
       <c r="A179" t="s">
+        <v>299</v>
+      </c>
+      <c r="B179" t="s">
         <v>302</v>
       </c>
-      <c r="B179" t="s">
-        <v>305</v>
-      </c>
       <c r="C179">
         <v>2</v>
       </c>
       <c r="D179" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E179">
         <v>4</v>
@@ -6939,16 +6939,16 @@
     </row>
     <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B180" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C180">
         <v>2</v>
       </c>
       <c r="D180" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E180">
         <v>5</v>
@@ -6965,16 +6965,16 @@
     </row>
     <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B181" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C181">
         <v>2</v>
       </c>
       <c r="D181" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E181">
         <v>2</v>
@@ -6985,16 +6985,16 @@
     </row>
     <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B182" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C182">
         <v>2</v>
       </c>
       <c r="D182" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E182">
         <v>4</v>
@@ -7008,16 +7008,16 @@
     </row>
     <row r="183" spans="1:24">
       <c r="A183" t="s">
+        <v>303</v>
+      </c>
+      <c r="B183" t="s">
         <v>306</v>
       </c>
-      <c r="B183" t="s">
-        <v>309</v>
-      </c>
       <c r="C183">
         <v>2</v>
       </c>
       <c r="D183" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E183">
         <v>5</v>
@@ -7031,16 +7031,16 @@
     </row>
     <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B184" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C184">
         <v>2</v>
       </c>
       <c r="D184" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E184">
         <v>3</v>
@@ -7051,16 +7051,16 @@
     </row>
     <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B185" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C185">
         <v>2</v>
       </c>
       <c r="D185" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -7074,16 +7074,16 @@
     </row>
     <row r="186" spans="1:24">
       <c r="A186" t="s">
+        <v>308</v>
+      </c>
+      <c r="B186" t="s">
         <v>311</v>
       </c>
-      <c r="B186" t="s">
-        <v>314</v>
-      </c>
       <c r="C186">
         <v>2</v>
       </c>
       <c r="D186" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -7097,16 +7097,16 @@
     </row>
     <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B187" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="O187" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P187">
         <v>2</v>
@@ -7132,16 +7132,16 @@
     </row>
     <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B188" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -7158,16 +7158,16 @@
     </row>
     <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B189" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -7187,16 +7187,16 @@
     </row>
     <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B190" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E190">
         <v>4</v>
@@ -7210,16 +7210,16 @@
     </row>
     <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>320</v>
+        <v>595</v>
       </c>
       <c r="B191" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C191">
         <v>2</v>
       </c>
       <c r="D191" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E191">
         <v>3</v>
@@ -7242,16 +7242,16 @@
     </row>
     <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>320</v>
+        <v>595</v>
       </c>
       <c r="B192" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C192">
         <v>2</v>
       </c>
       <c r="D192" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E192">
         <v>3</v>
@@ -7271,16 +7271,16 @@
     </row>
     <row r="193" spans="1:23">
       <c r="A193" t="s">
-        <v>320</v>
+        <v>595</v>
       </c>
       <c r="B193" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C193">
         <v>2</v>
       </c>
       <c r="D193" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E193">
         <v>4</v>
@@ -7294,16 +7294,16 @@
     </row>
     <row r="194" spans="1:23">
       <c r="A194" t="s">
+        <v>595</v>
+      </c>
+      <c r="B194" t="s">
         <v>320</v>
       </c>
-      <c r="B194" t="s">
-        <v>324</v>
-      </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E194">
         <v>2</v>
@@ -7320,16 +7320,16 @@
     </row>
     <row r="195" spans="1:23">
       <c r="A195" t="s">
-        <v>320</v>
+        <v>595</v>
       </c>
       <c r="B195" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E195">
         <v>5</v>
@@ -7344,7 +7344,7 @@
         <v>1</v>
       </c>
       <c r="O195" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P195">
         <v>1</v>
@@ -7355,16 +7355,16 @@
     </row>
     <row r="196" spans="1:23">
       <c r="A196" t="s">
-        <v>325</v>
+        <v>594</v>
       </c>
       <c r="B196" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C196">
         <v>2</v>
       </c>
       <c r="D196" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E196">
         <v>3</v>
@@ -7376,7 +7376,7 @@
         <v>1</v>
       </c>
       <c r="O196" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="P196">
         <v>1</v>
@@ -7387,16 +7387,16 @@
     </row>
     <row r="197" spans="1:23">
       <c r="A197" t="s">
-        <v>325</v>
+        <v>594</v>
       </c>
       <c r="B197" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C197">
         <v>2</v>
       </c>
       <c r="D197" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E197">
         <v>2</v>
@@ -7405,7 +7405,7 @@
         <v>2</v>
       </c>
       <c r="O197" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="P197">
         <v>1</v>
@@ -7416,16 +7416,16 @@
     </row>
     <row r="198" spans="1:23">
       <c r="A198" t="s">
-        <v>325</v>
+        <v>594</v>
       </c>
       <c r="B198" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C198">
         <v>2</v>
       </c>
       <c r="D198" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E198">
         <v>5</v>
@@ -7437,7 +7437,7 @@
         <v>1</v>
       </c>
       <c r="O198" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="P198">
         <v>1</v>
@@ -7448,16 +7448,16 @@
     </row>
     <row r="199" spans="1:23">
       <c r="A199" t="s">
+        <v>594</v>
+      </c>
+      <c r="B199" t="s">
         <v>325</v>
       </c>
-      <c r="B199" t="s">
-        <v>330</v>
-      </c>
       <c r="C199">
         <v>2</v>
       </c>
       <c r="D199" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E199">
         <v>2</v>
@@ -7469,7 +7469,7 @@
         <v>1</v>
       </c>
       <c r="O199" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="P199">
         <v>1</v>
@@ -7480,16 +7480,16 @@
     </row>
     <row r="200" spans="1:23">
       <c r="A200" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B200" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C200">
         <v>2</v>
       </c>
       <c r="D200" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E200">
         <v>3</v>
@@ -7506,16 +7506,16 @@
     </row>
     <row r="201" spans="1:23">
       <c r="A201" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B201" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C201">
         <v>2</v>
       </c>
       <c r="D201" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E201">
         <v>2</v>
@@ -7535,16 +7535,16 @@
     </row>
     <row r="202" spans="1:23">
       <c r="A202" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B202" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E202">
         <v>2</v>
@@ -7558,16 +7558,16 @@
     </row>
     <row r="203" spans="1:23">
       <c r="A203" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B203" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E203">
         <v>4</v>
@@ -7584,16 +7584,16 @@
     </row>
     <row r="204" spans="1:23">
       <c r="A204" t="s">
+        <v>326</v>
+      </c>
+      <c r="B204" t="s">
         <v>331</v>
       </c>
-      <c r="B204" t="s">
-        <v>336</v>
-      </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E204">
         <v>3</v>
@@ -7607,16 +7607,16 @@
     </row>
     <row r="205" spans="1:23">
       <c r="A205" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B205" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E205">
         <v>4</v>
@@ -7633,16 +7633,16 @@
     </row>
     <row r="206" spans="1:23">
       <c r="A206" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B206" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C206">
         <v>2</v>
       </c>
       <c r="D206" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E206">
         <v>4</v>
@@ -7662,16 +7662,16 @@
     </row>
     <row r="207" spans="1:23">
       <c r="A207" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B207" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C207">
         <v>2</v>
       </c>
       <c r="D207" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E207">
         <v>3</v>
@@ -7688,16 +7688,16 @@
     </row>
     <row r="208" spans="1:23">
       <c r="A208" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B208" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C208">
         <v>2</v>
       </c>
       <c r="D208" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E208">
         <v>3</v>
@@ -7711,16 +7711,16 @@
     </row>
     <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B209" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -7729,21 +7729,21 @@
         <v>-1</v>
       </c>
       <c r="X209" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B210" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E210">
         <v>5</v>
@@ -7760,10 +7760,10 @@
     </row>
     <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B211" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C211">
         <v>3</v>
@@ -7783,10 +7783,10 @@
     </row>
     <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B212" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C212">
         <v>3</v>
@@ -7806,10 +7806,10 @@
     </row>
     <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B213" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -7826,10 +7826,10 @@
     </row>
     <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B214" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -7849,10 +7849,10 @@
     </row>
     <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B215" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C215">
         <v>2</v>
@@ -7875,10 +7875,10 @@
     </row>
     <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B216" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C216">
         <v>2</v>
@@ -7895,10 +7895,10 @@
     </row>
     <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B217" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C217">
         <v>2</v>
@@ -7921,10 +7921,10 @@
     </row>
     <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B218" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C218">
         <v>2</v>
@@ -7944,16 +7944,16 @@
     </row>
     <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B219" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C219">
         <v>2</v>
       </c>
       <c r="D219" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E219">
         <v>5</v>
@@ -7965,21 +7965,21 @@
         <v>1</v>
       </c>
       <c r="X219" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B220" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C220">
         <v>2</v>
       </c>
       <c r="D220" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E220">
         <v>4</v>
@@ -7991,21 +7991,21 @@
         <v>1</v>
       </c>
       <c r="X220" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B221" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C221">
         <v>2</v>
       </c>
       <c r="D221" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E221">
         <v>4</v>
@@ -8019,16 +8019,16 @@
     </row>
     <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B222" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C222">
         <v>2</v>
       </c>
       <c r="D222" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E222">
         <v>2</v>
@@ -8040,21 +8040,21 @@
         <v>1</v>
       </c>
       <c r="X222" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>358</v>
+        <v>598</v>
       </c>
       <c r="B223" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C223">
         <v>2</v>
       </c>
       <c r="D223" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E223">
         <v>2</v>
@@ -8074,16 +8074,16 @@
     </row>
     <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>358</v>
+        <v>598</v>
       </c>
       <c r="B224" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C224">
         <v>2</v>
       </c>
       <c r="D224" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E224">
         <v>4</v>
@@ -8100,16 +8100,16 @@
     </row>
     <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>358</v>
+        <v>598</v>
       </c>
       <c r="B225" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C225">
         <v>2</v>
       </c>
       <c r="D225" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E225">
         <v>4</v>
@@ -8129,16 +8129,16 @@
     </row>
     <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>358</v>
+        <v>598</v>
       </c>
       <c r="B226" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C226">
         <v>2</v>
       </c>
       <c r="D226" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E226">
         <v>2</v>
@@ -8158,16 +8158,16 @@
     </row>
     <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B227" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C227">
         <v>2</v>
       </c>
       <c r="D227" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E227">
         <v>3</v>
@@ -8181,16 +8181,16 @@
     </row>
     <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B228" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C228">
         <v>2</v>
       </c>
       <c r="D228" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E228">
         <v>3</v>
@@ -8204,16 +8204,16 @@
     </row>
     <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B229" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C229">
         <v>2</v>
       </c>
       <c r="D229" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E229">
         <v>4</v>
@@ -8228,21 +8228,21 @@
         <v>1</v>
       </c>
       <c r="X229" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B230" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C230">
         <v>2</v>
       </c>
       <c r="D230" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E230">
         <v>5</v>
@@ -8257,21 +8257,21 @@
         <v>1</v>
       </c>
       <c r="X230" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B231" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E231">
         <v>6</v>
@@ -8289,21 +8289,21 @@
         <v>1</v>
       </c>
       <c r="X231" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B232" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E232">
         <v>3</v>
@@ -8318,21 +8318,21 @@
         <v>1</v>
       </c>
       <c r="X232" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="233" spans="1:24">
       <c r="A233" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B233" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E233">
         <v>4</v>
@@ -8344,7 +8344,7 @@
         <v>1</v>
       </c>
       <c r="O233" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P233">
         <v>2</v>
@@ -8353,21 +8353,21 @@
         <v>1</v>
       </c>
       <c r="X233" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="234" spans="1:24">
       <c r="A234" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B234" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E234">
         <v>2</v>
@@ -8382,21 +8382,21 @@
         <v>1</v>
       </c>
       <c r="X234" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="235" spans="1:24">
       <c r="A235" t="s">
+        <v>361</v>
+      </c>
+      <c r="B235" t="s">
         <v>367</v>
       </c>
-      <c r="B235" t="s">
-        <v>373</v>
-      </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E235">
         <v>3</v>
@@ -8414,21 +8414,21 @@
         <v>1</v>
       </c>
       <c r="X235" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="236" spans="1:24">
       <c r="A236" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B236" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E236">
         <v>6</v>
@@ -8449,21 +8449,21 @@
         <v>1</v>
       </c>
       <c r="X236" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="237" spans="1:24">
       <c r="A237" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B237" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E237">
         <v>6</v>
@@ -8484,21 +8484,21 @@
         <v>1</v>
       </c>
       <c r="X237" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="238" spans="1:24">
       <c r="A238" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B238" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E238">
         <v>5</v>
@@ -8522,21 +8522,21 @@
         <v>1</v>
       </c>
       <c r="X238" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="239" spans="1:24">
       <c r="A239" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B239" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C239">
         <v>2</v>
       </c>
       <c r="D239" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E239">
         <v>2</v>
@@ -8553,16 +8553,16 @@
     </row>
     <row r="240" spans="1:24">
       <c r="A240" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B240" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C240">
         <v>2</v>
       </c>
       <c r="D240" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E240">
         <v>3</v>
@@ -8579,16 +8579,16 @@
     </row>
     <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B241" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C241">
         <v>2</v>
       </c>
       <c r="D241" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E241">
         <v>4</v>
@@ -8605,16 +8605,16 @@
     </row>
     <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B242" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C242">
         <v>2</v>
       </c>
       <c r="D242" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E242">
         <v>3</v>
@@ -8634,16 +8634,16 @@
     </row>
     <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B243" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C243">
         <v>2</v>
       </c>
       <c r="D243" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E243">
         <v>2</v>
@@ -8654,16 +8654,16 @@
     </row>
     <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B244" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C244">
         <v>2</v>
       </c>
       <c r="D244" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E244">
         <v>3</v>
@@ -8677,16 +8677,16 @@
     </row>
     <row r="245" spans="1:24">
       <c r="A245" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B245" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C245">
         <v>2</v>
       </c>
       <c r="D245" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E245">
         <v>4</v>
@@ -8701,7 +8701,7 @@
         <v>1</v>
       </c>
       <c r="O245" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P245">
         <v>1</v>
@@ -8712,16 +8712,16 @@
     </row>
     <row r="246" spans="1:24">
       <c r="A246" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B246" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C246">
         <v>2</v>
       </c>
       <c r="D246" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E246">
         <v>4</v>
@@ -8735,16 +8735,16 @@
     </row>
     <row r="247" spans="1:24">
       <c r="A247" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B247" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C247">
         <v>3</v>
       </c>
       <c r="D247" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E247">
         <v>4</v>
@@ -8770,16 +8770,16 @@
     </row>
     <row r="248" spans="1:24">
       <c r="A248" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B248" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C248">
         <v>2</v>
       </c>
       <c r="D248" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E248">
         <v>4</v>
@@ -8796,16 +8796,16 @@
     </row>
     <row r="249" spans="1:24">
       <c r="A249" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B249" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C249">
         <v>2</v>
       </c>
       <c r="D249" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E249">
         <v>3</v>
@@ -8828,16 +8828,16 @@
     </row>
     <row r="250" spans="1:24">
       <c r="A250" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B250" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E250">
         <v>6</v>
@@ -8860,16 +8860,16 @@
     </row>
     <row r="251" spans="1:24">
       <c r="A251" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B251" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C251">
         <v>3</v>
       </c>
       <c r="D251" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E251">
         <v>3</v>
@@ -8886,16 +8886,16 @@
     </row>
     <row r="252" spans="1:24">
       <c r="A252" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B252" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C252">
         <v>2</v>
       </c>
       <c r="D252" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E252">
         <v>2</v>
@@ -8909,16 +8909,16 @@
     </row>
     <row r="253" spans="1:24">
       <c r="A253" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B253" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C253">
         <v>2</v>
       </c>
       <c r="D253" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E253">
         <v>4</v>
@@ -8935,16 +8935,16 @@
     </row>
     <row r="254" spans="1:24">
       <c r="A254" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B254" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E254">
         <v>6</v>
@@ -8962,21 +8962,21 @@
         <v>1</v>
       </c>
       <c r="X254" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="255" spans="1:24">
       <c r="A255" t="s">
-        <v>396</v>
+        <v>600</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C255">
         <v>2</v>
       </c>
       <c r="D255" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -8996,16 +8996,16 @@
     </row>
     <row r="256" spans="1:24">
       <c r="A256" t="s">
-        <v>396</v>
+        <v>600</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C256">
         <v>2</v>
       </c>
       <c r="D256" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -9022,16 +9022,16 @@
     </row>
     <row r="257" spans="1:23">
       <c r="A257" t="s">
-        <v>396</v>
+        <v>600</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C257">
         <v>3</v>
       </c>
       <c r="D257" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -9045,16 +9045,16 @@
     </row>
     <row r="258" spans="1:23">
       <c r="A258" t="s">
-        <v>396</v>
+        <v>600</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E258">
         <v>6</v>
@@ -9071,16 +9071,16 @@
     </row>
     <row r="259" spans="1:23">
       <c r="A259" t="s">
-        <v>401</v>
+        <v>601</v>
       </c>
       <c r="B259" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C259">
         <v>2</v>
       </c>
       <c r="D259" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E259">
         <v>3</v>
@@ -9094,16 +9094,16 @@
     </row>
     <row r="260" spans="1:23">
       <c r="A260" t="s">
-        <v>401</v>
+        <v>601</v>
       </c>
       <c r="B260" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E260">
         <v>3</v>
@@ -9114,16 +9114,16 @@
     </row>
     <row r="261" spans="1:23">
       <c r="A261" t="s">
-        <v>401</v>
+        <v>601</v>
       </c>
       <c r="B261" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E261">
         <v>4</v>
@@ -9140,16 +9140,16 @@
     </row>
     <row r="262" spans="1:23">
       <c r="A262" t="s">
-        <v>401</v>
+        <v>601</v>
       </c>
       <c r="B262" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E262">
         <v>3</v>
@@ -9166,16 +9166,16 @@
     </row>
     <row r="263" spans="1:23">
       <c r="A263" t="s">
-        <v>401</v>
+        <v>601</v>
       </c>
       <c r="B263" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E263">
         <v>2</v>
@@ -9186,16 +9186,16 @@
     </row>
     <row r="264" spans="1:23">
       <c r="A264" t="s">
-        <v>401</v>
+        <v>601</v>
       </c>
       <c r="B264" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E264">
         <v>4</v>
@@ -9209,16 +9209,16 @@
     </row>
     <row r="265" spans="1:23">
       <c r="A265" t="s">
-        <v>401</v>
+        <v>601</v>
       </c>
       <c r="B265" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E265">
         <v>2</v>
@@ -9232,16 +9232,16 @@
     </row>
     <row r="266" spans="1:23">
       <c r="A266" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B266" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C266">
         <v>2</v>
       </c>
       <c r="D266" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E266">
         <v>4</v>
@@ -9261,16 +9261,16 @@
     </row>
     <row r="267" spans="1:23">
       <c r="A267" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B267" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C267">
         <v>2</v>
       </c>
       <c r="D267" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E267">
         <v>5</v>
@@ -9287,16 +9287,16 @@
     </row>
     <row r="268" spans="1:23">
       <c r="A268" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B268" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C268">
         <v>2</v>
       </c>
       <c r="D268" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E268">
         <v>3</v>
@@ -9310,16 +9310,16 @@
     </row>
     <row r="269" spans="1:23">
       <c r="A269" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B269" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C269">
         <v>2</v>
       </c>
       <c r="D269" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E269">
         <v>3</v>
@@ -9336,16 +9336,16 @@
     </row>
     <row r="270" spans="1:23">
       <c r="A270" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B270" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C270">
         <v>2</v>
       </c>
       <c r="D270" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E270">
         <v>3</v>
@@ -9359,16 +9359,16 @@
     </row>
     <row r="271" spans="1:23">
       <c r="A271" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B271" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C271">
         <v>2</v>
       </c>
       <c r="D271" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E271">
         <v>3</v>
@@ -9382,16 +9382,16 @@
     </row>
     <row r="272" spans="1:23">
       <c r="A272" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B272" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E272">
         <v>3</v>
@@ -9402,16 +9402,16 @@
     </row>
     <row r="273" spans="1:24">
       <c r="A273" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B273" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E273">
         <v>5</v>
@@ -9428,16 +9428,16 @@
     </row>
     <row r="274" spans="1:24">
       <c r="A274" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B274" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E274">
         <v>4</v>
@@ -9457,16 +9457,16 @@
     </row>
     <row r="275" spans="1:24">
       <c r="A275" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B275" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E275">
         <v>7</v>
@@ -9483,16 +9483,16 @@
     </row>
     <row r="276" spans="1:24">
       <c r="A276" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B276" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C276">
         <v>2</v>
       </c>
       <c r="D276" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E276">
         <v>3</v>
@@ -9512,16 +9512,16 @@
     </row>
     <row r="277" spans="1:24">
       <c r="A277" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B277" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C277">
         <v>2</v>
       </c>
       <c r="D277" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E277">
         <v>2</v>
@@ -9535,16 +9535,16 @@
     </row>
     <row r="278" spans="1:24">
       <c r="A278" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B278" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C278">
         <v>2</v>
       </c>
       <c r="D278" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E278">
         <v>2</v>
@@ -9564,16 +9564,16 @@
     </row>
     <row r="279" spans="1:24">
       <c r="A279" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B279" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E279">
         <v>3</v>
@@ -9590,16 +9590,16 @@
     </row>
     <row r="280" spans="1:24">
       <c r="A280" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B280" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C280">
         <v>1</v>
       </c>
       <c r="D280" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E280">
         <v>4</v>
@@ -9619,16 +9619,16 @@
     </row>
     <row r="281" spans="1:24">
       <c r="A281" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B281" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C281">
         <v>2</v>
       </c>
       <c r="D281" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E281">
         <v>4</v>
@@ -9645,16 +9645,16 @@
     </row>
     <row r="282" spans="1:24">
       <c r="A282" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B282" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C282">
         <v>2</v>
       </c>
       <c r="D282" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E282">
         <v>3</v>
@@ -9671,16 +9671,16 @@
     </row>
     <row r="283" spans="1:24">
       <c r="A283" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B283" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C283">
         <v>2</v>
       </c>
       <c r="D283" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E283">
         <v>2</v>
@@ -9694,16 +9694,16 @@
     </row>
     <row r="284" spans="1:24">
       <c r="A284" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B284" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C284">
         <v>1</v>
       </c>
       <c r="D284" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E284">
         <v>5</v>
@@ -9714,16 +9714,16 @@
     </row>
     <row r="285" spans="1:24">
       <c r="A285" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B285" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
       <c r="D285" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E285">
         <v>4</v>
@@ -9734,16 +9734,16 @@
     </row>
     <row r="286" spans="1:24">
       <c r="A286" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B286" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C286">
         <v>2</v>
       </c>
       <c r="D286" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E286">
         <v>3</v>
@@ -9752,21 +9752,21 @@
         <v>-1</v>
       </c>
       <c r="X286" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="287" spans="1:24">
       <c r="A287" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B287" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C287">
         <v>2</v>
       </c>
       <c r="D287" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E287">
         <v>4</v>
@@ -9784,21 +9784,21 @@
         <v>1</v>
       </c>
       <c r="X287" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="288" spans="1:24">
       <c r="A288" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B288" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C288">
         <v>2</v>
       </c>
       <c r="D288" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E288">
         <v>3</v>
@@ -9813,21 +9813,21 @@
         <v>2</v>
       </c>
       <c r="X288" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="289" spans="1:24">
       <c r="A289" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B289" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C289">
         <v>2</v>
       </c>
       <c r="D289" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E289">
         <v>3</v>
@@ -9839,21 +9839,21 @@
         <v>1</v>
       </c>
       <c r="X289" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="290" spans="1:24">
       <c r="A290" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B290" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C290">
         <v>2</v>
       </c>
       <c r="D290" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E290">
         <v>5</v>
@@ -9865,21 +9865,21 @@
         <v>1</v>
       </c>
       <c r="X290" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="291" spans="1:24">
       <c r="A291" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B291" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C291">
         <v>2</v>
       </c>
       <c r="D291" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E291">
         <v>4</v>
@@ -9891,21 +9891,21 @@
         <v>1</v>
       </c>
       <c r="X291" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="292" spans="1:24">
       <c r="A292" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B292" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C292">
         <v>2</v>
       </c>
       <c r="D292" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E292">
         <v>3</v>
@@ -9919,16 +9919,16 @@
     </row>
     <row r="293" spans="1:24">
       <c r="A293" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B293" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C293">
         <v>1</v>
       </c>
       <c r="D293" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E293">
         <v>3</v>
@@ -9945,16 +9945,16 @@
     </row>
     <row r="294" spans="1:24">
       <c r="A294" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B294" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C294">
         <v>1</v>
       </c>
       <c r="D294" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E294">
         <v>4</v>
@@ -9966,21 +9966,21 @@
         <v>1</v>
       </c>
       <c r="X294" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="295" spans="1:24">
       <c r="A295" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B295" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C295">
         <v>2</v>
       </c>
       <c r="D295" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E295">
         <v>3</v>
@@ -9997,16 +9997,16 @@
     </row>
     <row r="296" spans="1:24">
       <c r="A296" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B296" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C296">
         <v>2</v>
       </c>
       <c r="D296" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E296">
         <v>2</v>
@@ -10020,16 +10020,16 @@
     </row>
     <row r="297" spans="1:24">
       <c r="A297" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B297" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C297">
         <v>1</v>
       </c>
       <c r="D297" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E297">
         <v>5</v>
@@ -10047,21 +10047,21 @@
         <v>1</v>
       </c>
       <c r="X297" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="298" spans="1:24">
       <c r="A298" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B298" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E298">
         <v>4</v>
@@ -10081,16 +10081,16 @@
     </row>
     <row r="299" spans="1:24">
       <c r="A299" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B299" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C299">
         <v>1</v>
       </c>
       <c r="D299" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E299">
         <v>3</v>
@@ -10104,16 +10104,16 @@
     </row>
     <row r="300" spans="1:24">
       <c r="A300" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B300" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C300">
         <v>1</v>
       </c>
       <c r="D300" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E300">
         <v>3</v>
@@ -10130,16 +10130,16 @@
     </row>
     <row r="301" spans="1:24">
       <c r="A301" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B301" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C301">
         <v>2</v>
       </c>
       <c r="D301" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E301">
         <v>4</v>
@@ -10153,16 +10153,16 @@
     </row>
     <row r="302" spans="1:24">
       <c r="A302" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B302" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C302">
         <v>2</v>
       </c>
       <c r="D302" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E302">
         <v>3</v>
@@ -10173,16 +10173,16 @@
     </row>
     <row r="303" spans="1:24">
       <c r="A303" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B303" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C303">
         <v>2</v>
       </c>
       <c r="D303" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E303">
         <v>3</v>
@@ -10197,21 +10197,21 @@
         <v>1</v>
       </c>
       <c r="X303" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="304" spans="1:24">
       <c r="A304" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B304" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C304">
         <v>1</v>
       </c>
       <c r="D304" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E304">
         <v>5</v>
@@ -10225,16 +10225,16 @@
     </row>
     <row r="305" spans="1:25">
       <c r="A305" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B305" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C305">
         <v>1</v>
       </c>
       <c r="D305" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E305">
         <v>2</v>
@@ -10249,21 +10249,21 @@
         <v>1</v>
       </c>
       <c r="Y305" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="306" spans="1:25">
       <c r="A306" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B306" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C306">
         <v>1</v>
       </c>
       <c r="D306" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E306">
         <v>5</v>
@@ -10275,21 +10275,21 @@
         <v>1</v>
       </c>
       <c r="Y306" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="307" spans="1:25">
       <c r="A307" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B307" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C307">
         <v>1</v>
       </c>
       <c r="D307" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E307">
         <v>5</v>
@@ -10307,21 +10307,21 @@
         <v>1</v>
       </c>
       <c r="Y307" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="308" spans="1:25">
       <c r="A308" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B308" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C308">
         <v>1</v>
       </c>
       <c r="D308" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E308">
         <v>4</v>
@@ -10342,21 +10342,21 @@
         <v>1</v>
       </c>
       <c r="Y308" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="309" spans="1:25">
       <c r="A309" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B309" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C309">
         <v>1</v>
       </c>
       <c r="D309" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E309">
         <v>4</v>
@@ -10373,16 +10373,16 @@
     </row>
     <row r="310" spans="1:25">
       <c r="A310" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B310" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C310">
         <v>1</v>
       </c>
       <c r="D310" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E310">
         <v>3</v>
@@ -10397,21 +10397,21 @@
         <v>1</v>
       </c>
       <c r="Y310" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="311" spans="1:25">
       <c r="A311" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B311" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="C311">
         <v>1</v>
       </c>
       <c r="D311" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E311">
         <v>2</v>
@@ -10432,21 +10432,21 @@
         <v>1</v>
       </c>
       <c r="Y311" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="312" spans="1:25">
       <c r="A312" t="s">
+        <v>453</v>
+      </c>
+      <c r="B312" t="s">
         <v>461</v>
       </c>
-      <c r="B312" t="s">
-        <v>469</v>
-      </c>
       <c r="C312">
         <v>1</v>
       </c>
       <c r="D312" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E312">
         <v>2</v>
@@ -10461,21 +10461,21 @@
         <v>1</v>
       </c>
       <c r="Y312" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="313" spans="1:25">
       <c r="A313" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B313" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C313">
         <v>1</v>
       </c>
       <c r="D313" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E313">
         <v>2</v>
@@ -10486,16 +10486,16 @@
     </row>
     <row r="314" spans="1:25">
       <c r="A314" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B314" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C314">
         <v>2</v>
       </c>
       <c r="D314" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E314">
         <v>5</v>
@@ -10506,16 +10506,16 @@
     </row>
     <row r="315" spans="1:25">
       <c r="A315" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B315" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C315">
         <v>2</v>
       </c>
       <c r="D315" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E315">
         <v>4</v>
@@ -10529,16 +10529,16 @@
     </row>
     <row r="316" spans="1:25">
       <c r="A316" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B316" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C316">
         <v>2</v>
       </c>
       <c r="D316" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E316">
         <v>3</v>
@@ -10552,16 +10552,16 @@
     </row>
     <row r="317" spans="1:25">
       <c r="A317" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B317" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C317">
         <v>2</v>
       </c>
       <c r="D317" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E317">
         <v>2</v>
@@ -10578,16 +10578,16 @@
     </row>
     <row r="318" spans="1:25">
       <c r="A318" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B318" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C318">
         <v>2</v>
       </c>
       <c r="D318" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E318">
         <v>2</v>
@@ -10602,21 +10602,21 @@
         <v>1</v>
       </c>
       <c r="X318" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="319" spans="1:25">
       <c r="A319" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B319" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C319">
         <v>2</v>
       </c>
       <c r="D319" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E319">
         <v>2</v>
@@ -10628,21 +10628,21 @@
         <v>1</v>
       </c>
       <c r="X319" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="320" spans="1:25">
       <c r="A320" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B320" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C320">
         <v>1</v>
       </c>
       <c r="D320" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E320">
         <v>3</v>
@@ -10654,21 +10654,21 @@
         <v>1</v>
       </c>
       <c r="X320" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="321" spans="1:25">
       <c r="A321" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B321" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C321">
         <v>1</v>
       </c>
       <c r="D321" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E321">
         <v>3</v>
@@ -10683,21 +10683,21 @@
         <v>1</v>
       </c>
       <c r="X321" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="322" spans="1:25">
       <c r="A322" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B322" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C322">
         <v>1</v>
       </c>
       <c r="D322" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E322">
         <v>4</v>
@@ -10709,21 +10709,21 @@
         <v>1</v>
       </c>
       <c r="X322" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="323" spans="1:25">
       <c r="A323" t="s">
+        <v>468</v>
+      </c>
+      <c r="B323" t="s">
         <v>476</v>
       </c>
-      <c r="B323" t="s">
-        <v>484</v>
-      </c>
       <c r="C323">
         <v>1</v>
       </c>
       <c r="D323" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E323">
         <v>3</v>
@@ -10740,16 +10740,16 @@
     </row>
     <row r="324" spans="1:25">
       <c r="A324" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B324" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C324">
         <v>1</v>
       </c>
       <c r="D324" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -10764,21 +10764,21 @@
         <v>-1</v>
       </c>
       <c r="X324" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="325" spans="1:25">
       <c r="A325" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B325" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C325">
         <v>1</v>
       </c>
       <c r="D325" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -10790,21 +10790,21 @@
         <v>1</v>
       </c>
       <c r="X325" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="326" spans="1:25">
       <c r="A326" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B326" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C326">
         <v>1</v>
       </c>
       <c r="D326" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -10819,21 +10819,21 @@
         <v>1</v>
       </c>
       <c r="X326" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="327" spans="1:25">
       <c r="A327" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B327" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C327">
         <v>1</v>
       </c>
       <c r="D327" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E327">
         <v>0</v>
@@ -10848,21 +10848,21 @@
         <v>1</v>
       </c>
       <c r="X327" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="328" spans="1:25">
       <c r="A328" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B328" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C328">
         <v>1</v>
       </c>
       <c r="D328" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -10880,21 +10880,21 @@
         <v>-1</v>
       </c>
       <c r="X328" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="329" spans="1:25">
       <c r="A329" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B329" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C329">
         <v>1</v>
       </c>
       <c r="D329" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -10912,21 +10912,21 @@
         <v>-1</v>
       </c>
       <c r="X329" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="330" spans="1:25">
       <c r="A330" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B330" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C330">
         <v>1</v>
       </c>
       <c r="D330" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E330">
         <v>6</v>
@@ -10941,21 +10941,21 @@
         <v>1</v>
       </c>
       <c r="Y330" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="331" spans="1:25">
       <c r="A331" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B331" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C331">
         <v>1</v>
       </c>
       <c r="D331" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -10967,21 +10967,21 @@
         <v>1</v>
       </c>
       <c r="X331" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="332" spans="1:25">
       <c r="A332" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B332" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C332">
         <v>1</v>
       </c>
       <c r="D332" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E332">
         <v>3</v>
@@ -10993,21 +10993,21 @@
         <v>1</v>
       </c>
       <c r="X332" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="333" spans="1:25">
       <c r="A333" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B333" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C333">
         <v>1</v>
       </c>
       <c r="D333" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E333">
         <v>5</v>
@@ -11016,21 +11016,21 @@
         <v>5</v>
       </c>
       <c r="X333" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="334" spans="1:25">
       <c r="A334" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B334" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C334">
         <v>1</v>
       </c>
       <c r="D334" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E334">
         <v>2</v>
@@ -11044,16 +11044,16 @@
     </row>
     <row r="335" spans="1:25">
       <c r="A335" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B335" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="C335">
         <v>1</v>
       </c>
       <c r="D335" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E335">
         <v>3</v>
@@ -11067,16 +11067,16 @@
     </row>
     <row r="336" spans="1:25">
       <c r="A336" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B336" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C336">
         <v>1</v>
       </c>
       <c r="D336" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E336">
         <v>4</v>
@@ -11091,21 +11091,21 @@
         <v>1</v>
       </c>
       <c r="X336" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="337" spans="1:24">
       <c r="A337" t="s">
+        <v>487</v>
+      </c>
+      <c r="B337" t="s">
         <v>495</v>
       </c>
-      <c r="B337" t="s">
-        <v>503</v>
-      </c>
       <c r="C337">
         <v>1</v>
       </c>
       <c r="D337" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E337">
         <v>4</v>
@@ -11122,16 +11122,16 @@
     </row>
     <row r="338" spans="1:24">
       <c r="A338" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B338" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C338">
         <v>1</v>
       </c>
       <c r="D338" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E338">
         <v>2</v>
@@ -11148,16 +11148,16 @@
     </row>
     <row r="339" spans="1:24">
       <c r="A339" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B339" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C339">
         <v>1</v>
       </c>
       <c r="D339" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E339">
         <v>3</v>
@@ -11169,21 +11169,21 @@
         <v>1</v>
       </c>
       <c r="X339" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="340" spans="1:24">
       <c r="A340" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B340" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C340">
         <v>2</v>
       </c>
       <c r="D340" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="E340">
         <v>4</v>
@@ -11203,16 +11203,16 @@
     </row>
     <row r="341" spans="1:24">
       <c r="A341" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B341" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C341">
         <v>2</v>
       </c>
       <c r="D341" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="E341">
         <v>3</v>
@@ -11229,16 +11229,16 @@
     </row>
     <row r="342" spans="1:24">
       <c r="A342" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B342" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C342">
         <v>2</v>
       </c>
       <c r="D342" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="E342">
         <v>3</v>
@@ -11255,16 +11255,16 @@
     </row>
     <row r="343" spans="1:24">
       <c r="A343" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B343" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C343">
         <v>2</v>
       </c>
       <c r="D343" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="E343">
         <v>2</v>
@@ -11284,16 +11284,16 @@
     </row>
     <row r="344" spans="1:24">
       <c r="A344" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B344" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C344">
         <v>1</v>
       </c>
       <c r="D344" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E344">
         <v>5</v>
@@ -11310,16 +11310,16 @@
     </row>
     <row r="345" spans="1:24">
       <c r="A345" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B345" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C345">
         <v>1</v>
       </c>
       <c r="D345" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E345">
         <v>3</v>
@@ -11333,16 +11333,16 @@
     </row>
     <row r="346" spans="1:24">
       <c r="A346" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B346" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="C346">
         <v>1</v>
       </c>
       <c r="D346" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E346">
         <v>4</v>
@@ -11362,16 +11362,16 @@
     </row>
     <row r="347" spans="1:24">
       <c r="A347" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B347" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C347">
         <v>1</v>
       </c>
       <c r="D347" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E347">
         <v>4</v>
@@ -11391,16 +11391,16 @@
     </row>
     <row r="348" spans="1:24">
       <c r="A348" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B348" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C348">
         <v>1</v>
       </c>
       <c r="D348" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E348">
         <v>3</v>
@@ -11414,16 +11414,16 @@
     </row>
     <row r="349" spans="1:24">
       <c r="A349" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B349" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C349">
         <v>1</v>
       </c>
       <c r="D349" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E349">
         <v>3</v>
@@ -11440,16 +11440,16 @@
     </row>
     <row r="350" spans="1:24">
       <c r="A350" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B350" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="C350">
         <v>1</v>
       </c>
       <c r="D350" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E350">
         <v>2</v>
@@ -11466,16 +11466,16 @@
     </row>
     <row r="351" spans="1:24">
       <c r="A351" t="s">
+        <v>504</v>
+      </c>
+      <c r="B351" t="s">
         <v>512</v>
       </c>
-      <c r="B351" t="s">
-        <v>520</v>
-      </c>
       <c r="C351">
         <v>1</v>
       </c>
       <c r="D351" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E351">
         <v>2</v>
@@ -11492,16 +11492,16 @@
     </row>
     <row r="352" spans="1:24">
       <c r="A352" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B352" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C352">
         <v>2</v>
       </c>
       <c r="D352" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="E352">
         <v>2</v>
@@ -11512,16 +11512,16 @@
     </row>
     <row r="353" spans="1:25">
       <c r="A353" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B353" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C353">
         <v>2</v>
       </c>
       <c r="D353" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="E353">
         <v>3</v>
@@ -11532,16 +11532,16 @@
     </row>
     <row r="354" spans="1:25">
       <c r="A354" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B354" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C354">
         <v>2</v>
       </c>
       <c r="D354" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="E354">
         <v>4</v>
@@ -11555,16 +11555,16 @@
     </row>
     <row r="355" spans="1:25">
       <c r="A355" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B355" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C355">
         <v>2</v>
       </c>
       <c r="D355" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="E355">
         <v>5</v>
@@ -11581,10 +11581,10 @@
     </row>
     <row r="356" spans="1:25">
       <c r="A356" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B356" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C356">
         <v>1</v>
@@ -11605,15 +11605,15 @@
         <v>1</v>
       </c>
       <c r="X356" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="357" spans="1:25">
       <c r="A357" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B357" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C357">
         <v>2</v>
@@ -11637,15 +11637,15 @@
         <v>1</v>
       </c>
       <c r="X357" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="358" spans="1:25">
       <c r="A358" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B358" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C358">
         <v>2</v>
@@ -11660,15 +11660,15 @@
         <v>4</v>
       </c>
       <c r="X358" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="359" spans="1:25">
       <c r="A359" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B359" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C359">
         <v>2</v>
@@ -11692,15 +11692,15 @@
         <v>1</v>
       </c>
       <c r="X359" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="360" spans="1:25">
       <c r="A360" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B360" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C360">
         <v>1</v>
@@ -11718,18 +11718,18 @@
         <v>1</v>
       </c>
       <c r="X360" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="Y360" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="361" spans="1:25">
       <c r="A361" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B361" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C361">
         <v>1</v>
@@ -11747,15 +11747,15 @@
         <v>1</v>
       </c>
       <c r="X361" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="362" spans="1:25">
       <c r="A362" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B362" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C362">
         <v>1</v>
@@ -11773,15 +11773,15 @@
         <v>1</v>
       </c>
       <c r="Y362" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="363" spans="1:25">
       <c r="A363" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B363" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -11802,15 +11802,15 @@
         <v>1</v>
       </c>
       <c r="X363" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="364" spans="1:25">
       <c r="A364" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B364" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -11828,15 +11828,15 @@
         <v>1</v>
       </c>
       <c r="Y364" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="365" spans="1:25">
       <c r="A365" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B365" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C365">
         <v>1</v>
@@ -11857,15 +11857,15 @@
         <v>1</v>
       </c>
       <c r="X365" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="366" spans="1:25">
       <c r="A366" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B366" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C366">
         <v>1</v>
@@ -11883,15 +11883,15 @@
         <v>1</v>
       </c>
       <c r="Y366" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="367" spans="1:25">
       <c r="A367" t="s">
+        <v>527</v>
+      </c>
+      <c r="B367" t="s">
         <v>535</v>
-      </c>
-      <c r="B367" t="s">
-        <v>543</v>
       </c>
       <c r="C367">
         <v>1</v>
@@ -11915,15 +11915,15 @@
         <v>1</v>
       </c>
       <c r="X367" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="368" spans="1:25">
       <c r="A368" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B368" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C368">
         <v>1</v>
@@ -11944,15 +11944,15 @@
         <v>1</v>
       </c>
       <c r="Y368" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="369" spans="1:25">
       <c r="A369" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B369" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C369">
         <v>2</v>
@@ -11975,10 +11975,10 @@
     </row>
     <row r="370" spans="1:25">
       <c r="A370" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B370" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C370">
         <v>2</v>
@@ -12004,10 +12004,10 @@
     </row>
     <row r="371" spans="1:25">
       <c r="A371" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B371" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C371">
         <v>2</v>
@@ -12030,10 +12030,10 @@
     </row>
     <row r="372" spans="1:25">
       <c r="A372" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B372" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C372">
         <v>1</v>
@@ -12062,10 +12062,10 @@
     </row>
     <row r="373" spans="1:25">
       <c r="A373" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B373" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="C373">
         <v>1</v>
@@ -12083,15 +12083,15 @@
         <v>1</v>
       </c>
       <c r="Y373" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="374" spans="1:25">
       <c r="A374" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B374" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C374">
         <v>1</v>
@@ -12109,15 +12109,15 @@
         <v>1</v>
       </c>
       <c r="X374" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="375" spans="1:25">
       <c r="A375" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B375" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C375">
         <v>1</v>
@@ -12141,15 +12141,15 @@
         <v>1</v>
       </c>
       <c r="X375" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="376" spans="1:25">
       <c r="A376" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B376" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="C376">
         <v>1</v>
@@ -12164,15 +12164,15 @@
         <v>4</v>
       </c>
       <c r="X376" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="377" spans="1:25">
       <c r="A377" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B377" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C377">
         <v>1</v>
@@ -12190,15 +12190,15 @@
         <v>1</v>
       </c>
       <c r="X377" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="378" spans="1:25">
       <c r="A378" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B378" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="C378">
         <v>1</v>
@@ -12225,15 +12225,15 @@
         <v>1</v>
       </c>
       <c r="X378" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="379" spans="1:25">
       <c r="A379" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B379" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C379">
         <v>1</v>
@@ -12251,15 +12251,15 @@
         <v>1</v>
       </c>
       <c r="X379" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="380" spans="1:25">
       <c r="A380" t="s">
+        <v>543</v>
+      </c>
+      <c r="B380" t="s">
         <v>551</v>
-      </c>
-      <c r="B380" t="s">
-        <v>559</v>
       </c>
       <c r="C380">
         <v>1</v>
@@ -12288,10 +12288,10 @@
     </row>
     <row r="381" spans="1:25">
       <c r="A381" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B381" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="C381">
         <v>1</v>
@@ -12311,16 +12311,16 @@
     </row>
     <row r="382" spans="1:25">
       <c r="A382" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B382" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C382">
         <v>2</v>
       </c>
       <c r="D382" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="E382">
         <v>3</v>
@@ -12332,24 +12332,24 @@
         <v>1</v>
       </c>
       <c r="X382" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="Y382" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="383" spans="1:25">
       <c r="A383" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B383" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C383">
         <v>2</v>
       </c>
       <c r="D383" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="E383">
         <v>2</v>
@@ -12364,21 +12364,21 @@
         <v>1</v>
       </c>
       <c r="Y383" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="384" spans="1:25">
       <c r="A384" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B384" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="C384">
         <v>2</v>
       </c>
       <c r="D384" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="E384">
         <v>3</v>
@@ -12390,21 +12390,21 @@
         <v>1</v>
       </c>
       <c r="Y384" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="385" spans="1:25">
       <c r="A385" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B385" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="C385">
         <v>2</v>
       </c>
       <c r="D385" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="E385">
         <v>4</v>
@@ -12416,21 +12416,21 @@
         <v>1</v>
       </c>
       <c r="Y385" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="386" spans="1:25">
       <c r="A386" t="s">
-        <v>569</v>
+        <v>602</v>
       </c>
       <c r="B386" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="C386">
         <v>2</v>
       </c>
       <c r="D386" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="E386">
         <v>3</v>
@@ -12442,24 +12442,24 @@
         <v>1</v>
       </c>
       <c r="X386" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="Y386" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="387" spans="1:25">
       <c r="A387" t="s">
-        <v>569</v>
+        <v>602</v>
       </c>
       <c r="B387" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="C387">
         <v>2</v>
       </c>
       <c r="D387" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="E387">
         <v>4</v>
@@ -12471,21 +12471,21 @@
         <v>1</v>
       </c>
       <c r="Y387" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="388" spans="1:25">
       <c r="A388" t="s">
-        <v>569</v>
+        <v>602</v>
       </c>
       <c r="B388" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="C388">
         <v>2</v>
       </c>
       <c r="D388" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="E388">
         <v>3</v>
@@ -12497,21 +12497,21 @@
         <v>1</v>
       </c>
       <c r="Y388" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="389" spans="1:25">
       <c r="A389" t="s">
-        <v>569</v>
+        <v>602</v>
       </c>
       <c r="B389" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C389">
         <v>2</v>
       </c>
       <c r="D389" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="E389">
         <v>3</v>
@@ -12531,16 +12531,16 @@
     </row>
     <row r="390" spans="1:25">
       <c r="A390" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B390" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="C390">
         <v>2</v>
       </c>
       <c r="D390" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="E390">
         <v>2</v>
@@ -12554,16 +12554,16 @@
     </row>
     <row r="391" spans="1:25">
       <c r="A391" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B391" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="C391">
         <v>2</v>
       </c>
       <c r="D391" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="E391">
         <v>3</v>
@@ -12574,16 +12574,16 @@
     </row>
     <row r="392" spans="1:25">
       <c r="A392" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B392" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="C392">
         <v>1</v>
       </c>
       <c r="D392" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="E392">
         <v>4</v>
@@ -12600,16 +12600,16 @@
     </row>
     <row r="393" spans="1:25">
       <c r="A393" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B393" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="C393">
         <v>1</v>
       </c>
       <c r="D393" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="E393">
         <v>4</v>
@@ -12626,16 +12626,16 @@
     </row>
     <row r="394" spans="1:25">
       <c r="A394" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B394" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="C394">
         <v>1</v>
       </c>
       <c r="D394" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="E394">
         <v>0</v>
@@ -12644,21 +12644,21 @@
         <v>3</v>
       </c>
       <c r="Y394" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="395" spans="1:25">
       <c r="A395" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B395" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C395">
         <v>1</v>
       </c>
       <c r="D395" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="E395">
         <v>0</v>
@@ -12667,21 +12667,21 @@
         <v>4</v>
       </c>
       <c r="Y395" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="396" spans="1:25">
       <c r="A396" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="B396" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="C396">
         <v>2</v>
       </c>
       <c r="D396" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="E396">
         <v>2</v>
@@ -12698,16 +12698,16 @@
     </row>
     <row r="397" spans="1:25">
       <c r="A397" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="B397" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C397">
         <v>2</v>
       </c>
       <c r="D397" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="E397">
         <v>3</v>
@@ -12727,16 +12727,16 @@
     </row>
     <row r="398" spans="1:25">
       <c r="A398" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="B398" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C398">
         <v>1</v>
       </c>
       <c r="D398" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="E398">
         <v>0</v>
@@ -12748,21 +12748,21 @@
         <v>1</v>
       </c>
       <c r="Y398" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="399" spans="1:25">
       <c r="A399" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="B399" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="C399">
         <v>1</v>
       </c>
       <c r="D399" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="E399">
         <v>5</v>
@@ -12776,16 +12776,16 @@
     </row>
     <row r="400" spans="1:25">
       <c r="A400" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="B400" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="C400">
         <v>1</v>
       </c>
       <c r="D400" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="E400">
         <v>0</v>
@@ -12794,21 +12794,21 @@
         <v>3</v>
       </c>
       <c r="Y400" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="401" spans="1:25">
       <c r="A401" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="B401" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C401">
         <v>1</v>
       </c>
       <c r="D401" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="E401">
         <v>0</v>
@@ -12823,21 +12823,21 @@
         <v>1</v>
       </c>
       <c r="Y401" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="402" spans="1:25">
       <c r="A402" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="B402" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="C402">
         <v>2</v>
       </c>
       <c r="D402" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E402">
         <v>3</v>
@@ -12851,16 +12851,16 @@
     </row>
     <row r="403" spans="1:25">
       <c r="A403" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="B403" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="C403">
         <v>2</v>
       </c>
       <c r="D403" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E403">
         <v>4</v>
@@ -12874,16 +12874,16 @@
     </row>
     <row r="404" spans="1:25">
       <c r="A404" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="B404" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="C404">
         <v>1</v>
       </c>
       <c r="D404" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E404">
         <v>3</v>
@@ -12906,16 +12906,16 @@
     </row>
     <row r="405" spans="1:25">
       <c r="A405" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="B405" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="C405">
         <v>1</v>
       </c>
       <c r="D405" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E405">
         <v>3</v>
@@ -12932,16 +12932,16 @@
     </row>
     <row r="406" spans="1:25">
       <c r="A406" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="B406" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="C406">
         <v>1</v>
       </c>
       <c r="D406" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E406">
         <v>4</v>
@@ -12953,7 +12953,7 @@
         <v>1</v>
       </c>
       <c r="O406" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P406">
         <v>1</v>
@@ -12964,16 +12964,16 @@
     </row>
     <row r="407" spans="1:25">
       <c r="A407" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="B407" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="C407">
         <v>1</v>
       </c>
       <c r="D407" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E407">
         <v>4</v>
@@ -12990,16 +12990,16 @@
     </row>
     <row r="408" spans="1:25">
       <c r="A408" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="B408" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="C408">
         <v>2</v>
       </c>
       <c r="D408" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E408">
         <v>3</v>
@@ -13016,16 +13016,16 @@
     </row>
     <row r="409" spans="1:25">
       <c r="A409" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="B409" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="C409">
         <v>2</v>
       </c>
       <c r="D409" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E409">
         <v>4</v>
@@ -13042,16 +13042,16 @@
     </row>
     <row r="410" spans="1:25">
       <c r="A410" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="B410" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="C410">
         <v>2</v>
       </c>
       <c r="D410" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E410">
         <v>3</v>
@@ -13065,16 +13065,16 @@
     </row>
     <row r="411" spans="1:25">
       <c r="A411" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="B411" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C411">
         <v>1</v>
       </c>
       <c r="D411" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E411">
         <v>5</v>
@@ -13091,16 +13091,16 @@
     </row>
     <row r="412" spans="1:25">
       <c r="A412" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="B412" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="C412">
         <v>1</v>
       </c>
       <c r="D412" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="E412">
         <v>5</v>
@@ -13177,7 +13177,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -13185,7 +13185,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -13230,10 +13230,10 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" t="s">
         <v>132</v>
-      </c>
-      <c r="B12" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -13273,7 +13273,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -13318,10 +13318,10 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:2">

--- a/data/villains.xlsx
+++ b/data/villains.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="628">
   <si>
     <t>Name</t>
   </si>
@@ -1824,6 +1824,81 @@
   </si>
   <si>
     <t>A.I.M., Hydra Offshoot</t>
+  </si>
+  <si>
+    <t>From Beyond</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>The Mapmakers</t>
+  </si>
+  <si>
+    <t>The Shaper of Worlds</t>
+  </si>
+  <si>
+    <t>Kubik</t>
+  </si>
+  <si>
+    <t>Kosmos</t>
+  </si>
+  <si>
+    <t>Elders of the Universe</t>
+  </si>
+  <si>
+    <t>The Trader</t>
+  </si>
+  <si>
+    <t>shards</t>
+  </si>
+  <si>
+    <t>The Runner</t>
+  </si>
+  <si>
+    <t>The Collector</t>
+  </si>
+  <si>
+    <t>The Champion of the Universe</t>
+  </si>
+  <si>
+    <t>Celestials</t>
+  </si>
+  <si>
+    <t>Gammenon, the Gatherer</t>
+  </si>
+  <si>
+    <t>Nezarr, the Calculator</t>
+  </si>
+  <si>
+    <t>celestial boon</t>
+  </si>
+  <si>
+    <t>Exitar, the Exterminator</t>
+  </si>
+  <si>
+    <t>Arishem, the Judge</t>
+  </si>
+  <si>
+    <t>Tiamut, the Dreaming Celestial</t>
+  </si>
+  <si>
+    <t>Black Order of Thanos</t>
+  </si>
+  <si>
+    <t>Black Dwarf</t>
+  </si>
+  <si>
+    <t>Corvus Glaive</t>
+  </si>
+  <si>
+    <t>Supergiant</t>
+  </si>
+  <si>
+    <t>Ebony Maw</t>
+  </si>
+  <si>
+    <t>Proxima Midnight</t>
   </si>
 </sst>
 </file>
@@ -2165,11 +2240,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y412"/>
+  <dimension ref="A1:Y430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A389" sqref="A389"/>
+      <pane ySplit="1" topLeftCell="A395" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O430" sqref="O430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13121,6 +13196,531 @@
         <v>1</v>
       </c>
     </row>
+    <row r="413" spans="1:25">
+      <c r="A413" t="s">
+        <v>603</v>
+      </c>
+      <c r="B413" t="s">
+        <v>605</v>
+      </c>
+      <c r="C413">
+        <v>3</v>
+      </c>
+      <c r="D413" t="s">
+        <v>604</v>
+      </c>
+      <c r="E413">
+        <v>3</v>
+      </c>
+      <c r="F413">
+        <v>7</v>
+      </c>
+      <c r="K413">
+        <v>1</v>
+      </c>
+      <c r="R413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:25">
+      <c r="A414" t="s">
+        <v>603</v>
+      </c>
+      <c r="B414" t="s">
+        <v>606</v>
+      </c>
+      <c r="C414">
+        <v>2</v>
+      </c>
+      <c r="D414" t="s">
+        <v>604</v>
+      </c>
+      <c r="E414">
+        <v>5</v>
+      </c>
+      <c r="F414">
+        <v>10</v>
+      </c>
+      <c r="G414">
+        <v>1</v>
+      </c>
+      <c r="M414">
+        <v>1</v>
+      </c>
+      <c r="N414">
+        <v>1</v>
+      </c>
+      <c r="R414">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:25">
+      <c r="A415" t="s">
+        <v>603</v>
+      </c>
+      <c r="B415" t="s">
+        <v>607</v>
+      </c>
+      <c r="C415">
+        <v>2</v>
+      </c>
+      <c r="D415" t="s">
+        <v>604</v>
+      </c>
+      <c r="E415">
+        <v>5</v>
+      </c>
+      <c r="F415">
+        <v>11</v>
+      </c>
+      <c r="J415">
+        <v>1</v>
+      </c>
+      <c r="N415">
+        <v>1</v>
+      </c>
+      <c r="Q415">
+        <v>1</v>
+      </c>
+      <c r="R415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:25">
+      <c r="A416" t="s">
+        <v>603</v>
+      </c>
+      <c r="B416" t="s">
+        <v>608</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+      <c r="D416" t="s">
+        <v>604</v>
+      </c>
+      <c r="E416">
+        <v>6</v>
+      </c>
+      <c r="F416">
+        <v>13</v>
+      </c>
+      <c r="H416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:25">
+      <c r="A417" t="s">
+        <v>609</v>
+      </c>
+      <c r="B417" t="s">
+        <v>610</v>
+      </c>
+      <c r="C417">
+        <v>2</v>
+      </c>
+      <c r="D417" t="s">
+        <v>604</v>
+      </c>
+      <c r="E417">
+        <v>2</v>
+      </c>
+      <c r="F417">
+        <v>4</v>
+      </c>
+      <c r="K417">
+        <v>1</v>
+      </c>
+      <c r="N417">
+        <v>1</v>
+      </c>
+      <c r="Y417" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="418" spans="1:25">
+      <c r="A418" t="s">
+        <v>609</v>
+      </c>
+      <c r="B418" t="s">
+        <v>612</v>
+      </c>
+      <c r="C418">
+        <v>2</v>
+      </c>
+      <c r="D418" t="s">
+        <v>604</v>
+      </c>
+      <c r="E418">
+        <v>3</v>
+      </c>
+      <c r="F418">
+        <v>5</v>
+      </c>
+      <c r="J418">
+        <v>1</v>
+      </c>
+      <c r="N418">
+        <v>1</v>
+      </c>
+      <c r="T418">
+        <v>1</v>
+      </c>
+      <c r="Y418" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="419" spans="1:25">
+      <c r="A419" t="s">
+        <v>609</v>
+      </c>
+      <c r="B419" t="s">
+        <v>613</v>
+      </c>
+      <c r="C419">
+        <v>2</v>
+      </c>
+      <c r="D419" t="s">
+        <v>604</v>
+      </c>
+      <c r="E419">
+        <v>4</v>
+      </c>
+      <c r="F419">
+        <v>6</v>
+      </c>
+      <c r="H419">
+        <v>1</v>
+      </c>
+      <c r="N419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:25">
+      <c r="A420" t="s">
+        <v>609</v>
+      </c>
+      <c r="B420" t="s">
+        <v>614</v>
+      </c>
+      <c r="C420">
+        <v>2</v>
+      </c>
+      <c r="D420" t="s">
+        <v>604</v>
+      </c>
+      <c r="E420">
+        <v>5</v>
+      </c>
+      <c r="F420">
+        <v>7</v>
+      </c>
+      <c r="I420">
+        <v>1</v>
+      </c>
+      <c r="N420">
+        <v>1</v>
+      </c>
+      <c r="Q420">
+        <v>1</v>
+      </c>
+      <c r="R420">
+        <v>1</v>
+      </c>
+      <c r="Y420" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="421" spans="1:25">
+      <c r="A421" t="s">
+        <v>615</v>
+      </c>
+      <c r="B421" t="s">
+        <v>616</v>
+      </c>
+      <c r="C421">
+        <v>2</v>
+      </c>
+      <c r="D421" t="s">
+        <v>604</v>
+      </c>
+      <c r="E421">
+        <v>3</v>
+      </c>
+      <c r="F421">
+        <v>10</v>
+      </c>
+      <c r="I421">
+        <v>1</v>
+      </c>
+      <c r="J421">
+        <v>1</v>
+      </c>
+      <c r="M421">
+        <v>1</v>
+      </c>
+      <c r="S421">
+        <v>1</v>
+      </c>
+      <c r="Y421" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="422" spans="1:25">
+      <c r="A422" t="s">
+        <v>615</v>
+      </c>
+      <c r="B422" t="s">
+        <v>617</v>
+      </c>
+      <c r="C422">
+        <v>2</v>
+      </c>
+      <c r="D422" t="s">
+        <v>604</v>
+      </c>
+      <c r="E422">
+        <v>4</v>
+      </c>
+      <c r="F422">
+        <v>11</v>
+      </c>
+      <c r="H422">
+        <v>1</v>
+      </c>
+      <c r="K422">
+        <v>1</v>
+      </c>
+      <c r="M422">
+        <v>1</v>
+      </c>
+      <c r="Y422" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="423" spans="1:25">
+      <c r="A423" t="s">
+        <v>615</v>
+      </c>
+      <c r="B423" t="s">
+        <v>619</v>
+      </c>
+      <c r="C423">
+        <v>2</v>
+      </c>
+      <c r="D423" t="s">
+        <v>604</v>
+      </c>
+      <c r="E423">
+        <v>5</v>
+      </c>
+      <c r="F423">
+        <v>12</v>
+      </c>
+      <c r="G423">
+        <v>1</v>
+      </c>
+      <c r="K423">
+        <v>1</v>
+      </c>
+      <c r="M423">
+        <v>1</v>
+      </c>
+      <c r="Y423" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="424" spans="1:25">
+      <c r="A424" t="s">
+        <v>615</v>
+      </c>
+      <c r="B424" t="s">
+        <v>620</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+      <c r="D424" t="s">
+        <v>604</v>
+      </c>
+      <c r="E424">
+        <v>5</v>
+      </c>
+      <c r="F424">
+        <v>13</v>
+      </c>
+      <c r="G424">
+        <v>1</v>
+      </c>
+      <c r="I424">
+        <v>1</v>
+      </c>
+      <c r="M424">
+        <v>1</v>
+      </c>
+      <c r="Y424" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="425" spans="1:25">
+      <c r="A425" t="s">
+        <v>615</v>
+      </c>
+      <c r="B425" t="s">
+        <v>621</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+      <c r="D425" t="s">
+        <v>604</v>
+      </c>
+      <c r="E425">
+        <v>6</v>
+      </c>
+      <c r="F425">
+        <v>14</v>
+      </c>
+      <c r="H425">
+        <v>1</v>
+      </c>
+      <c r="J425">
+        <v>1</v>
+      </c>
+      <c r="M425">
+        <v>1</v>
+      </c>
+      <c r="Y425" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="426" spans="1:25">
+      <c r="A426" t="s">
+        <v>622</v>
+      </c>
+      <c r="B426" t="s">
+        <v>623</v>
+      </c>
+      <c r="C426">
+        <v>2</v>
+      </c>
+      <c r="D426" t="s">
+        <v>604</v>
+      </c>
+      <c r="E426">
+        <v>3</v>
+      </c>
+      <c r="F426">
+        <v>4</v>
+      </c>
+      <c r="N426">
+        <v>1</v>
+      </c>
+      <c r="R426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:25">
+      <c r="A427" t="s">
+        <v>622</v>
+      </c>
+      <c r="B427" t="s">
+        <v>624</v>
+      </c>
+      <c r="C427">
+        <v>2</v>
+      </c>
+      <c r="D427" t="s">
+        <v>604</v>
+      </c>
+      <c r="E427">
+        <v>4</v>
+      </c>
+      <c r="F427">
+        <v>5</v>
+      </c>
+      <c r="N427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:25">
+      <c r="A428" t="s">
+        <v>622</v>
+      </c>
+      <c r="B428" t="s">
+        <v>625</v>
+      </c>
+      <c r="C428">
+        <v>2</v>
+      </c>
+      <c r="D428" t="s">
+        <v>604</v>
+      </c>
+      <c r="E428">
+        <v>5</v>
+      </c>
+      <c r="F428">
+        <v>6</v>
+      </c>
+      <c r="N428">
+        <v>1</v>
+      </c>
+      <c r="R428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:25">
+      <c r="A429" t="s">
+        <v>622</v>
+      </c>
+      <c r="B429" t="s">
+        <v>626</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+      <c r="D429" t="s">
+        <v>604</v>
+      </c>
+      <c r="E429">
+        <v>5</v>
+      </c>
+      <c r="F429">
+        <v>6</v>
+      </c>
+      <c r="N429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:25">
+      <c r="A430" t="s">
+        <v>622</v>
+      </c>
+      <c r="B430" t="s">
+        <v>627</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="D430" t="s">
+        <v>604</v>
+      </c>
+      <c r="E430">
+        <v>5</v>
+      </c>
+      <c r="F430">
+        <v>7</v>
+      </c>
+      <c r="J430">
+        <v>1</v>
+      </c>
+      <c r="M430">
+        <v>1</v>
+      </c>
+      <c r="N430">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/villains.xlsx
+++ b/data/villains.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="732">
   <si>
     <t>Name</t>
   </si>
@@ -1899,6 +1899,318 @@
   </si>
   <si>
     <t>Proxima Midnight</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>am2,jpg</t>
+  </si>
+  <si>
+    <t>4 1</t>
+  </si>
+  <si>
+    <t>5 1</t>
+  </si>
+  <si>
+    <t>3 1</t>
+  </si>
+  <si>
+    <t>2 1</t>
+  </si>
+  <si>
+    <t>1 1</t>
+  </si>
+  <si>
+    <t>antman,jpg</t>
+  </si>
+  <si>
+    <t>6 1</t>
+  </si>
+  <si>
+    <t>4 2</t>
+  </si>
+  <si>
+    <t>3 2</t>
+  </si>
+  <si>
+    <t>5 2</t>
+  </si>
+  <si>
+    <t>6 2</t>
+  </si>
+  <si>
+    <t>7 2</t>
+  </si>
+  <si>
+    <t>8 2</t>
+  </si>
+  <si>
+    <t>9 2</t>
+  </si>
+  <si>
+    <t>10 2</t>
+  </si>
+  <si>
+    <t>1 6</t>
+  </si>
+  <si>
+    <t>2 6</t>
+  </si>
+  <si>
+    <t>base,jpg</t>
+  </si>
+  <si>
+    <t>9 1</t>
+  </si>
+  <si>
+    <t>10 1</t>
+  </si>
+  <si>
+    <t>2 2</t>
+  </si>
+  <si>
+    <t>1 2</t>
+  </si>
+  <si>
+    <t>8 4</t>
+  </si>
+  <si>
+    <t>7 4</t>
+  </si>
+  <si>
+    <t>6 4</t>
+  </si>
+  <si>
+    <t>5 4</t>
+  </si>
+  <si>
+    <t>9 6</t>
+  </si>
+  <si>
+    <t>10 6</t>
+  </si>
+  <si>
+    <t>1 7</t>
+  </si>
+  <si>
+    <t>2 7</t>
+  </si>
+  <si>
+    <t>3 7</t>
+  </si>
+  <si>
+    <t>4 7</t>
+  </si>
+  <si>
+    <t>5 7</t>
+  </si>
+  <si>
+    <t>6 7</t>
+  </si>
+  <si>
+    <t>base2,jpg</t>
+  </si>
+  <si>
+    <t>9 4</t>
+  </si>
+  <si>
+    <t>10 4</t>
+  </si>
+  <si>
+    <t>1 5</t>
+  </si>
+  <si>
+    <t>2 5</t>
+  </si>
+  <si>
+    <t>c75,jpg</t>
+  </si>
+  <si>
+    <t>6 3</t>
+  </si>
+  <si>
+    <t>7 3</t>
+  </si>
+  <si>
+    <t>8 3</t>
+  </si>
+  <si>
+    <t>9 3</t>
+  </si>
+  <si>
+    <t>civilwar,jpg</t>
+  </si>
+  <si>
+    <t>7 5</t>
+  </si>
+  <si>
+    <t>8 5</t>
+  </si>
+  <si>
+    <t>9 5</t>
+  </si>
+  <si>
+    <t>10 5</t>
+  </si>
+  <si>
+    <t>3 6</t>
+  </si>
+  <si>
+    <t>4 6</t>
+  </si>
+  <si>
+    <t>5 6</t>
+  </si>
+  <si>
+    <t>6 6</t>
+  </si>
+  <si>
+    <t>7 6</t>
+  </si>
+  <si>
+    <t>8 6</t>
+  </si>
+  <si>
+    <t>7 7</t>
+  </si>
+  <si>
+    <t>8 7</t>
+  </si>
+  <si>
+    <t>9 7</t>
+  </si>
+  <si>
+    <t>darkcity,jpg</t>
+  </si>
+  <si>
+    <t>darkcity2,jpg</t>
+  </si>
+  <si>
+    <t>dp,jpg</t>
+  </si>
+  <si>
+    <t>1 4</t>
+  </si>
+  <si>
+    <t>2 4</t>
+  </si>
+  <si>
+    <t>3 4</t>
+  </si>
+  <si>
+    <t>4 4</t>
+  </si>
+  <si>
+    <t>fearitself,png</t>
+  </si>
+  <si>
+    <t>ff,jpg</t>
+  </si>
+  <si>
+    <t>gotg,jpg</t>
+  </si>
+  <si>
+    <t>hoa,png</t>
+  </si>
+  <si>
+    <t>1 3</t>
+  </si>
+  <si>
+    <t>2 3</t>
+  </si>
+  <si>
+    <t>3 3</t>
+  </si>
+  <si>
+    <t>4 3</t>
+  </si>
+  <si>
+    <t>5 3</t>
+  </si>
+  <si>
+    <t>newmutants,png</t>
+  </si>
+  <si>
+    <t>noir,jpg</t>
+  </si>
+  <si>
+    <t>10 3</t>
+  </si>
+  <si>
+    <t>officers,png</t>
+  </si>
+  <si>
+    <t>pttr,jpg</t>
+  </si>
+  <si>
+    <t>3 5</t>
+  </si>
+  <si>
+    <t>4 5</t>
+  </si>
+  <si>
+    <t>revelations,png</t>
+  </si>
+  <si>
+    <t>7 1</t>
+  </si>
+  <si>
+    <t>shield,png</t>
+  </si>
+  <si>
+    <t>sw1,jpg</t>
+  </si>
+  <si>
+    <t>8 1</t>
+  </si>
+  <si>
+    <t>sw2,jpg</t>
+  </si>
+  <si>
+    <t>villains,jpg</t>
+  </si>
+  <si>
+    <t>villains2,jpg</t>
+  </si>
+  <si>
+    <t>xmen,jpg</t>
+  </si>
+  <si>
+    <t>5 5</t>
+  </si>
+  <si>
+    <t>6 5</t>
+  </si>
+  <si>
+    <t>10 7</t>
+  </si>
+  <si>
+    <t>itcmm,png</t>
+  </si>
+  <si>
+    <t>venom,png</t>
+  </si>
+  <si>
+    <t>celestials,png</t>
+  </si>
+  <si>
+    <t>champions,jpg</t>
+  </si>
+  <si>
+    <t>homecoming,jpg</t>
+  </si>
+  <si>
+    <t>hulk,jpg</t>
+  </si>
+  <si>
+    <t>hulk2,jpg</t>
+  </si>
+  <si>
+    <t>hulk3,jpg</t>
   </si>
 </sst>
 </file>
@@ -2240,11 +2552,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y430"/>
+  <dimension ref="A1:AA430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A395" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O430" sqref="O430"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Y392" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AI421" sqref="AI421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2274,7 +2588,7 @@
     <col min="25" max="25" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2350,8 +2664,14 @@
       <c r="Y1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2376,8 +2696,14 @@
       <c r="X2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" t="s">
+        <v>719</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2399,8 +2725,14 @@
       <c r="X3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" t="s">
+        <v>719</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2422,8 +2754,14 @@
       <c r="X4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="s">
+        <v>719</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2448,8 +2786,14 @@
       <c r="Q5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" t="s">
+        <v>719</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
         <v>599</v>
       </c>
@@ -2471,8 +2815,14 @@
       <c r="R6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="s">
+        <v>718</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
         <v>599</v>
       </c>
@@ -2497,8 +2847,14 @@
       <c r="T7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" t="s">
+        <v>718</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
         <v>599</v>
       </c>
@@ -2523,8 +2879,14 @@
       <c r="R8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" t="s">
+        <v>718</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
         <v>599</v>
       </c>
@@ -2546,8 +2908,14 @@
       <c r="X9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" t="s">
+        <v>718</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -2572,8 +2940,14 @@
       <c r="X10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" t="s">
+        <v>696</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -2601,8 +2975,14 @@
       <c r="X11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" t="s">
+        <v>696</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -2627,8 +3007,14 @@
       <c r="X12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" t="s">
+        <v>696</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -2656,8 +3042,14 @@
       <c r="X13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" t="s">
+        <v>696</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2679,8 +3071,14 @@
       <c r="X14" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" t="s">
+        <v>696</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2702,8 +3100,14 @@
       <c r="X15" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" t="s">
+        <v>696</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -2731,8 +3135,14 @@
       <c r="X16" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Z16" t="s">
+        <v>696</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -2754,8 +3164,14 @@
       <c r="X17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Z17" t="s">
+        <v>696</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -2780,8 +3196,14 @@
       <c r="Q18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Z18" t="s">
+        <v>718</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -2803,8 +3225,14 @@
       <c r="X19" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Z19" t="s">
+        <v>718</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -2823,8 +3251,14 @@
       <c r="F20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Z20" t="s">
+        <v>718</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -2846,8 +3280,14 @@
       <c r="M21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Z21" t="s">
+        <v>718</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -2869,8 +3309,14 @@
       <c r="M22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Z22" t="s">
+        <v>719</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -2895,8 +3341,14 @@
       <c r="R23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Z23" t="s">
+        <v>719</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -2915,8 +3367,14 @@
       <c r="F24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="Z24" t="s">
+        <v>719</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -2941,8 +3399,14 @@
       <c r="R25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="Z25" t="s">
+        <v>719</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -2970,8 +3434,14 @@
       <c r="X26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="Z26" t="s">
+        <v>719</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -2990,8 +3460,14 @@
       <c r="F27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="Z27" t="s">
+        <v>719</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -3013,8 +3489,14 @@
       <c r="X28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="Z28" t="s">
+        <v>719</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -3042,8 +3524,14 @@
       <c r="X29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="Z29" t="s">
+        <v>719</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -3068,8 +3556,14 @@
       <c r="X30" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="Z30" t="s">
+        <v>719</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -3091,8 +3585,14 @@
       <c r="X31" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:24">
+      <c r="Z31" t="s">
+        <v>719</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -3117,8 +3617,14 @@
       <c r="X32" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:24">
+      <c r="Z32" t="s">
+        <v>719</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -3146,8 +3652,14 @@
       <c r="X33" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:24">
+      <c r="Z33" t="s">
+        <v>719</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -3172,8 +3684,14 @@
       <c r="X34" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:24">
+      <c r="Z34" t="s">
+        <v>719</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -3195,8 +3713,14 @@
       <c r="X35" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="36" spans="1:24">
+      <c r="Z35" t="s">
+        <v>718</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -3218,8 +3742,14 @@
       <c r="X36" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="37" spans="1:24">
+      <c r="Z36" t="s">
+        <v>718</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
         <v>85</v>
       </c>
@@ -3250,8 +3780,14 @@
       <c r="Q37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:24">
+      <c r="Z37" t="s">
+        <v>718</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -3282,8 +3818,14 @@
       <c r="X38" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="39" spans="1:24">
+      <c r="Z38" t="s">
+        <v>718</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -3305,8 +3847,14 @@
       <c r="N39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:24">
+      <c r="Z39" t="s">
+        <v>718</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -3331,8 +3879,14 @@
       <c r="R40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:24">
+      <c r="Z40" t="s">
+        <v>718</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -3363,8 +3917,14 @@
       <c r="Q41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:24">
+      <c r="Z41" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -3392,8 +3952,14 @@
       <c r="R42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:24">
+      <c r="Z42" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" t="s">
         <v>95</v>
       </c>
@@ -3415,8 +3981,14 @@
       <c r="M43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:24">
+      <c r="Z43" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -3441,8 +4013,14 @@
       <c r="P44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:24">
+      <c r="Z44" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -3473,8 +4051,14 @@
       <c r="X45" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="46" spans="1:24">
+      <c r="Z45" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" t="s">
         <v>101</v>
       </c>
@@ -3493,8 +4077,14 @@
       <c r="F46">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:24">
+      <c r="Z46" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -3519,8 +4109,14 @@
       <c r="R47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:24">
+      <c r="Z47" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -3542,8 +4138,14 @@
       <c r="X48" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="49" spans="1:24">
+      <c r="Z48" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -3568,8 +4170,14 @@
       <c r="M49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:24">
+      <c r="Z49" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -3594,8 +4202,14 @@
       <c r="X50" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="51" spans="1:24">
+      <c r="Z50" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -3620,8 +4234,14 @@
       <c r="R51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:24">
+      <c r="Z51" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -3646,8 +4266,14 @@
       <c r="X52" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="53" spans="1:24">
+      <c r="Z52" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -3672,8 +4298,14 @@
       <c r="X53" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="54" spans="1:24">
+      <c r="Z53" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54" t="s">
         <v>119</v>
       </c>
@@ -3701,8 +4333,14 @@
       <c r="X54" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="55" spans="1:24">
+      <c r="Z54" t="s">
+        <v>691</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" t="s">
         <v>119</v>
       </c>
@@ -3727,8 +4365,14 @@
       <c r="X55" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="56" spans="1:24">
+      <c r="Z55" t="s">
+        <v>691</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
       <c r="A56" t="s">
         <v>119</v>
       </c>
@@ -3753,8 +4397,14 @@
       <c r="X56" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="57" spans="1:24">
+      <c r="Z56" t="s">
+        <v>691</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" t="s">
         <v>119</v>
       </c>
@@ -3779,8 +4429,14 @@
       <c r="X57" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="58" spans="1:24">
+      <c r="Z57" t="s">
+        <v>691</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
       <c r="A58" t="s">
         <v>128</v>
       </c>
@@ -3805,8 +4461,14 @@
       <c r="R58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:24">
+      <c r="Z58" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
       <c r="A59" t="s">
         <v>128</v>
       </c>
@@ -3828,8 +4490,14 @@
       <c r="T59">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:24">
+      <c r="Z59" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
       <c r="A60" t="s">
         <v>128</v>
       </c>
@@ -3857,8 +4525,14 @@
       <c r="X60" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="61" spans="1:24">
+      <c r="Z60" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61" t="s">
         <v>128</v>
       </c>
@@ -3889,8 +4563,14 @@
       <c r="X61" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="62" spans="1:24">
+      <c r="Z61" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
       <c r="A62" t="s">
         <v>138</v>
       </c>
@@ -3909,8 +4589,14 @@
       <c r="F62">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:24">
+      <c r="Z62" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
       <c r="A63" t="s">
         <v>138</v>
       </c>
@@ -3932,8 +4618,14 @@
       <c r="M63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:24">
+      <c r="Z63" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64" t="s">
         <v>138</v>
       </c>
@@ -3958,8 +4650,14 @@
       <c r="R64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:24">
+      <c r="Z64" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27">
       <c r="A65" t="s">
         <v>138</v>
       </c>
@@ -3990,8 +4688,14 @@
       <c r="V65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:24">
+      <c r="Z65" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27">
       <c r="A66" t="s">
         <v>144</v>
       </c>
@@ -4016,8 +4720,14 @@
       <c r="T66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:24">
+      <c r="Z66" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27">
       <c r="A67" t="s">
         <v>144</v>
       </c>
@@ -4042,8 +4752,14 @@
       <c r="Q67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:24">
+      <c r="Z67" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27">
       <c r="A68" t="s">
         <v>144</v>
       </c>
@@ -4065,8 +4781,14 @@
       <c r="N68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:24">
+      <c r="Z68" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27">
       <c r="A69" t="s">
         <v>144</v>
       </c>
@@ -4088,8 +4810,14 @@
       <c r="N69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:24">
+      <c r="Z69" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27">
       <c r="A70" t="s">
         <v>150</v>
       </c>
@@ -4117,8 +4845,14 @@
       <c r="Q70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:24">
+      <c r="Z70" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27">
       <c r="A71" t="s">
         <v>150</v>
       </c>
@@ -4137,8 +4871,14 @@
       <c r="F71">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:24">
+      <c r="Z71" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27">
       <c r="A72" t="s">
         <v>150</v>
       </c>
@@ -4166,8 +4906,14 @@
       <c r="Q72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:24">
+      <c r="Z72" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27">
       <c r="A73" t="s">
         <v>150</v>
       </c>
@@ -4192,8 +4938,14 @@
       <c r="R73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:24">
+      <c r="Z73" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27">
       <c r="A74" t="s">
         <v>155</v>
       </c>
@@ -4221,8 +4973,14 @@
       <c r="X74" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="75" spans="1:24">
+      <c r="Z74" t="s">
+        <v>691</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27">
       <c r="A75" t="s">
         <v>155</v>
       </c>
@@ -4247,8 +5005,14 @@
       <c r="X75" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="76" spans="1:24">
+      <c r="Z75" t="s">
+        <v>691</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27">
       <c r="A76" t="s">
         <v>155</v>
       </c>
@@ -4273,8 +5037,14 @@
       <c r="X76" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="77" spans="1:24">
+      <c r="Z76" t="s">
+        <v>691</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27">
       <c r="A77" t="s">
         <v>155</v>
       </c>
@@ -4299,8 +5069,14 @@
       <c r="X77" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="78" spans="1:24">
+      <c r="Z77" t="s">
+        <v>691</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -4328,8 +5104,14 @@
       <c r="Q78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:24">
+      <c r="Z78" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27">
       <c r="A79" t="s">
         <v>160</v>
       </c>
@@ -4351,8 +5133,14 @@
       <c r="M79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:24">
+      <c r="Z79" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27">
       <c r="A80" t="s">
         <v>160</v>
       </c>
@@ -4377,8 +5165,14 @@
       <c r="M80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:24">
+      <c r="Z80" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27">
       <c r="A81" t="s">
         <v>160</v>
       </c>
@@ -4403,8 +5197,14 @@
       <c r="R81">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:24">
+      <c r="Z81" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27">
       <c r="A82" t="s">
         <v>165</v>
       </c>
@@ -4432,8 +5232,14 @@
       <c r="U82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:24">
+      <c r="Z82" t="s">
+        <v>706</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -4467,8 +5273,14 @@
       <c r="U83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:24">
+      <c r="Z83" t="s">
+        <v>706</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -4493,8 +5305,14 @@
       <c r="U84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:24">
+      <c r="Z84" t="s">
+        <v>706</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27">
       <c r="A85" t="s">
         <v>165</v>
       </c>
@@ -4522,8 +5340,14 @@
       <c r="U85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:24">
+      <c r="Z85" t="s">
+        <v>706</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27">
       <c r="A86" t="s">
         <v>165</v>
       </c>
@@ -4551,8 +5375,14 @@
       <c r="U86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:24">
+      <c r="Z86" t="s">
+        <v>706</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27">
       <c r="A87" t="s">
         <v>165</v>
       </c>
@@ -4577,8 +5407,14 @@
       <c r="U87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:24">
+      <c r="Z87" t="s">
+        <v>706</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27">
       <c r="A88" t="s">
         <v>596</v>
       </c>
@@ -4603,8 +5439,14 @@
       <c r="T88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:24">
+      <c r="Z88" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27">
       <c r="A89" t="s">
         <v>596</v>
       </c>
@@ -4635,8 +5477,14 @@
       <c r="X89" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="90" spans="1:24">
+      <c r="Z89" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27">
       <c r="A90" t="s">
         <v>596</v>
       </c>
@@ -4667,8 +5515,14 @@
       <c r="X90" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="91" spans="1:24">
+      <c r="Z90" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27">
       <c r="A91" t="s">
         <v>596</v>
       </c>
@@ -4690,8 +5544,14 @@
       <c r="T91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:24">
+      <c r="Z91" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27">
       <c r="A92" t="s">
         <v>177</v>
       </c>
@@ -4713,8 +5573,14 @@
       <c r="R92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:24">
+      <c r="Z92" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27">
       <c r="A93" t="s">
         <v>177</v>
       </c>
@@ -4736,8 +5602,14 @@
       <c r="T93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:24">
+      <c r="Z93" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27">
       <c r="A94" t="s">
         <v>177</v>
       </c>
@@ -4762,8 +5634,14 @@
       <c r="T94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:24">
+      <c r="Z94" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27">
       <c r="A95" t="s">
         <v>177</v>
       </c>
@@ -4791,8 +5669,14 @@
       <c r="V95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:24">
+      <c r="Z95" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27">
       <c r="A96" t="s">
         <v>177</v>
       </c>
@@ -4823,8 +5707,14 @@
       <c r="T96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:24">
+      <c r="Z96" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27">
       <c r="A97" t="s">
         <v>183</v>
       </c>
@@ -4849,8 +5739,14 @@
       <c r="N97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:24">
+      <c r="Z97" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27">
       <c r="A98" t="s">
         <v>183</v>
       </c>
@@ -4875,8 +5771,14 @@
       <c r="T98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:24">
+      <c r="Z98" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27">
       <c r="A99" t="s">
         <v>183</v>
       </c>
@@ -4904,8 +5806,14 @@
       <c r="P99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:24">
+      <c r="Z99" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27">
       <c r="A100" t="s">
         <v>183</v>
       </c>
@@ -4930,8 +5838,14 @@
       <c r="V100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:24">
+      <c r="Z100" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27">
       <c r="A101" t="s">
         <v>183</v>
       </c>
@@ -4953,8 +5867,14 @@
       <c r="T101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:24">
+      <c r="Z101" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27">
       <c r="A102" t="s">
         <v>189</v>
       </c>
@@ -4979,8 +5899,14 @@
       <c r="X102" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="103" spans="1:24">
+      <c r="Z102" t="s">
+        <v>697</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27">
       <c r="A103" t="s">
         <v>189</v>
       </c>
@@ -5011,8 +5937,14 @@
       <c r="X103" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="104" spans="1:24">
+      <c r="Z103" t="s">
+        <v>697</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27">
       <c r="A104" t="s">
         <v>189</v>
       </c>
@@ -5043,8 +5975,14 @@
       <c r="X104" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="105" spans="1:24">
+      <c r="Z104" t="s">
+        <v>697</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27">
       <c r="A105" t="s">
         <v>189</v>
       </c>
@@ -5072,8 +6010,14 @@
       <c r="X105" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="106" spans="1:24">
+      <c r="Z105" t="s">
+        <v>697</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27">
       <c r="A106" t="s">
         <v>196</v>
       </c>
@@ -5101,8 +6045,14 @@
       <c r="X106" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="107" spans="1:24">
+      <c r="Z106" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27">
       <c r="A107" t="s">
         <v>196</v>
       </c>
@@ -5127,8 +6077,14 @@
       <c r="X107" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="108" spans="1:24">
+      <c r="Z107" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27">
       <c r="A108" t="s">
         <v>196</v>
       </c>
@@ -5153,8 +6109,14 @@
       <c r="X108" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="109" spans="1:24">
+      <c r="Z108" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27">
       <c r="A109" t="s">
         <v>196</v>
       </c>
@@ -5179,8 +6141,14 @@
       <c r="X109" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="110" spans="1:24">
+      <c r="Z109" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27">
       <c r="A110" t="s">
         <v>202</v>
       </c>
@@ -5199,8 +6167,14 @@
       <c r="F110">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:24">
+      <c r="Z110" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27">
       <c r="A111" t="s">
         <v>202</v>
       </c>
@@ -5222,8 +6196,14 @@
       <c r="T111">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:24">
+      <c r="Z111" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27">
       <c r="A112" t="s">
         <v>202</v>
       </c>
@@ -5248,8 +6228,14 @@
       <c r="Q112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:24">
+      <c r="Z112" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27">
       <c r="A113" t="s">
         <v>202</v>
       </c>
@@ -5268,8 +6254,14 @@
       <c r="F113">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="1:24">
+      <c r="Z113" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27">
       <c r="A114" t="s">
         <v>207</v>
       </c>
@@ -5297,8 +6289,14 @@
       <c r="X114" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="115" spans="1:24">
+      <c r="Z114" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27">
       <c r="A115" t="s">
         <v>207</v>
       </c>
@@ -5323,8 +6321,14 @@
       <c r="X115" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="116" spans="1:24">
+      <c r="Z115" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27">
       <c r="A116" t="s">
         <v>207</v>
       </c>
@@ -5349,8 +6353,14 @@
       <c r="X116" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="117" spans="1:24">
+      <c r="Z116" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27">
       <c r="A117" t="s">
         <v>207</v>
       </c>
@@ -5378,8 +6388,14 @@
       <c r="X117" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="118" spans="1:24">
+      <c r="Z117" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27">
       <c r="A118" t="s">
         <v>207</v>
       </c>
@@ -5404,8 +6420,14 @@
       <c r="X118" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="119" spans="1:24">
+      <c r="Z118" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27">
       <c r="A119" t="s">
         <v>207</v>
       </c>
@@ -5427,8 +6449,14 @@
       <c r="X119" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="120" spans="1:24">
+      <c r="Z119" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27">
       <c r="A120" t="s">
         <v>220</v>
       </c>
@@ -5453,8 +6481,14 @@
       <c r="X120" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="121" spans="1:24">
+      <c r="Z120" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA120" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27">
       <c r="A121" t="s">
         <v>220</v>
       </c>
@@ -5479,8 +6513,14 @@
       <c r="X121" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="122" spans="1:24">
+      <c r="Z121" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27">
       <c r="A122" t="s">
         <v>220</v>
       </c>
@@ -5508,8 +6548,14 @@
       <c r="X122" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="123" spans="1:24">
+      <c r="Z122" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA122" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27">
       <c r="A123" t="s">
         <v>220</v>
       </c>
@@ -5534,8 +6580,14 @@
       <c r="X123" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="124" spans="1:24">
+      <c r="Z123" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA123" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27">
       <c r="A124" t="s">
         <v>220</v>
       </c>
@@ -5560,8 +6612,14 @@
       <c r="X124" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="125" spans="1:24">
+      <c r="Z124" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27">
       <c r="A125" t="s">
         <v>220</v>
       </c>
@@ -5583,8 +6641,14 @@
       <c r="X125" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="126" spans="1:24">
+      <c r="Z125" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA125" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27">
       <c r="A126" t="s">
         <v>220</v>
       </c>
@@ -5612,8 +6676,14 @@
       <c r="Q126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:24">
+      <c r="Z126" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA126" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27">
       <c r="A127" t="s">
         <v>597</v>
       </c>
@@ -5638,8 +6708,14 @@
       <c r="X127" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="128" spans="1:24">
+      <c r="Z127" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA127" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27">
       <c r="A128" t="s">
         <v>597</v>
       </c>
@@ -5664,8 +6740,14 @@
       <c r="X128" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="129" spans="1:24">
+      <c r="Z128" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA128" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
       <c r="A129" t="s">
         <v>597</v>
       </c>
@@ -5687,8 +6769,14 @@
       <c r="X129" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="130" spans="1:24">
+      <c r="Z129" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA129" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27">
       <c r="A130" t="s">
         <v>597</v>
       </c>
@@ -5713,8 +6801,14 @@
       <c r="X130" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="131" spans="1:24">
+      <c r="Z130" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA130" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27">
       <c r="A131" t="s">
         <v>236</v>
       </c>
@@ -5742,8 +6836,14 @@
       <c r="U131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:24">
+      <c r="Z131" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA131" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27">
       <c r="A132" t="s">
         <v>236</v>
       </c>
@@ -5768,8 +6868,14 @@
       <c r="R132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:24">
+      <c r="Z132" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA132" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27">
       <c r="A133" t="s">
         <v>236</v>
       </c>
@@ -5788,8 +6894,14 @@
       <c r="F133">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:24">
+      <c r="Z133" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA133" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27">
       <c r="A134" t="s">
         <v>236</v>
       </c>
@@ -5817,8 +6929,14 @@
       <c r="U134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:24">
+      <c r="Z134" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA134" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27">
       <c r="A135" t="s">
         <v>241</v>
       </c>
@@ -5837,8 +6955,14 @@
       <c r="F135">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:24">
+      <c r="Z135" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA135" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27">
       <c r="A136" t="s">
         <v>241</v>
       </c>
@@ -5863,8 +6987,14 @@
       <c r="M136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:24">
+      <c r="Z136" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA136" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27">
       <c r="A137" t="s">
         <v>241</v>
       </c>
@@ -5886,8 +7016,14 @@
       <c r="H137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:24">
+      <c r="Z137" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA137" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27">
       <c r="A138" t="s">
         <v>241</v>
       </c>
@@ -5909,8 +7045,14 @@
       <c r="L138">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:24">
+      <c r="Z138" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA138" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27">
       <c r="A139" t="s">
         <v>246</v>
       </c>
@@ -5929,8 +7071,14 @@
       <c r="F139">
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="1:24">
+      <c r="Z139" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA139" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27">
       <c r="A140" t="s">
         <v>246</v>
       </c>
@@ -5958,8 +7106,14 @@
       <c r="X140" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="141" spans="1:24">
+      <c r="Z140" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA140" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27">
       <c r="A141" t="s">
         <v>246</v>
       </c>
@@ -5987,8 +7141,14 @@
       <c r="X141" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="142" spans="1:24">
+      <c r="Z141" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA141" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27">
       <c r="A142" t="s">
         <v>246</v>
       </c>
@@ -6013,8 +7173,14 @@
       <c r="X142" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="143" spans="1:24">
+      <c r="Z142" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA142" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27">
       <c r="A143" t="s">
         <v>253</v>
       </c>
@@ -6036,8 +7202,14 @@
       <c r="R143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:24">
+      <c r="Z143" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA143" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27">
       <c r="A144" t="s">
         <v>253</v>
       </c>
@@ -6062,8 +7234,14 @@
       <c r="W144">
         <v>-1</v>
       </c>
-    </row>
-    <row r="145" spans="1:24">
+      <c r="Z144" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA144" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27">
       <c r="A145" t="s">
         <v>253</v>
       </c>
@@ -6088,8 +7266,14 @@
       <c r="M145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:24">
+      <c r="Z145" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA145" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27">
       <c r="A146" t="s">
         <v>253</v>
       </c>
@@ -6117,8 +7301,14 @@
       <c r="U146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:24">
+      <c r="Z146" t="s">
+        <v>648</v>
+      </c>
+      <c r="AA146" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27">
       <c r="A147" t="s">
         <v>257</v>
       </c>
@@ -6149,8 +7339,14 @@
       <c r="U147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:24">
+      <c r="Z147" t="s">
+        <v>670</v>
+      </c>
+      <c r="AA147" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27">
       <c r="A148" t="s">
         <v>257</v>
       </c>
@@ -6181,8 +7377,14 @@
       <c r="U148">
         <v>-1</v>
       </c>
-    </row>
-    <row r="149" spans="1:24">
+      <c r="Z148" t="s">
+        <v>670</v>
+      </c>
+      <c r="AA148" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27">
       <c r="A149" t="s">
         <v>257</v>
       </c>
@@ -6210,8 +7412,14 @@
       <c r="U149">
         <v>-1</v>
       </c>
-    </row>
-    <row r="150" spans="1:24">
+      <c r="Z149" t="s">
+        <v>670</v>
+      </c>
+      <c r="AA149" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27">
       <c r="A150" t="s">
         <v>257</v>
       </c>
@@ -6239,8 +7447,14 @@
       <c r="U150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:24">
+      <c r="Z150" t="s">
+        <v>670</v>
+      </c>
+      <c r="AA150" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27">
       <c r="A151" t="s">
         <v>263</v>
       </c>
@@ -6268,8 +7482,14 @@
       <c r="R151">
         <v>2</v>
       </c>
-    </row>
-    <row r="152" spans="1:24">
+      <c r="Z151" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA151" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27">
       <c r="A152" t="s">
         <v>263</v>
       </c>
@@ -6297,8 +7517,14 @@
       <c r="U152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:24">
+      <c r="Z152" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA152" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27">
       <c r="A153" t="s">
         <v>263</v>
       </c>
@@ -6323,8 +7549,14 @@
       <c r="T153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:24">
+      <c r="Z153" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA153" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27">
       <c r="A154" t="s">
         <v>263</v>
       </c>
@@ -6346,8 +7578,14 @@
       <c r="R154">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:24">
+      <c r="Z154" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA154" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27">
       <c r="A155" t="s">
         <v>269</v>
       </c>
@@ -6372,8 +7610,14 @@
       <c r="X155" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="156" spans="1:24">
+      <c r="Z155" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA155" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27">
       <c r="A156" t="s">
         <v>269</v>
       </c>
@@ -6395,8 +7639,14 @@
       <c r="T156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:24">
+      <c r="Z156" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA156" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27">
       <c r="A157" t="s">
         <v>269</v>
       </c>
@@ -6421,8 +7671,14 @@
       <c r="W157">
         <v>-1</v>
       </c>
-    </row>
-    <row r="158" spans="1:24">
+      <c r="Z157" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA157" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27">
       <c r="A158" t="s">
         <v>269</v>
       </c>
@@ -6444,8 +7700,14 @@
       <c r="M158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:24">
+      <c r="Z158" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA158" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27">
       <c r="A159" t="s">
         <v>275</v>
       </c>
@@ -6476,8 +7738,14 @@
       <c r="X159" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="160" spans="1:24">
+      <c r="Z159" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA159" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27">
       <c r="A160" t="s">
         <v>275</v>
       </c>
@@ -6508,8 +7776,14 @@
       <c r="X160" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="161" spans="1:24">
+      <c r="Z160" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA160" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27">
       <c r="A161" t="s">
         <v>275</v>
       </c>
@@ -6540,8 +7814,14 @@
       <c r="X161" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="162" spans="1:24">
+      <c r="Z161" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA161" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27">
       <c r="A162" t="s">
         <v>275</v>
       </c>
@@ -6569,8 +7849,14 @@
       <c r="N162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:24">
+      <c r="Z162" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA162" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
       <c r="A163" t="s">
         <v>275</v>
       </c>
@@ -6595,8 +7881,14 @@
       <c r="U163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:24">
+      <c r="Z163" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA163" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27">
       <c r="A164" t="s">
         <v>282</v>
       </c>
@@ -6627,8 +7919,14 @@
       <c r="X164" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="165" spans="1:24">
+      <c r="Z164" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA164" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27">
       <c r="A165" t="s">
         <v>282</v>
       </c>
@@ -6653,8 +7951,14 @@
       <c r="T165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:24">
+      <c r="Z165" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA165" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27">
       <c r="A166" t="s">
         <v>282</v>
       </c>
@@ -6682,8 +7986,14 @@
       <c r="U166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:24">
+      <c r="Z166" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA166" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27">
       <c r="A167" t="s">
         <v>282</v>
       </c>
@@ -6711,8 +8021,14 @@
       <c r="T167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:24">
+      <c r="Z167" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA167" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27">
       <c r="A168" t="s">
         <v>288</v>
       </c>
@@ -6734,8 +8050,14 @@
       <c r="U168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:24">
+      <c r="Z168" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA168" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27">
       <c r="A169" t="s">
         <v>288</v>
       </c>
@@ -6760,8 +8082,14 @@
       <c r="Q169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:24">
+      <c r="Z169" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA169" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27">
       <c r="A170" t="s">
         <v>288</v>
       </c>
@@ -6780,8 +8108,14 @@
       <c r="F170">
         <v>-1</v>
       </c>
-    </row>
-    <row r="171" spans="1:24">
+      <c r="Z170" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA170" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27">
       <c r="A171" t="s">
         <v>288</v>
       </c>
@@ -6806,8 +8140,14 @@
       <c r="T171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:24">
+      <c r="Z171" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA171" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27">
       <c r="A172" t="s">
         <v>288</v>
       </c>
@@ -6829,8 +8169,14 @@
       <c r="U172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:24">
+      <c r="Z172" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA172" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27">
       <c r="A173" t="s">
         <v>294</v>
       </c>
@@ -6855,8 +8201,14 @@
       <c r="T173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:24">
+      <c r="Z173" t="s">
+        <v>665</v>
+      </c>
+      <c r="AA173" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="174" spans="1:27">
       <c r="A174" t="s">
         <v>294</v>
       </c>
@@ -6881,8 +8233,14 @@
       <c r="R174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:24">
+      <c r="Z174" t="s">
+        <v>665</v>
+      </c>
+      <c r="AA174" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="175" spans="1:27">
       <c r="A175" t="s">
         <v>294</v>
       </c>
@@ -6907,8 +8265,14 @@
       <c r="W175">
         <v>-1</v>
       </c>
-    </row>
-    <row r="176" spans="1:24">
+      <c r="Z175" t="s">
+        <v>665</v>
+      </c>
+      <c r="AA175" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27">
       <c r="A176" t="s">
         <v>294</v>
       </c>
@@ -6936,8 +8300,14 @@
       <c r="Q176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:24">
+      <c r="Z176" t="s">
+        <v>665</v>
+      </c>
+      <c r="AA176" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27">
       <c r="A177" t="s">
         <v>299</v>
       </c>
@@ -6959,8 +8329,14 @@
       <c r="W177">
         <v>-1</v>
       </c>
-    </row>
-    <row r="178" spans="1:24">
+      <c r="Z177" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA177" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27">
       <c r="A178" t="s">
         <v>299</v>
       </c>
@@ -6988,8 +8364,14 @@
       <c r="X178" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="179" spans="1:24">
+      <c r="Z178" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA178" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27">
       <c r="A179" t="s">
         <v>299</v>
       </c>
@@ -7011,8 +8393,14 @@
       <c r="M179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:24">
+      <c r="Z179" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA179" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27">
       <c r="A180" t="s">
         <v>299</v>
       </c>
@@ -7037,8 +8425,14 @@
       <c r="N180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:24">
+      <c r="Z180" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA180" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="181" spans="1:27">
       <c r="A181" t="s">
         <v>303</v>
       </c>
@@ -7057,8 +8451,14 @@
       <c r="F181">
         <v>4</v>
       </c>
-    </row>
-    <row r="182" spans="1:24">
+      <c r="Z181" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA181" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="182" spans="1:27">
       <c r="A182" t="s">
         <v>303</v>
       </c>
@@ -7080,8 +8480,14 @@
       <c r="M182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:24">
+      <c r="Z182" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA182" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27">
       <c r="A183" t="s">
         <v>303</v>
       </c>
@@ -7103,8 +8509,14 @@
       <c r="M183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:24">
+      <c r="Z183" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA183" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="184" spans="1:27">
       <c r="A184" t="s">
         <v>303</v>
       </c>
@@ -7123,8 +8535,14 @@
       <c r="F184">
         <v>5</v>
       </c>
-    </row>
-    <row r="185" spans="1:24">
+      <c r="Z184" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA184" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="185" spans="1:27">
       <c r="A185" t="s">
         <v>308</v>
       </c>
@@ -7146,8 +8564,14 @@
       <c r="J185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:24">
+      <c r="Z185" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA185" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="186" spans="1:27">
       <c r="A186" t="s">
         <v>308</v>
       </c>
@@ -7169,8 +8593,14 @@
       <c r="I186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:24">
+      <c r="Z186" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA186" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="187" spans="1:27">
       <c r="A187" t="s">
         <v>308</v>
       </c>
@@ -7204,8 +8634,14 @@
       <c r="U187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:24">
+      <c r="Z187" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA187" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="188" spans="1:27">
       <c r="A188" t="s">
         <v>308</v>
       </c>
@@ -7230,8 +8666,14 @@
       <c r="N188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:24">
+      <c r="Z188" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA188" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="189" spans="1:27">
       <c r="A189" t="s">
         <v>308</v>
       </c>
@@ -7259,8 +8701,14 @@
       <c r="R189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:24">
+      <c r="Z189" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA189" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="190" spans="1:27">
       <c r="A190" t="s">
         <v>308</v>
       </c>
@@ -7282,8 +8730,14 @@
       <c r="T190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:24">
+      <c r="Z190" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA190" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="191" spans="1:27">
       <c r="A191" t="s">
         <v>595</v>
       </c>
@@ -7314,8 +8768,14 @@
       <c r="R191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:24">
+      <c r="Z191" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA191" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="192" spans="1:27">
       <c r="A192" t="s">
         <v>595</v>
       </c>
@@ -7343,8 +8803,14 @@
       <c r="W192">
         <v>-1</v>
       </c>
-    </row>
-    <row r="193" spans="1:23">
+      <c r="Z192" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA192" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27">
       <c r="A193" t="s">
         <v>595</v>
       </c>
@@ -7366,8 +8832,14 @@
       <c r="N193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:23">
+      <c r="Z193" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA193" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27">
       <c r="A194" t="s">
         <v>595</v>
       </c>
@@ -7392,8 +8864,14 @@
       <c r="R194">
         <v>2</v>
       </c>
-    </row>
-    <row r="195" spans="1:23">
+      <c r="Z194" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA194" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27">
       <c r="A195" t="s">
         <v>595</v>
       </c>
@@ -7427,8 +8905,14 @@
       <c r="Q195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:23">
+      <c r="Z195" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA195" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27">
       <c r="A196" t="s">
         <v>594</v>
       </c>
@@ -7459,8 +8943,14 @@
       <c r="Q196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:23">
+      <c r="Z196" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA196" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="197" spans="1:27">
       <c r="A197" t="s">
         <v>594</v>
       </c>
@@ -7488,8 +8978,14 @@
       <c r="T197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:23">
+      <c r="Z197" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA197" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="198" spans="1:27">
       <c r="A198" t="s">
         <v>594</v>
       </c>
@@ -7520,8 +9016,14 @@
       <c r="T198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:23">
+      <c r="Z198" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA198" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="199" spans="1:27">
       <c r="A199" t="s">
         <v>594</v>
       </c>
@@ -7552,8 +9054,14 @@
       <c r="T199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:23">
+      <c r="Z199" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA199" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="200" spans="1:27">
       <c r="A200" t="s">
         <v>326</v>
       </c>
@@ -7578,8 +9086,14 @@
       <c r="N200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:23">
+      <c r="Z200" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA200" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="201" spans="1:27">
       <c r="A201" t="s">
         <v>326</v>
       </c>
@@ -7607,8 +9121,14 @@
       <c r="N201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:23">
+      <c r="Z201" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA201" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="202" spans="1:27">
       <c r="A202" t="s">
         <v>326</v>
       </c>
@@ -7630,8 +9150,14 @@
       <c r="W202">
         <v>-1</v>
       </c>
-    </row>
-    <row r="203" spans="1:23">
+      <c r="Z202" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA202" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="203" spans="1:27">
       <c r="A203" t="s">
         <v>326</v>
       </c>
@@ -7656,8 +9182,14 @@
       <c r="M203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:23">
+      <c r="Z203" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA203" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="204" spans="1:27">
       <c r="A204" t="s">
         <v>326</v>
       </c>
@@ -7679,8 +9211,14 @@
       <c r="U204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:23">
+      <c r="Z204" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA204" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="205" spans="1:27">
       <c r="A205" t="s">
         <v>326</v>
       </c>
@@ -7705,8 +9243,14 @@
       <c r="R205">
         <v>2</v>
       </c>
-    </row>
-    <row r="206" spans="1:23">
+      <c r="Z205" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA205" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="206" spans="1:27">
       <c r="A206" t="s">
         <v>333</v>
       </c>
@@ -7734,8 +9278,14 @@
       <c r="R206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:23">
+      <c r="Z206" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA206" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="207" spans="1:27">
       <c r="A207" t="s">
         <v>333</v>
       </c>
@@ -7760,8 +9310,14 @@
       <c r="N207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:23">
+      <c r="Z207" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA207" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="208" spans="1:27">
       <c r="A208" t="s">
         <v>333</v>
       </c>
@@ -7783,8 +9339,14 @@
       <c r="N208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:24">
+      <c r="Z208" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA208" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27">
       <c r="A209" t="s">
         <v>333</v>
       </c>
@@ -7806,8 +9368,14 @@
       <c r="X209" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="210" spans="1:24">
+      <c r="Z209" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA209" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27">
       <c r="A210" t="s">
         <v>333</v>
       </c>
@@ -7832,8 +9400,14 @@
       <c r="V210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:24">
+      <c r="Z210" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA210" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27">
       <c r="A211" t="s">
         <v>340</v>
       </c>
@@ -7855,8 +9429,14 @@
       <c r="N211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:24">
+      <c r="Z211" t="s">
+        <v>665</v>
+      </c>
+      <c r="AA211" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="212" spans="1:27">
       <c r="A212" t="s">
         <v>340</v>
       </c>
@@ -7878,8 +9458,14 @@
       <c r="R212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:24">
+      <c r="Z212" t="s">
+        <v>665</v>
+      </c>
+      <c r="AA212" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="213" spans="1:27">
       <c r="A213" t="s">
         <v>340</v>
       </c>
@@ -7898,8 +9484,14 @@
       <c r="F213">
         <v>8</v>
       </c>
-    </row>
-    <row r="214" spans="1:24">
+      <c r="Z213" t="s">
+        <v>665</v>
+      </c>
+      <c r="AA213" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="214" spans="1:27">
       <c r="A214" t="s">
         <v>340</v>
       </c>
@@ -7921,8 +9513,14 @@
       <c r="N214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:24">
+      <c r="Z214" t="s">
+        <v>665</v>
+      </c>
+      <c r="AA214" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="215" spans="1:27">
       <c r="A215" t="s">
         <v>345</v>
       </c>
@@ -7947,8 +9545,14 @@
       <c r="M215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:24">
+      <c r="Z215" t="s">
+        <v>665</v>
+      </c>
+      <c r="AA215" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="216" spans="1:27">
       <c r="A216" t="s">
         <v>345</v>
       </c>
@@ -7967,8 +9571,14 @@
       <c r="F216">
         <v>4</v>
       </c>
-    </row>
-    <row r="217" spans="1:24">
+      <c r="Z216" t="s">
+        <v>665</v>
+      </c>
+      <c r="AA216" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="217" spans="1:27">
       <c r="A217" t="s">
         <v>345</v>
       </c>
@@ -7993,8 +9603,14 @@
       <c r="U217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:24">
+      <c r="Z217" t="s">
+        <v>665</v>
+      </c>
+      <c r="AA217" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="218" spans="1:27">
       <c r="A218" t="s">
         <v>345</v>
       </c>
@@ -8016,8 +9632,14 @@
       <c r="Q218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:24">
+      <c r="Z218" t="s">
+        <v>665</v>
+      </c>
+      <c r="AA218" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="219" spans="1:27">
       <c r="A219" t="s">
         <v>349</v>
       </c>
@@ -8042,8 +9664,14 @@
       <c r="X219" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="220" spans="1:24">
+      <c r="Z219" t="s">
+        <v>690</v>
+      </c>
+      <c r="AA219" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="220" spans="1:27">
       <c r="A220" t="s">
         <v>349</v>
       </c>
@@ -8068,8 +9696,14 @@
       <c r="X220" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="221" spans="1:24">
+      <c r="Z220" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA220" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="221" spans="1:27">
       <c r="A221" t="s">
         <v>349</v>
       </c>
@@ -8091,8 +9725,14 @@
       <c r="R221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:24">
+      <c r="Z221" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA221" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="222" spans="1:27">
       <c r="A222" t="s">
         <v>349</v>
       </c>
@@ -8117,8 +9757,14 @@
       <c r="X222" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="223" spans="1:24">
+      <c r="Z222" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA222" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="223" spans="1:27">
       <c r="A223" t="s">
         <v>598</v>
       </c>
@@ -8146,8 +9792,14 @@
       <c r="W223">
         <v>-1</v>
       </c>
-    </row>
-    <row r="224" spans="1:24">
+      <c r="Z223" t="s">
+        <v>697</v>
+      </c>
+      <c r="AA223" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="224" spans="1:27">
       <c r="A224" t="s">
         <v>598</v>
       </c>
@@ -8172,8 +9824,14 @@
       <c r="W224">
         <v>-1</v>
       </c>
-    </row>
-    <row r="225" spans="1:24">
+      <c r="Z224" t="s">
+        <v>697</v>
+      </c>
+      <c r="AA224" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27">
       <c r="A225" t="s">
         <v>598</v>
       </c>
@@ -8201,8 +9859,14 @@
       <c r="W225">
         <v>-1</v>
       </c>
-    </row>
-    <row r="226" spans="1:24">
+      <c r="Z225" t="s">
+        <v>697</v>
+      </c>
+      <c r="AA225" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27">
       <c r="A226" t="s">
         <v>598</v>
       </c>
@@ -8230,8 +9894,14 @@
       <c r="W226">
         <v>-1</v>
       </c>
-    </row>
-    <row r="227" spans="1:24">
+      <c r="Z226" t="s">
+        <v>697</v>
+      </c>
+      <c r="AA226" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27">
       <c r="A227" t="s">
         <v>357</v>
       </c>
@@ -8253,8 +9923,14 @@
       <c r="N227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:24">
+      <c r="Z227" t="s">
+        <v>630</v>
+      </c>
+      <c r="AA227" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27">
       <c r="A228" t="s">
         <v>357</v>
       </c>
@@ -8276,8 +9952,14 @@
       <c r="M228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:24">
+      <c r="Z228" t="s">
+        <v>630</v>
+      </c>
+      <c r="AA228" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27">
       <c r="A229" t="s">
         <v>357</v>
       </c>
@@ -8305,8 +9987,14 @@
       <c r="X229" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="230" spans="1:24">
+      <c r="Z229" t="s">
+        <v>630</v>
+      </c>
+      <c r="AA229" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="230" spans="1:27">
       <c r="A230" t="s">
         <v>357</v>
       </c>
@@ -8334,8 +10022,14 @@
       <c r="X230" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="231" spans="1:24">
+      <c r="Z230" t="s">
+        <v>630</v>
+      </c>
+      <c r="AA230" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="231" spans="1:27">
       <c r="A231" t="s">
         <v>361</v>
       </c>
@@ -8366,8 +10060,14 @@
       <c r="X231" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="232" spans="1:24">
+      <c r="Z231" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA231" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="232" spans="1:27">
       <c r="A232" t="s">
         <v>361</v>
       </c>
@@ -8395,8 +10095,14 @@
       <c r="X232" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="233" spans="1:24">
+      <c r="Z232" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA232" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="233" spans="1:27">
       <c r="A233" t="s">
         <v>361</v>
       </c>
@@ -8430,8 +10136,14 @@
       <c r="X233" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="234" spans="1:24">
+      <c r="Z233" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA233" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="234" spans="1:27">
       <c r="A234" t="s">
         <v>361</v>
       </c>
@@ -8459,8 +10171,14 @@
       <c r="X234" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="235" spans="1:24">
+      <c r="Z234" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA234" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="235" spans="1:27">
       <c r="A235" t="s">
         <v>361</v>
       </c>
@@ -8491,8 +10209,14 @@
       <c r="X235" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="236" spans="1:24">
+      <c r="Z235" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA235" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="236" spans="1:27">
       <c r="A236" t="s">
         <v>361</v>
       </c>
@@ -8526,8 +10250,14 @@
       <c r="X236" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="237" spans="1:24">
+      <c r="Z236" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA236" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="237" spans="1:27">
       <c r="A237" t="s">
         <v>361</v>
       </c>
@@ -8561,8 +10291,14 @@
       <c r="X237" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="238" spans="1:24">
+      <c r="Z237" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA237" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="238" spans="1:27">
       <c r="A238" t="s">
         <v>361</v>
       </c>
@@ -8599,8 +10335,14 @@
       <c r="X238" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="239" spans="1:24">
+      <c r="Z238" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA238" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="239" spans="1:27">
       <c r="A239" t="s">
         <v>371</v>
       </c>
@@ -8625,8 +10367,14 @@
       <c r="R239">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:24">
+      <c r="Z239" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA239" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="240" spans="1:27">
       <c r="A240" t="s">
         <v>371</v>
       </c>
@@ -8651,8 +10399,14 @@
       <c r="Q240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:24">
+      <c r="Z240" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA240" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27">
       <c r="A241" t="s">
         <v>371</v>
       </c>
@@ -8677,8 +10431,14 @@
       <c r="Q241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:24">
+      <c r="Z241" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA241" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27">
       <c r="A242" t="s">
         <v>371</v>
       </c>
@@ -8706,8 +10466,14 @@
       <c r="Q242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:24">
+      <c r="Z242" t="s">
+        <v>630</v>
+      </c>
+      <c r="AA242" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27">
       <c r="A243" t="s">
         <v>375</v>
       </c>
@@ -8726,8 +10492,14 @@
       <c r="F243">
         <v>4</v>
       </c>
-    </row>
-    <row r="244" spans="1:24">
+      <c r="Z243" t="s">
+        <v>690</v>
+      </c>
+      <c r="AA243" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="244" spans="1:27">
       <c r="A244" t="s">
         <v>375</v>
       </c>
@@ -8749,8 +10521,14 @@
       <c r="M244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:24">
+      <c r="Z244" t="s">
+        <v>690</v>
+      </c>
+      <c r="AA244" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="245" spans="1:27">
       <c r="A245" t="s">
         <v>375</v>
       </c>
@@ -8784,8 +10562,14 @@
       <c r="Q245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:24">
+      <c r="Z245" t="s">
+        <v>690</v>
+      </c>
+      <c r="AA245" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="246" spans="1:27">
       <c r="A246" t="s">
         <v>375</v>
       </c>
@@ -8807,8 +10591,14 @@
       <c r="N246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:24">
+      <c r="Z246" t="s">
+        <v>690</v>
+      </c>
+      <c r="AA246" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="247" spans="1:27">
       <c r="A247" t="s">
         <v>380</v>
       </c>
@@ -8842,8 +10632,14 @@
       <c r="T247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:24">
+      <c r="Z247" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA247" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="248" spans="1:27">
       <c r="A248" t="s">
         <v>380</v>
       </c>
@@ -8868,8 +10664,14 @@
       <c r="W248">
         <v>-1</v>
       </c>
-    </row>
-    <row r="249" spans="1:24">
+      <c r="Z248" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA248" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="249" spans="1:27">
       <c r="A249" t="s">
         <v>380</v>
       </c>
@@ -8900,8 +10702,14 @@
       <c r="T249">
         <v>2</v>
       </c>
-    </row>
-    <row r="250" spans="1:24">
+      <c r="Z249" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA249" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="250" spans="1:27">
       <c r="A250" t="s">
         <v>380</v>
       </c>
@@ -8932,8 +10740,14 @@
       <c r="V250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:24">
+      <c r="Z250" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA250" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="251" spans="1:27">
       <c r="A251" t="s">
         <v>385</v>
       </c>
@@ -8958,8 +10772,14 @@
       <c r="Q251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:24">
+      <c r="Z251" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA251" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="252" spans="1:27">
       <c r="A252" t="s">
         <v>385</v>
       </c>
@@ -8981,8 +10801,14 @@
       <c r="R252">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:24">
+      <c r="Z252" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA252" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="253" spans="1:27">
       <c r="A253" t="s">
         <v>385</v>
       </c>
@@ -9007,8 +10833,14 @@
       <c r="U253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:24">
+      <c r="Z253" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA253" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="254" spans="1:27">
       <c r="A254" t="s">
         <v>385</v>
       </c>
@@ -9039,8 +10871,14 @@
       <c r="X254" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="255" spans="1:24">
+      <c r="Z254" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA254" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="255" spans="1:27">
       <c r="A255" t="s">
         <v>600</v>
       </c>
@@ -9068,8 +10906,14 @@
       <c r="Q255">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:24">
+      <c r="Z255" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA255" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="256" spans="1:27">
       <c r="A256" t="s">
         <v>600</v>
       </c>
@@ -9094,8 +10938,14 @@
       <c r="T256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:23">
+      <c r="Z256" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA256" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="257" spans="1:27">
       <c r="A257" t="s">
         <v>600</v>
       </c>
@@ -9117,8 +10967,14 @@
       <c r="L257">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:23">
+      <c r="Z257" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA257" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="258" spans="1:27">
       <c r="A258" t="s">
         <v>600</v>
       </c>
@@ -9143,8 +10999,14 @@
       <c r="V258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:23">
+      <c r="Z258" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA258" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="259" spans="1:27">
       <c r="A259" t="s">
         <v>601</v>
       </c>
@@ -9166,8 +11028,14 @@
       <c r="R259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:23">
+      <c r="Z259" t="s">
+        <v>706</v>
+      </c>
+      <c r="AA259" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="260" spans="1:27">
       <c r="A260" t="s">
         <v>601</v>
       </c>
@@ -9186,8 +11054,14 @@
       <c r="F260">
         <v>5</v>
       </c>
-    </row>
-    <row r="261" spans="1:23">
+      <c r="Z260" t="s">
+        <v>706</v>
+      </c>
+      <c r="AA260" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="261" spans="1:27">
       <c r="A261" t="s">
         <v>601</v>
       </c>
@@ -9212,8 +11086,14 @@
       <c r="R261">
         <v>2</v>
       </c>
-    </row>
-    <row r="262" spans="1:23">
+      <c r="Z261" t="s">
+        <v>706</v>
+      </c>
+      <c r="AA261" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="262" spans="1:27">
       <c r="A262" t="s">
         <v>601</v>
       </c>
@@ -9238,8 +11118,14 @@
       <c r="K262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:23">
+      <c r="Z262" t="s">
+        <v>706</v>
+      </c>
+      <c r="AA262" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="263" spans="1:27">
       <c r="A263" t="s">
         <v>601</v>
       </c>
@@ -9258,8 +11144,14 @@
       <c r="F263">
         <v>4</v>
       </c>
-    </row>
-    <row r="264" spans="1:23">
+      <c r="Z263" t="s">
+        <v>706</v>
+      </c>
+      <c r="AA263" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="264" spans="1:27">
       <c r="A264" t="s">
         <v>601</v>
       </c>
@@ -9281,8 +11173,14 @@
       <c r="M264">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:23">
+      <c r="Z264" t="s">
+        <v>706</v>
+      </c>
+      <c r="AA264" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="265" spans="1:27">
       <c r="A265" t="s">
         <v>601</v>
       </c>
@@ -9304,8 +11202,14 @@
       <c r="R265">
         <v>2</v>
       </c>
-    </row>
-    <row r="266" spans="1:23">
+      <c r="Z265" t="s">
+        <v>706</v>
+      </c>
+      <c r="AA265" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="266" spans="1:27">
       <c r="A266" t="s">
         <v>401</v>
       </c>
@@ -9333,8 +11237,14 @@
       <c r="W266">
         <v>-1</v>
       </c>
-    </row>
-    <row r="267" spans="1:23">
+      <c r="Z266" t="s">
+        <v>670</v>
+      </c>
+      <c r="AA266" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="267" spans="1:27">
       <c r="A267" t="s">
         <v>401</v>
       </c>
@@ -9359,8 +11269,14 @@
       <c r="W267">
         <v>-1</v>
       </c>
-    </row>
-    <row r="268" spans="1:23">
+      <c r="Z267" t="s">
+        <v>670</v>
+      </c>
+      <c r="AA267" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="268" spans="1:27">
       <c r="A268" t="s">
         <v>401</v>
       </c>
@@ -9382,8 +11298,14 @@
       <c r="M268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:23">
+      <c r="Z268" t="s">
+        <v>670</v>
+      </c>
+      <c r="AA268" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="269" spans="1:27">
       <c r="A269" t="s">
         <v>401</v>
       </c>
@@ -9408,8 +11330,14 @@
       <c r="W269">
         <v>-1</v>
       </c>
-    </row>
-    <row r="270" spans="1:23">
+      <c r="Z269" t="s">
+        <v>670</v>
+      </c>
+      <c r="AA269" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="270" spans="1:27">
       <c r="A270" t="s">
         <v>406</v>
       </c>
@@ -9431,8 +11359,14 @@
       <c r="R270">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:23">
+      <c r="Z270" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA270" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="271" spans="1:27">
       <c r="A271" t="s">
         <v>406</v>
       </c>
@@ -9454,8 +11388,14 @@
       <c r="R271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:23">
+      <c r="Z271" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA271" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="272" spans="1:27">
       <c r="A272" t="s">
         <v>406</v>
       </c>
@@ -9474,8 +11414,14 @@
       <c r="F272">
         <v>5</v>
       </c>
-    </row>
-    <row r="273" spans="1:24">
+      <c r="Z272" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA272" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="273" spans="1:27">
       <c r="A273" t="s">
         <v>406</v>
       </c>
@@ -9500,8 +11446,14 @@
       <c r="R273">
         <v>2</v>
       </c>
-    </row>
-    <row r="274" spans="1:24">
+      <c r="Z273" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA273" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="274" spans="1:27">
       <c r="A274" t="s">
         <v>406</v>
       </c>
@@ -9529,8 +11481,14 @@
       <c r="R274">
         <v>2</v>
       </c>
-    </row>
-    <row r="275" spans="1:24">
+      <c r="Z274" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA274" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="275" spans="1:27">
       <c r="A275" t="s">
         <v>406</v>
       </c>
@@ -9555,8 +11513,14 @@
       <c r="T275">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:24">
+      <c r="Z275" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA275" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="276" spans="1:27">
       <c r="A276" t="s">
         <v>414</v>
       </c>
@@ -9584,8 +11548,14 @@
       <c r="R276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:24">
+      <c r="Z276" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA276" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="277" spans="1:27">
       <c r="A277" t="s">
         <v>414</v>
       </c>
@@ -9607,8 +11577,14 @@
       <c r="J277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:24">
+      <c r="Z277" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA277" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="278" spans="1:27">
       <c r="A278" t="s">
         <v>414</v>
       </c>
@@ -9636,8 +11612,14 @@
       <c r="Q278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:24">
+      <c r="Z278" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA278" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="279" spans="1:27">
       <c r="A279" t="s">
         <v>414</v>
       </c>
@@ -9662,8 +11644,14 @@
       <c r="T279">
         <v>2</v>
       </c>
-    </row>
-    <row r="280" spans="1:24">
+      <c r="Z279" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA279" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="280" spans="1:27">
       <c r="A280" t="s">
         <v>414</v>
       </c>
@@ -9691,8 +11679,14 @@
       <c r="R280">
         <v>2</v>
       </c>
-    </row>
-    <row r="281" spans="1:24">
+      <c r="Z280" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA280" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="281" spans="1:27">
       <c r="A281" t="s">
         <v>420</v>
       </c>
@@ -9717,8 +11711,14 @@
       <c r="R281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:24">
+      <c r="Z281" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA281" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="282" spans="1:27">
       <c r="A282" t="s">
         <v>420</v>
       </c>
@@ -9743,8 +11743,14 @@
       <c r="T282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:24">
+      <c r="Z282" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA282" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="283" spans="1:27">
       <c r="A283" t="s">
         <v>420</v>
       </c>
@@ -9766,8 +11772,14 @@
       <c r="M283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:24">
+      <c r="Z283" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA283" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="284" spans="1:27">
       <c r="A284" t="s">
         <v>420</v>
       </c>
@@ -9786,8 +11798,14 @@
       <c r="F284">
         <v>7</v>
       </c>
-    </row>
-    <row r="285" spans="1:24">
+      <c r="Z284" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA284" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="285" spans="1:27">
       <c r="A285" t="s">
         <v>420</v>
       </c>
@@ -9806,8 +11824,14 @@
       <c r="F285">
         <v>-1</v>
       </c>
-    </row>
-    <row r="286" spans="1:24">
+      <c r="Z285" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA285" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="286" spans="1:27">
       <c r="A286" t="s">
         <v>426</v>
       </c>
@@ -9829,8 +11853,14 @@
       <c r="X286" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="287" spans="1:24">
+      <c r="Z286" t="s">
+        <v>730</v>
+      </c>
+      <c r="AA286" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="287" spans="1:27">
       <c r="A287" t="s">
         <v>426</v>
       </c>
@@ -9861,8 +11891,14 @@
       <c r="X287" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="288" spans="1:24">
+      <c r="Z287" t="s">
+        <v>730</v>
+      </c>
+      <c r="AA287" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="288" spans="1:27">
       <c r="A288" t="s">
         <v>426</v>
       </c>
@@ -9890,8 +11926,14 @@
       <c r="X288" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="289" spans="1:24">
+      <c r="Z288" t="s">
+        <v>730</v>
+      </c>
+      <c r="AA288" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="289" spans="1:27">
       <c r="A289" t="s">
         <v>426</v>
       </c>
@@ -9916,8 +11958,14 @@
       <c r="X289" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="290" spans="1:24">
+      <c r="Z289" t="s">
+        <v>730</v>
+      </c>
+      <c r="AA289" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="290" spans="1:27">
       <c r="A290" t="s">
         <v>433</v>
       </c>
@@ -9942,8 +11990,14 @@
       <c r="X290" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="291" spans="1:24">
+      <c r="Z290" t="s">
+        <v>730</v>
+      </c>
+      <c r="AA290" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="291" spans="1:27">
       <c r="A291" t="s">
         <v>433</v>
       </c>
@@ -9968,8 +12022,14 @@
       <c r="X291" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="292" spans="1:24">
+      <c r="Z291" t="s">
+        <v>730</v>
+      </c>
+      <c r="AA291" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="292" spans="1:27">
       <c r="A292" t="s">
         <v>433</v>
       </c>
@@ -9991,8 +12051,14 @@
       <c r="N292">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:24">
+      <c r="Z292" t="s">
+        <v>730</v>
+      </c>
+      <c r="AA292" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="293" spans="1:27">
       <c r="A293" t="s">
         <v>433</v>
       </c>
@@ -10017,8 +12083,14 @@
       <c r="U293">
         <v>2</v>
       </c>
-    </row>
-    <row r="294" spans="1:24">
+      <c r="Z293" t="s">
+        <v>730</v>
+      </c>
+      <c r="AA293" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="294" spans="1:27">
       <c r="A294" t="s">
         <v>433</v>
       </c>
@@ -10043,8 +12115,14 @@
       <c r="X294" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="295" spans="1:24">
+      <c r="Z294" t="s">
+        <v>730</v>
+      </c>
+      <c r="AA294" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="295" spans="1:27">
       <c r="A295" t="s">
         <v>440</v>
       </c>
@@ -10069,8 +12147,14 @@
       <c r="R295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:24">
+      <c r="Z295" t="s">
+        <v>731</v>
+      </c>
+      <c r="AA295" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="296" spans="1:27">
       <c r="A296" t="s">
         <v>440</v>
       </c>
@@ -10092,8 +12176,14 @@
       <c r="H296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:24">
+      <c r="Z296" t="s">
+        <v>731</v>
+      </c>
+      <c r="AA296" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="297" spans="1:27">
       <c r="A297" t="s">
         <v>440</v>
       </c>
@@ -10124,8 +12214,14 @@
       <c r="X297" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="298" spans="1:24">
+      <c r="Z297" t="s">
+        <v>730</v>
+      </c>
+      <c r="AA297" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="298" spans="1:27">
       <c r="A298" t="s">
         <v>440</v>
       </c>
@@ -10153,8 +12249,14 @@
       <c r="R298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:24">
+      <c r="Z298" t="s">
+        <v>730</v>
+      </c>
+      <c r="AA298" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="299" spans="1:27">
       <c r="A299" t="s">
         <v>440</v>
       </c>
@@ -10176,8 +12278,14 @@
       <c r="N299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:24">
+      <c r="Z299" t="s">
+        <v>731</v>
+      </c>
+      <c r="AA299" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="300" spans="1:27">
       <c r="A300" t="s">
         <v>440</v>
       </c>
@@ -10202,8 +12310,14 @@
       <c r="Q300">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:24">
+      <c r="Z300" t="s">
+        <v>730</v>
+      </c>
+      <c r="AA300" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="301" spans="1:27">
       <c r="A301" t="s">
         <v>446</v>
       </c>
@@ -10225,8 +12339,14 @@
       <c r="M301">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:24">
+      <c r="Z301" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA301" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="302" spans="1:27">
       <c r="A302" t="s">
         <v>446</v>
       </c>
@@ -10245,8 +12365,14 @@
       <c r="F302">
         <v>5</v>
       </c>
-    </row>
-    <row r="303" spans="1:24">
+      <c r="Z302" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA302" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="303" spans="1:27">
       <c r="A303" t="s">
         <v>446</v>
       </c>
@@ -10274,8 +12400,14 @@
       <c r="X303" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="304" spans="1:24">
+      <c r="Z303" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA303" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="304" spans="1:27">
       <c r="A304" t="s">
         <v>446</v>
       </c>
@@ -10297,8 +12429,14 @@
       <c r="R304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:25">
+      <c r="Z304" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA304" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="305" spans="1:27">
       <c r="A305" t="s">
         <v>446</v>
       </c>
@@ -10326,8 +12464,14 @@
       <c r="Y305" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="306" spans="1:25">
+      <c r="Z305" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA305" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="306" spans="1:27">
       <c r="A306" t="s">
         <v>453</v>
       </c>
@@ -10352,8 +12496,14 @@
       <c r="Y306" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="307" spans="1:25">
+      <c r="Z306" t="s">
+        <v>727</v>
+      </c>
+      <c r="AA306" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="307" spans="1:27">
       <c r="A307" t="s">
         <v>453</v>
       </c>
@@ -10384,8 +12534,14 @@
       <c r="Y307" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="308" spans="1:25">
+      <c r="Z307" t="s">
+        <v>727</v>
+      </c>
+      <c r="AA307" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="308" spans="1:27">
       <c r="A308" t="s">
         <v>453</v>
       </c>
@@ -10419,8 +12575,14 @@
       <c r="Y308" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="309" spans="1:25">
+      <c r="Z308" t="s">
+        <v>727</v>
+      </c>
+      <c r="AA308" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="309" spans="1:27">
       <c r="A309" t="s">
         <v>453</v>
       </c>
@@ -10445,8 +12607,14 @@
       <c r="U309">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:25">
+      <c r="Z309" t="s">
+        <v>727</v>
+      </c>
+      <c r="AA309" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="310" spans="1:27">
       <c r="A310" t="s">
         <v>453</v>
       </c>
@@ -10474,8 +12642,14 @@
       <c r="Y310" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="311" spans="1:25">
+      <c r="Z310" t="s">
+        <v>727</v>
+      </c>
+      <c r="AA310" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="311" spans="1:27">
       <c r="A311" t="s">
         <v>453</v>
       </c>
@@ -10509,8 +12683,14 @@
       <c r="Y311" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="312" spans="1:25">
+      <c r="Z311" t="s">
+        <v>727</v>
+      </c>
+      <c r="AA311" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="312" spans="1:27">
       <c r="A312" t="s">
         <v>453</v>
       </c>
@@ -10538,8 +12718,14 @@
       <c r="Y312" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="313" spans="1:25">
+      <c r="Z312" t="s">
+        <v>727</v>
+      </c>
+      <c r="AA312" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="313" spans="1:27">
       <c r="A313" t="s">
         <v>453</v>
       </c>
@@ -10558,8 +12744,14 @@
       <c r="F313">
         <v>2</v>
       </c>
-    </row>
-    <row r="314" spans="1:25">
+      <c r="Z313" t="s">
+        <v>727</v>
+      </c>
+      <c r="AA313" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="314" spans="1:27">
       <c r="A314" t="s">
         <v>463</v>
       </c>
@@ -10578,8 +12770,14 @@
       <c r="F314">
         <v>7</v>
       </c>
-    </row>
-    <row r="315" spans="1:25">
+      <c r="Z314" t="s">
+        <v>727</v>
+      </c>
+      <c r="AA314" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="315" spans="1:27">
       <c r="A315" t="s">
         <v>463</v>
       </c>
@@ -10601,8 +12799,14 @@
       <c r="R315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:25">
+      <c r="Z315" t="s">
+        <v>727</v>
+      </c>
+      <c r="AA315" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="316" spans="1:27">
       <c r="A316" t="s">
         <v>463</v>
       </c>
@@ -10624,8 +12828,14 @@
       <c r="W316">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:25">
+      <c r="Z316" t="s">
+        <v>727</v>
+      </c>
+      <c r="AA316" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="317" spans="1:27">
       <c r="A317" t="s">
         <v>463</v>
       </c>
@@ -10650,8 +12860,14 @@
       <c r="T317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:25">
+      <c r="Z317" t="s">
+        <v>727</v>
+      </c>
+      <c r="AA317" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="318" spans="1:27">
       <c r="A318" t="s">
         <v>468</v>
       </c>
@@ -10679,8 +12895,14 @@
       <c r="X318" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="319" spans="1:25">
+      <c r="Z318" t="s">
+        <v>725</v>
+      </c>
+      <c r="AA318" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="319" spans="1:27">
       <c r="A319" t="s">
         <v>468</v>
       </c>
@@ -10705,8 +12927,14 @@
       <c r="X319" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="320" spans="1:25">
+      <c r="Z319" t="s">
+        <v>725</v>
+      </c>
+      <c r="AA319" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="320" spans="1:27">
       <c r="A320" t="s">
         <v>468</v>
       </c>
@@ -10731,8 +12959,14 @@
       <c r="X320" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="321" spans="1:25">
+      <c r="Z320" t="s">
+        <v>725</v>
+      </c>
+      <c r="AA320" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="321" spans="1:27">
       <c r="A321" t="s">
         <v>468</v>
       </c>
@@ -10760,8 +12994,14 @@
       <c r="X321" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="322" spans="1:25">
+      <c r="Z321" t="s">
+        <v>725</v>
+      </c>
+      <c r="AA321" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="322" spans="1:27">
       <c r="A322" t="s">
         <v>468</v>
       </c>
@@ -10786,8 +13026,14 @@
       <c r="X322" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="323" spans="1:25">
+      <c r="Z322" t="s">
+        <v>725</v>
+      </c>
+      <c r="AA322" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="323" spans="1:27">
       <c r="A323" t="s">
         <v>468</v>
       </c>
@@ -10812,8 +13058,14 @@
       <c r="K323">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:25">
+      <c r="Z323" t="s">
+        <v>725</v>
+      </c>
+      <c r="AA323" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="324" spans="1:27">
       <c r="A324" t="s">
         <v>477</v>
       </c>
@@ -10841,8 +13093,14 @@
       <c r="X324" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="325" spans="1:25">
+      <c r="Z324" t="s">
+        <v>725</v>
+      </c>
+      <c r="AA324" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="325" spans="1:27">
       <c r="A325" t="s">
         <v>477</v>
       </c>
@@ -10867,8 +13125,14 @@
       <c r="X325" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="326" spans="1:25">
+      <c r="Z325" t="s">
+        <v>725</v>
+      </c>
+      <c r="AA325" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="326" spans="1:27">
       <c r="A326" t="s">
         <v>477</v>
       </c>
@@ -10896,8 +13160,14 @@
       <c r="X326" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="327" spans="1:25">
+      <c r="Z326" t="s">
+        <v>725</v>
+      </c>
+      <c r="AA326" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="327" spans="1:27">
       <c r="A327" t="s">
         <v>477</v>
       </c>
@@ -10925,8 +13195,14 @@
       <c r="X327" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="328" spans="1:25">
+      <c r="Z327" t="s">
+        <v>725</v>
+      </c>
+      <c r="AA327" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="328" spans="1:27">
       <c r="A328" t="s">
         <v>477</v>
       </c>
@@ -10957,8 +13233,14 @@
       <c r="X328" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="329" spans="1:25">
+      <c r="Z328" t="s">
+        <v>725</v>
+      </c>
+      <c r="AA328" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="329" spans="1:27">
       <c r="A329" t="s">
         <v>477</v>
       </c>
@@ -10989,8 +13271,14 @@
       <c r="X329" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="330" spans="1:25">
+      <c r="Z329" t="s">
+        <v>725</v>
+      </c>
+      <c r="AA329" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="330" spans="1:27">
       <c r="A330" t="s">
         <v>477</v>
       </c>
@@ -11018,8 +13306,14 @@
       <c r="Y330" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="331" spans="1:25">
+      <c r="Z330" t="s">
+        <v>725</v>
+      </c>
+      <c r="AA330" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="331" spans="1:27">
       <c r="A331" t="s">
         <v>477</v>
       </c>
@@ -11044,8 +13338,14 @@
       <c r="X331" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="332" spans="1:25">
+      <c r="Z331" t="s">
+        <v>725</v>
+      </c>
+      <c r="AA331" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="332" spans="1:27">
       <c r="A332" t="s">
         <v>487</v>
       </c>
@@ -11070,8 +13370,14 @@
       <c r="X332" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="333" spans="1:25">
+      <c r="Z332" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA332" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="333" spans="1:27">
       <c r="A333" t="s">
         <v>487</v>
       </c>
@@ -11093,8 +13399,14 @@
       <c r="X333" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="334" spans="1:25">
+      <c r="Z333" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA333" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="334" spans="1:27">
       <c r="A334" t="s">
         <v>487</v>
       </c>
@@ -11116,8 +13428,14 @@
       <c r="H334">
         <v>2</v>
       </c>
-    </row>
-    <row r="335" spans="1:25">
+      <c r="Z334" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA334" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="335" spans="1:27">
       <c r="A335" t="s">
         <v>487</v>
       </c>
@@ -11139,8 +13457,14 @@
       <c r="M335">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:25">
+      <c r="Z335" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA335" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="336" spans="1:27">
       <c r="A336" t="s">
         <v>487</v>
       </c>
@@ -11168,8 +13492,14 @@
       <c r="X336" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="337" spans="1:24">
+      <c r="Z336" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA336" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="337" spans="1:27">
       <c r="A337" t="s">
         <v>487</v>
       </c>
@@ -11194,8 +13524,14 @@
       <c r="R337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:24">
+      <c r="Z337" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA337" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="338" spans="1:27">
       <c r="A338" t="s">
         <v>487</v>
       </c>
@@ -11220,8 +13556,14 @@
       <c r="R338">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:24">
+      <c r="Z338" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA338" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="339" spans="1:27">
       <c r="A339" t="s">
         <v>487</v>
       </c>
@@ -11246,8 +13588,14 @@
       <c r="X339" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="340" spans="1:24">
+      <c r="Z339" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA339" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="340" spans="1:27">
       <c r="A340" t="s">
         <v>498</v>
       </c>
@@ -11275,8 +13623,14 @@
       <c r="R340">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:24">
+      <c r="Z340" t="s">
+        <v>728</v>
+      </c>
+      <c r="AA340" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="341" spans="1:27">
       <c r="A341" t="s">
         <v>498</v>
       </c>
@@ -11301,8 +13655,14 @@
       <c r="M341">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:24">
+      <c r="Z341" t="s">
+        <v>728</v>
+      </c>
+      <c r="AA341" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="342" spans="1:27">
       <c r="A342" t="s">
         <v>498</v>
       </c>
@@ -11327,8 +13687,14 @@
       <c r="N342">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:24">
+      <c r="Z342" t="s">
+        <v>728</v>
+      </c>
+      <c r="AA342" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="343" spans="1:27">
       <c r="A343" t="s">
         <v>498</v>
       </c>
@@ -11356,8 +13722,14 @@
       <c r="Q343">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:24">
+      <c r="Z343" t="s">
+        <v>728</v>
+      </c>
+      <c r="AA343" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="344" spans="1:27">
       <c r="A344" t="s">
         <v>504</v>
       </c>
@@ -11382,8 +13754,14 @@
       <c r="N344">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:24">
+      <c r="Z344" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA344" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="345" spans="1:27">
       <c r="A345" t="s">
         <v>504</v>
       </c>
@@ -11405,8 +13783,14 @@
       <c r="K345">
         <v>2</v>
       </c>
-    </row>
-    <row r="346" spans="1:24">
+      <c r="Z345" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA345" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="346" spans="1:27">
       <c r="A346" t="s">
         <v>504</v>
       </c>
@@ -11434,8 +13818,14 @@
       <c r="Q346">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:24">
+      <c r="Z346" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA346" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="347" spans="1:27">
       <c r="A347" t="s">
         <v>504</v>
       </c>
@@ -11463,8 +13853,14 @@
       <c r="U347">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:24">
+      <c r="Z347" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA347" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="348" spans="1:27">
       <c r="A348" t="s">
         <v>504</v>
       </c>
@@ -11486,8 +13882,14 @@
       <c r="K348">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:24">
+      <c r="Z348" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA348" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="349" spans="1:27">
       <c r="A349" t="s">
         <v>504</v>
       </c>
@@ -11512,8 +13914,14 @@
       <c r="R349">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:24">
+      <c r="Z349" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA349" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="350" spans="1:27">
       <c r="A350" t="s">
         <v>504</v>
       </c>
@@ -11538,8 +13946,14 @@
       <c r="R350">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="1:24">
+      <c r="Z350" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA350" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="351" spans="1:27">
       <c r="A351" t="s">
         <v>504</v>
       </c>
@@ -11564,8 +13978,14 @@
       <c r="R351">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:24">
+      <c r="Z351" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA351" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="352" spans="1:27">
       <c r="A352" t="s">
         <v>513</v>
       </c>
@@ -11584,8 +14004,14 @@
       <c r="F352">
         <v>2</v>
       </c>
-    </row>
-    <row r="353" spans="1:25">
+      <c r="Z352" t="s">
+        <v>728</v>
+      </c>
+      <c r="AA352" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="353" spans="1:27">
       <c r="A353" t="s">
         <v>513</v>
       </c>
@@ -11604,8 +14030,14 @@
       <c r="F353">
         <v>3</v>
       </c>
-    </row>
-    <row r="354" spans="1:25">
+      <c r="Z353" t="s">
+        <v>728</v>
+      </c>
+      <c r="AA353" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="354" spans="1:27">
       <c r="A354" t="s">
         <v>513</v>
       </c>
@@ -11627,8 +14059,14 @@
       <c r="R354">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:25">
+      <c r="Z354" t="s">
+        <v>728</v>
+      </c>
+      <c r="AA354" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="355" spans="1:27">
       <c r="A355" t="s">
         <v>513</v>
       </c>
@@ -11653,8 +14091,14 @@
       <c r="U355">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:25">
+      <c r="Z355" t="s">
+        <v>728</v>
+      </c>
+      <c r="AA355" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="356" spans="1:27">
       <c r="A356" t="s">
         <v>518</v>
       </c>
@@ -11682,8 +14126,14 @@
       <c r="X356" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="357" spans="1:25">
+      <c r="Z356" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA356" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="357" spans="1:27">
       <c r="A357" t="s">
         <v>518</v>
       </c>
@@ -11714,8 +14164,14 @@
       <c r="X357" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="358" spans="1:25">
+      <c r="Z357" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA357" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="358" spans="1:27">
       <c r="A358" t="s">
         <v>518</v>
       </c>
@@ -11737,8 +14193,14 @@
       <c r="X358" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="359" spans="1:25">
+      <c r="Z358" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA358" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="359" spans="1:27">
       <c r="A359" t="s">
         <v>518</v>
       </c>
@@ -11769,8 +14231,14 @@
       <c r="X359" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="360" spans="1:25">
+      <c r="Z359" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA359" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="360" spans="1:27">
       <c r="A360" t="s">
         <v>518</v>
       </c>
@@ -11798,8 +14266,14 @@
       <c r="Y360" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="361" spans="1:25">
+      <c r="Z360" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA360" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="361" spans="1:27">
       <c r="A361" t="s">
         <v>527</v>
       </c>
@@ -11824,8 +14298,14 @@
       <c r="X361" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="362" spans="1:25">
+      <c r="Z361" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA361" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="362" spans="1:27">
       <c r="A362" t="s">
         <v>527</v>
       </c>
@@ -11850,8 +14330,14 @@
       <c r="Y362" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="363" spans="1:25">
+      <c r="Z362" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA362" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="363" spans="1:27">
       <c r="A363" t="s">
         <v>527</v>
       </c>
@@ -11879,8 +14365,14 @@
       <c r="X363" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="364" spans="1:25">
+      <c r="Z363" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA363" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="364" spans="1:27">
       <c r="A364" t="s">
         <v>527</v>
       </c>
@@ -11905,8 +14397,14 @@
       <c r="Y364" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="365" spans="1:25">
+      <c r="Z364" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA364" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="365" spans="1:27">
       <c r="A365" t="s">
         <v>527</v>
       </c>
@@ -11934,8 +14432,14 @@
       <c r="X365" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="366" spans="1:25">
+      <c r="Z365" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA365" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="366" spans="1:27">
       <c r="A366" t="s">
         <v>527</v>
       </c>
@@ -11960,8 +14464,14 @@
       <c r="Y366" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="367" spans="1:25">
+      <c r="Z366" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA366" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="367" spans="1:27">
       <c r="A367" t="s">
         <v>527</v>
       </c>
@@ -11992,8 +14502,14 @@
       <c r="X367" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="368" spans="1:25">
+      <c r="Z367" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA367" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="368" spans="1:27">
       <c r="A368" t="s">
         <v>527</v>
       </c>
@@ -12021,8 +14537,14 @@
       <c r="Y368" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="369" spans="1:25">
+      <c r="Z368" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA368" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="369" spans="1:27">
       <c r="A369" t="s">
         <v>537</v>
       </c>
@@ -12047,8 +14569,14 @@
       <c r="N369">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:25">
+      <c r="Z369" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA369" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="370" spans="1:27">
       <c r="A370" t="s">
         <v>537</v>
       </c>
@@ -12076,8 +14604,14 @@
       <c r="N370">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:25">
+      <c r="Z370" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA370" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="371" spans="1:27">
       <c r="A371" t="s">
         <v>537</v>
       </c>
@@ -12102,8 +14636,14 @@
       <c r="W371">
         <v>1</v>
       </c>
-    </row>
-    <row r="372" spans="1:25">
+      <c r="Z371" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA371" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="372" spans="1:27">
       <c r="A372" t="s">
         <v>537</v>
       </c>
@@ -12134,8 +14674,14 @@
       <c r="Q372">
         <v>1</v>
       </c>
-    </row>
-    <row r="373" spans="1:25">
+      <c r="Z372" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA372" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="373" spans="1:27">
       <c r="A373" t="s">
         <v>537</v>
       </c>
@@ -12160,8 +14706,14 @@
       <c r="Y373" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="374" spans="1:25">
+      <c r="Z373" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA373" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="374" spans="1:27">
       <c r="A374" t="s">
         <v>543</v>
       </c>
@@ -12186,8 +14738,14 @@
       <c r="X374" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="375" spans="1:25">
+      <c r="Z374" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA374" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="375" spans="1:27">
       <c r="A375" t="s">
         <v>543</v>
       </c>
@@ -12218,8 +14776,14 @@
       <c r="X375" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="376" spans="1:25">
+      <c r="Z375" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA375" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="376" spans="1:27">
       <c r="A376" t="s">
         <v>543</v>
       </c>
@@ -12241,8 +14805,14 @@
       <c r="X376" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="377" spans="1:25">
+      <c r="Z376" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA376" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="377" spans="1:27">
       <c r="A377" t="s">
         <v>543</v>
       </c>
@@ -12267,8 +14837,14 @@
       <c r="X377" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="378" spans="1:25">
+      <c r="Z377" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA377" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="378" spans="1:27">
       <c r="A378" t="s">
         <v>543</v>
       </c>
@@ -12302,8 +14878,14 @@
       <c r="X378" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="379" spans="1:25">
+      <c r="Z378" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA378" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="379" spans="1:27">
       <c r="A379" t="s">
         <v>543</v>
       </c>
@@ -12328,8 +14910,14 @@
       <c r="X379" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="380" spans="1:25">
+      <c r="Z379" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA379" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="380" spans="1:27">
       <c r="A380" t="s">
         <v>543</v>
       </c>
@@ -12360,8 +14948,14 @@
       <c r="W380">
         <v>1</v>
       </c>
-    </row>
-    <row r="381" spans="1:25">
+      <c r="Z380" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA380" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="381" spans="1:27">
       <c r="A381" t="s">
         <v>543</v>
       </c>
@@ -12383,8 +14977,14 @@
       <c r="T381">
         <v>1</v>
       </c>
-    </row>
-    <row r="382" spans="1:25">
+      <c r="Z381" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA381" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="382" spans="1:27">
       <c r="A382" t="s">
         <v>553</v>
       </c>
@@ -12412,8 +15012,14 @@
       <c r="Y382" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="383" spans="1:25">
+      <c r="Z382" t="s">
+        <v>708</v>
+      </c>
+      <c r="AA382" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="383" spans="1:27">
       <c r="A383" t="s">
         <v>553</v>
       </c>
@@ -12441,8 +15047,14 @@
       <c r="Y383" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="384" spans="1:25">
+      <c r="Z383" t="s">
+        <v>708</v>
+      </c>
+      <c r="AA383" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="384" spans="1:27">
       <c r="A384" t="s">
         <v>553</v>
       </c>
@@ -12467,8 +15079,14 @@
       <c r="Y384" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="385" spans="1:25">
+      <c r="Z384" t="s">
+        <v>708</v>
+      </c>
+      <c r="AA384" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="385" spans="1:27">
       <c r="A385" t="s">
         <v>553</v>
       </c>
@@ -12493,8 +15111,14 @@
       <c r="Y385" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="386" spans="1:25">
+      <c r="Z385" t="s">
+        <v>708</v>
+      </c>
+      <c r="AA385" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="386" spans="1:27">
       <c r="A386" t="s">
         <v>602</v>
       </c>
@@ -12522,8 +15146,14 @@
       <c r="Y386" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="387" spans="1:25">
+      <c r="Z386" t="s">
+        <v>714</v>
+      </c>
+      <c r="AA386" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="387" spans="1:27">
       <c r="A387" t="s">
         <v>602</v>
       </c>
@@ -12548,8 +15178,14 @@
       <c r="Y387" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="388" spans="1:25">
+      <c r="Z387" t="s">
+        <v>714</v>
+      </c>
+      <c r="AA387" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="388" spans="1:27">
       <c r="A388" t="s">
         <v>602</v>
       </c>
@@ -12574,8 +15210,14 @@
       <c r="Y388" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="389" spans="1:25">
+      <c r="Z388" t="s">
+        <v>714</v>
+      </c>
+      <c r="AA388" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="389" spans="1:27">
       <c r="A389" t="s">
         <v>602</v>
       </c>
@@ -12603,8 +15245,14 @@
       <c r="Q389">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:25">
+      <c r="Z389" t="s">
+        <v>714</v>
+      </c>
+      <c r="AA389" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="390" spans="1:27">
       <c r="A390" t="s">
         <v>564</v>
       </c>
@@ -12626,8 +15274,14 @@
       <c r="R390">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:25">
+      <c r="Z390" t="s">
+        <v>699</v>
+      </c>
+      <c r="AA390" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="391" spans="1:27">
       <c r="A391" t="s">
         <v>564</v>
       </c>
@@ -12646,8 +15300,14 @@
       <c r="F391">
         <v>5</v>
       </c>
-    </row>
-    <row r="392" spans="1:25">
+      <c r="Z391" t="s">
+        <v>699</v>
+      </c>
+      <c r="AA391" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="392" spans="1:27">
       <c r="A392" t="s">
         <v>564</v>
       </c>
@@ -12672,8 +15332,14 @@
       <c r="N392">
         <v>1</v>
       </c>
-    </row>
-    <row r="393" spans="1:25">
+      <c r="Z392" t="s">
+        <v>699</v>
+      </c>
+      <c r="AA392" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="393" spans="1:27">
       <c r="A393" t="s">
         <v>564</v>
       </c>
@@ -12698,8 +15364,14 @@
       <c r="Q393">
         <v>1</v>
       </c>
-    </row>
-    <row r="394" spans="1:25">
+      <c r="Z393" t="s">
+        <v>699</v>
+      </c>
+      <c r="AA393" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="394" spans="1:27">
       <c r="A394" t="s">
         <v>564</v>
       </c>
@@ -12721,8 +15393,14 @@
       <c r="Y394" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="395" spans="1:25">
+      <c r="Z394" t="s">
+        <v>699</v>
+      </c>
+      <c r="AA394" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="395" spans="1:27">
       <c r="A395" t="s">
         <v>564</v>
       </c>
@@ -12744,8 +15422,14 @@
       <c r="Y395" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="396" spans="1:25">
+      <c r="Z395" t="s">
+        <v>699</v>
+      </c>
+      <c r="AA395" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="396" spans="1:27">
       <c r="A396" t="s">
         <v>573</v>
       </c>
@@ -12770,8 +15454,14 @@
       <c r="W396">
         <v>-1</v>
       </c>
-    </row>
-    <row r="397" spans="1:25">
+      <c r="Z396" t="s">
+        <v>699</v>
+      </c>
+      <c r="AA396" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="397" spans="1:27">
       <c r="A397" t="s">
         <v>573</v>
       </c>
@@ -12799,8 +15489,14 @@
       <c r="W397">
         <v>-1</v>
       </c>
-    </row>
-    <row r="398" spans="1:25">
+      <c r="Z397" t="s">
+        <v>699</v>
+      </c>
+      <c r="AA397" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="398" spans="1:27">
       <c r="A398" t="s">
         <v>573</v>
       </c>
@@ -12825,8 +15521,14 @@
       <c r="Y398" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="399" spans="1:25">
+      <c r="Z398" t="s">
+        <v>699</v>
+      </c>
+      <c r="AA398" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="399" spans="1:27">
       <c r="A399" t="s">
         <v>573</v>
       </c>
@@ -12848,8 +15550,14 @@
       <c r="W399">
         <v>-1</v>
       </c>
-    </row>
-    <row r="400" spans="1:25">
+      <c r="Z399" t="s">
+        <v>699</v>
+      </c>
+      <c r="AA399" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="400" spans="1:27">
       <c r="A400" t="s">
         <v>573</v>
       </c>
@@ -12871,8 +15579,14 @@
       <c r="Y400" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="401" spans="1:25">
+      <c r="Z400" t="s">
+        <v>699</v>
+      </c>
+      <c r="AA400" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="401" spans="1:27">
       <c r="A401" t="s">
         <v>573</v>
       </c>
@@ -12900,8 +15614,14 @@
       <c r="Y401" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="402" spans="1:25">
+      <c r="Z401" t="s">
+        <v>699</v>
+      </c>
+      <c r="AA401" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="402" spans="1:27">
       <c r="A402" t="s">
         <v>580</v>
       </c>
@@ -12923,8 +15643,14 @@
       <c r="R402">
         <v>1</v>
       </c>
-    </row>
-    <row r="403" spans="1:25">
+      <c r="Z402" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA402" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="403" spans="1:27">
       <c r="A403" t="s">
         <v>580</v>
       </c>
@@ -12946,8 +15672,14 @@
       <c r="R403">
         <v>1</v>
       </c>
-    </row>
-    <row r="404" spans="1:25">
+      <c r="Z403" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA403" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="404" spans="1:27">
       <c r="A404" t="s">
         <v>580</v>
       </c>
@@ -12978,8 +15710,14 @@
       <c r="Q404">
         <v>2</v>
       </c>
-    </row>
-    <row r="405" spans="1:25">
+      <c r="Z404" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA404" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="405" spans="1:27">
       <c r="A405" t="s">
         <v>580</v>
       </c>
@@ -13004,8 +15742,14 @@
       <c r="Q405">
         <v>1</v>
       </c>
-    </row>
-    <row r="406" spans="1:25">
+      <c r="Z405" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA405" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="406" spans="1:27">
       <c r="A406" t="s">
         <v>580</v>
       </c>
@@ -13036,8 +15780,14 @@
       <c r="Q406">
         <v>1</v>
       </c>
-    </row>
-    <row r="407" spans="1:25">
+      <c r="Z406" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA406" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="407" spans="1:27">
       <c r="A407" t="s">
         <v>580</v>
       </c>
@@ -13062,8 +15812,14 @@
       <c r="N407">
         <v>1</v>
       </c>
-    </row>
-    <row r="408" spans="1:25">
+      <c r="Z407" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA407" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="408" spans="1:27">
       <c r="A408" t="s">
         <v>588</v>
       </c>
@@ -13088,8 +15844,14 @@
       <c r="U408">
         <v>1</v>
       </c>
-    </row>
-    <row r="409" spans="1:25">
+      <c r="Z408" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA408" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="409" spans="1:27">
       <c r="A409" t="s">
         <v>588</v>
       </c>
@@ -13114,8 +15876,14 @@
       <c r="N409">
         <v>1</v>
       </c>
-    </row>
-    <row r="410" spans="1:25">
+      <c r="Z409" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA409" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="410" spans="1:27">
       <c r="A410" t="s">
         <v>588</v>
       </c>
@@ -13137,8 +15905,14 @@
       <c r="R410">
         <v>1</v>
       </c>
-    </row>
-    <row r="411" spans="1:25">
+      <c r="Z410" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA410" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="411" spans="1:27">
       <c r="A411" t="s">
         <v>588</v>
       </c>
@@ -13163,8 +15937,14 @@
       <c r="N411">
         <v>1</v>
       </c>
-    </row>
-    <row r="412" spans="1:25">
+      <c r="Z411" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA411" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="412" spans="1:27">
       <c r="A412" t="s">
         <v>588</v>
       </c>
@@ -13195,8 +15975,14 @@
       <c r="Q412">
         <v>1</v>
       </c>
-    </row>
-    <row r="413" spans="1:25">
+      <c r="Z412" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA412" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="413" spans="1:27">
       <c r="A413" t="s">
         <v>603</v>
       </c>
@@ -13221,8 +16007,14 @@
       <c r="R413">
         <v>1</v>
       </c>
-    </row>
-    <row r="414" spans="1:25">
+      <c r="Z413" t="s">
+        <v>724</v>
+      </c>
+      <c r="AA413" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="414" spans="1:27">
       <c r="A414" t="s">
         <v>603</v>
       </c>
@@ -13253,8 +16045,14 @@
       <c r="R414">
         <v>2</v>
       </c>
-    </row>
-    <row r="415" spans="1:25">
+      <c r="Z414" t="s">
+        <v>724</v>
+      </c>
+      <c r="AA414" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="415" spans="1:27">
       <c r="A415" t="s">
         <v>603</v>
       </c>
@@ -13285,8 +16083,14 @@
       <c r="R415">
         <v>1</v>
       </c>
-    </row>
-    <row r="416" spans="1:25">
+      <c r="Z415" t="s">
+        <v>724</v>
+      </c>
+      <c r="AA415" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="416" spans="1:27">
       <c r="A416" t="s">
         <v>603</v>
       </c>
@@ -13308,8 +16112,14 @@
       <c r="H416">
         <v>1</v>
       </c>
-    </row>
-    <row r="417" spans="1:25">
+      <c r="Z416" t="s">
+        <v>724</v>
+      </c>
+      <c r="AA416" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="417" spans="1:27">
       <c r="A417" t="s">
         <v>609</v>
       </c>
@@ -13337,8 +16147,14 @@
       <c r="Y417" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="418" spans="1:25">
+      <c r="Z417" t="s">
+        <v>724</v>
+      </c>
+      <c r="AA417" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="418" spans="1:27">
       <c r="A418" t="s">
         <v>609</v>
       </c>
@@ -13369,8 +16185,14 @@
       <c r="Y418" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="419" spans="1:25">
+      <c r="Z418" t="s">
+        <v>724</v>
+      </c>
+      <c r="AA418" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="419" spans="1:27">
       <c r="A419" t="s">
         <v>609</v>
       </c>
@@ -13395,8 +16217,14 @@
       <c r="N419">
         <v>1</v>
       </c>
-    </row>
-    <row r="420" spans="1:25">
+      <c r="Z419" t="s">
+        <v>724</v>
+      </c>
+      <c r="AA419" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="420" spans="1:27">
       <c r="A420" t="s">
         <v>609</v>
       </c>
@@ -13430,8 +16258,14 @@
       <c r="Y420" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="421" spans="1:25">
+      <c r="Z420" t="s">
+        <v>724</v>
+      </c>
+      <c r="AA420" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="421" spans="1:27">
       <c r="A421" t="s">
         <v>615</v>
       </c>
@@ -13465,8 +16299,14 @@
       <c r="Y421" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="422" spans="1:25">
+      <c r="Z421" t="s">
+        <v>726</v>
+      </c>
+      <c r="AA421" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="422" spans="1:27">
       <c r="A422" t="s">
         <v>615</v>
       </c>
@@ -13497,8 +16337,14 @@
       <c r="Y422" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="423" spans="1:25">
+      <c r="Z422" t="s">
+        <v>726</v>
+      </c>
+      <c r="AA422" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="423" spans="1:27">
       <c r="A423" t="s">
         <v>615</v>
       </c>
@@ -13529,8 +16375,14 @@
       <c r="Y423" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="424" spans="1:25">
+      <c r="Z423" t="s">
+        <v>726</v>
+      </c>
+      <c r="AA423" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="424" spans="1:27">
       <c r="A424" t="s">
         <v>615</v>
       </c>
@@ -13561,8 +16413,14 @@
       <c r="Y424" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="425" spans="1:25">
+      <c r="Z424" t="s">
+        <v>726</v>
+      </c>
+      <c r="AA424" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="425" spans="1:27">
       <c r="A425" t="s">
         <v>615</v>
       </c>
@@ -13593,8 +16451,14 @@
       <c r="Y425" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="426" spans="1:25">
+      <c r="Z425" t="s">
+        <v>726</v>
+      </c>
+      <c r="AA425" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="426" spans="1:27">
       <c r="A426" t="s">
         <v>622</v>
       </c>
@@ -13619,8 +16483,14 @@
       <c r="R426">
         <v>1</v>
       </c>
-    </row>
-    <row r="427" spans="1:25">
+      <c r="Z426" t="s">
+        <v>724</v>
+      </c>
+      <c r="AA426" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="427" spans="1:27">
       <c r="A427" t="s">
         <v>622</v>
       </c>
@@ -13642,8 +16512,14 @@
       <c r="N427">
         <v>1</v>
       </c>
-    </row>
-    <row r="428" spans="1:25">
+      <c r="Z427" t="s">
+        <v>724</v>
+      </c>
+      <c r="AA427" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="428" spans="1:27">
       <c r="A428" t="s">
         <v>622</v>
       </c>
@@ -13668,8 +16544,14 @@
       <c r="R428">
         <v>1</v>
       </c>
-    </row>
-    <row r="429" spans="1:25">
+      <c r="Z428" t="s">
+        <v>724</v>
+      </c>
+      <c r="AA428" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="429" spans="1:27">
       <c r="A429" t="s">
         <v>622</v>
       </c>
@@ -13691,8 +16573,14 @@
       <c r="N429">
         <v>1</v>
       </c>
-    </row>
-    <row r="430" spans="1:25">
+      <c r="Z429" t="s">
+        <v>724</v>
+      </c>
+      <c r="AA429" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="430" spans="1:27">
       <c r="A430" t="s">
         <v>622</v>
       </c>
@@ -13719,6 +16607,12 @@
       </c>
       <c r="N430">
         <v>1</v>
+      </c>
+      <c r="Z430" t="s">
+        <v>724</v>
+      </c>
+      <c r="AA430" t="s">
+        <v>642</v>
       </c>
     </row>
   </sheetData>

--- a/data/villains.xlsx
+++ b/data/villains.xlsx
@@ -2555,10 +2555,10 @@
   <dimension ref="A1:AA430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Y392" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI421" sqref="AI421"/>
+      <selection pane="bottomRight" activeCell="AA120" sqref="AA120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6293,7 +6293,7 @@
         <v>698</v>
       </c>
       <c r="AA114" t="s">
-        <v>683</v>
+        <v>722</v>
       </c>
     </row>
     <row r="115" spans="1:27">
@@ -6357,7 +6357,7 @@
         <v>698</v>
       </c>
       <c r="AA116" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
     </row>
     <row r="117" spans="1:27">
@@ -6453,7 +6453,7 @@
         <v>698</v>
       </c>
       <c r="AA119" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
     </row>
     <row r="120" spans="1:27">

--- a/data/villains.xlsx
+++ b/data/villains.xlsx
@@ -2105,9 +2105,6 @@
     <t>4 4</t>
   </si>
   <si>
-    <t>fearitself,png</t>
-  </si>
-  <si>
     <t>ff,jpg</t>
   </si>
   <si>
@@ -2211,6 +2208,9 @@
   </si>
   <si>
     <t>hulk3,jpg</t>
+  </si>
+  <si>
+    <t>fearitself,jpg</t>
   </si>
 </sst>
 </file>
@@ -2697,7 +2697,7 @@
         <v>23</v>
       </c>
       <c r="Z2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AA2" t="s">
         <v>684</v>
@@ -2726,7 +2726,7 @@
         <v>39</v>
       </c>
       <c r="Z3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AA3" t="s">
         <v>681</v>
@@ -2755,7 +2755,7 @@
         <v>23</v>
       </c>
       <c r="Z4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AA4" t="s">
         <v>683</v>
@@ -2787,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="Z5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AA5" t="s">
         <v>682</v>
@@ -2816,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="Z6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AA6" t="s">
         <v>645</v>
@@ -2848,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="Z7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AA7" t="s">
         <v>642</v>
@@ -2880,7 +2880,7 @@
         <v>2</v>
       </c>
       <c r="Z8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AA8" t="s">
         <v>644</v>
@@ -2909,7 +2909,7 @@
         <v>53</v>
       </c>
       <c r="Z9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AA9" t="s">
         <v>643</v>
@@ -2941,7 +2941,7 @@
         <v>57</v>
       </c>
       <c r="Z10" t="s">
-        <v>696</v>
+        <v>731</v>
       </c>
       <c r="AA10" t="s">
         <v>695</v>
@@ -2976,7 +2976,7 @@
         <v>59</v>
       </c>
       <c r="Z11" t="s">
-        <v>696</v>
+        <v>731</v>
       </c>
       <c r="AA11" t="s">
         <v>667</v>
@@ -3008,7 +3008,7 @@
         <v>57</v>
       </c>
       <c r="Z12" t="s">
-        <v>696</v>
+        <v>731</v>
       </c>
       <c r="AA12" t="s">
         <v>653</v>
@@ -3043,7 +3043,7 @@
         <v>57</v>
       </c>
       <c r="Z13" t="s">
-        <v>696</v>
+        <v>731</v>
       </c>
       <c r="AA13" t="s">
         <v>656</v>
@@ -3072,7 +3072,7 @@
         <v>57</v>
       </c>
       <c r="Z14" t="s">
-        <v>696</v>
+        <v>731</v>
       </c>
       <c r="AA14" t="s">
         <v>654</v>
@@ -3101,7 +3101,7 @@
         <v>57</v>
       </c>
       <c r="Z15" t="s">
-        <v>696</v>
+        <v>731</v>
       </c>
       <c r="AA15" t="s">
         <v>655</v>
@@ -3136,7 +3136,7 @@
         <v>59</v>
       </c>
       <c r="Z16" t="s">
-        <v>696</v>
+        <v>731</v>
       </c>
       <c r="AA16" t="s">
         <v>666</v>
@@ -3165,7 +3165,7 @@
         <v>59</v>
       </c>
       <c r="Z17" t="s">
-        <v>696</v>
+        <v>731</v>
       </c>
       <c r="AA17" t="s">
         <v>694</v>
@@ -3197,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="Z18" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AA18" t="s">
         <v>640</v>
@@ -3226,7 +3226,7 @@
         <v>67</v>
       </c>
       <c r="Z19" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AA19" t="s">
         <v>638</v>
@@ -3252,7 +3252,7 @@
         <v>4</v>
       </c>
       <c r="Z20" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AA20" t="s">
         <v>639</v>
@@ -3281,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="Z21" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AA21" t="s">
         <v>641</v>
@@ -3310,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="Z22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AA22" t="s">
         <v>644</v>
@@ -3342,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="Z23" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AA23" t="s">
         <v>645</v>
@@ -3368,7 +3368,7 @@
         <v>4</v>
       </c>
       <c r="Z24" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AA24" t="s">
         <v>643</v>
@@ -3400,10 +3400,10 @@
         <v>1</v>
       </c>
       <c r="Z25" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AA25" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -3435,7 +3435,7 @@
         <v>23</v>
       </c>
       <c r="Z26" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AA26" t="s">
         <v>647</v>
@@ -3461,7 +3461,7 @@
         <v>5</v>
       </c>
       <c r="Z27" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AA27" t="s">
         <v>679</v>
@@ -3490,7 +3490,7 @@
         <v>23</v>
       </c>
       <c r="Z28" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AA28" t="s">
         <v>646</v>
@@ -3525,7 +3525,7 @@
         <v>23</v>
       </c>
       <c r="Z29" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AA29" t="s">
         <v>680</v>
@@ -3557,7 +3557,7 @@
         <v>23</v>
       </c>
       <c r="Z30" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AA30" t="s">
         <v>664</v>
@@ -3586,7 +3586,7 @@
         <v>23</v>
       </c>
       <c r="Z31" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AA31" t="s">
         <v>660</v>
@@ -3618,7 +3618,7 @@
         <v>23</v>
       </c>
       <c r="Z32" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AA32" t="s">
         <v>663</v>
@@ -3653,7 +3653,7 @@
         <v>23</v>
       </c>
       <c r="Z33" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AA33" t="s">
         <v>661</v>
@@ -3685,7 +3685,7 @@
         <v>23</v>
       </c>
       <c r="Z34" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AA34" t="s">
         <v>662</v>
@@ -3714,10 +3714,10 @@
         <v>87</v>
       </c>
       <c r="Z35" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AA35" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -3743,10 +3743,10 @@
         <v>89</v>
       </c>
       <c r="Z36" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AA36" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -3781,10 +3781,10 @@
         <v>1</v>
       </c>
       <c r="Z37" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AA37" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -3819,10 +3819,10 @@
         <v>92</v>
       </c>
       <c r="Z38" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AA38" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -3848,7 +3848,7 @@
         <v>1</v>
       </c>
       <c r="Z39" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AA39" t="s">
         <v>671</v>
@@ -3880,10 +3880,10 @@
         <v>2</v>
       </c>
       <c r="Z40" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AA40" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="41" spans="1:27">
@@ -4171,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="Z49" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA49" t="s">
         <v>677</v>
@@ -4203,7 +4203,7 @@
         <v>113</v>
       </c>
       <c r="Z50" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA50" t="s">
         <v>678</v>
@@ -4235,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="Z51" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA51" t="s">
         <v>676</v>
@@ -4267,10 +4267,10 @@
         <v>113</v>
       </c>
       <c r="Z52" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA52" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="53" spans="1:27">
@@ -4299,10 +4299,10 @@
         <v>118</v>
       </c>
       <c r="Z53" t="s">
+        <v>719</v>
+      </c>
+      <c r="AA53" t="s">
         <v>720</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="54" spans="1:27">
@@ -4462,7 +4462,7 @@
         <v>1</v>
       </c>
       <c r="Z58" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA58" t="s">
         <v>656</v>
@@ -4491,7 +4491,7 @@
         <v>2</v>
       </c>
       <c r="Z59" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA59" t="s">
         <v>694</v>
@@ -4526,7 +4526,7 @@
         <v>135</v>
       </c>
       <c r="Z60" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA60" t="s">
         <v>695</v>
@@ -4564,7 +4564,7 @@
         <v>137</v>
       </c>
       <c r="Z61" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA61" t="s">
         <v>693</v>
@@ -4590,7 +4590,7 @@
         <v>5</v>
       </c>
       <c r="Z62" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA62" t="s">
         <v>671</v>
@@ -4619,10 +4619,10 @@
         <v>1</v>
       </c>
       <c r="Z63" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA63" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="64" spans="1:27">
@@ -4651,10 +4651,10 @@
         <v>1</v>
       </c>
       <c r="Z64" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA64" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="65" spans="1:27">
@@ -4689,10 +4689,10 @@
         <v>1</v>
       </c>
       <c r="Z65" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA65" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="66" spans="1:27">
@@ -5233,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="Z82" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AA82" t="s">
         <v>693</v>
@@ -5274,7 +5274,7 @@
         <v>1</v>
       </c>
       <c r="Z83" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AA83" t="s">
         <v>692</v>
@@ -5306,10 +5306,10 @@
         <v>1</v>
       </c>
       <c r="Z84" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA84" t="s">
         <v>706</v>
-      </c>
-      <c r="AA84" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="85" spans="1:27">
@@ -5341,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="Z85" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AA85" t="s">
         <v>674</v>
@@ -5376,7 +5376,7 @@
         <v>1</v>
       </c>
       <c r="Z86" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AA86" t="s">
         <v>673</v>
@@ -5408,7 +5408,7 @@
         <v>1</v>
       </c>
       <c r="Z87" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AA87" t="s">
         <v>694</v>
@@ -5574,10 +5574,10 @@
         <v>1</v>
       </c>
       <c r="Z92" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA92" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="93" spans="1:27">
@@ -5603,10 +5603,10 @@
         <v>1</v>
       </c>
       <c r="Z93" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA93" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="94" spans="1:27">
@@ -5635,7 +5635,7 @@
         <v>1</v>
       </c>
       <c r="Z94" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA94" t="s">
         <v>668</v>
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="Z95" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA95" t="s">
         <v>667</v>
@@ -5708,7 +5708,7 @@
         <v>1</v>
       </c>
       <c r="Z96" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA96" t="s">
         <v>669</v>
@@ -5740,7 +5740,7 @@
         <v>1</v>
       </c>
       <c r="Z97" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA97" t="s">
         <v>657</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="Z98" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA98" t="s">
         <v>684</v>
@@ -5807,7 +5807,7 @@
         <v>2</v>
       </c>
       <c r="Z99" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA99" t="s">
         <v>658</v>
@@ -5839,7 +5839,7 @@
         <v>1</v>
       </c>
       <c r="Z100" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA100" t="s">
         <v>685</v>
@@ -5868,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="Z101" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA101" t="s">
         <v>683</v>
@@ -5900,7 +5900,7 @@
         <v>195</v>
       </c>
       <c r="Z102" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AA102" t="s">
         <v>642</v>
@@ -5938,7 +5938,7 @@
         <v>195</v>
       </c>
       <c r="Z103" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AA103" t="s">
         <v>638</v>
@@ -5976,7 +5976,7 @@
         <v>195</v>
       </c>
       <c r="Z104" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AA104" t="s">
         <v>640</v>
@@ -6011,7 +6011,7 @@
         <v>195</v>
       </c>
       <c r="Z105" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AA105" t="s">
         <v>641</v>
@@ -6290,10 +6290,10 @@
         <v>213</v>
       </c>
       <c r="Z114" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AA114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="115" spans="1:27">
@@ -6322,7 +6322,7 @@
         <v>215</v>
       </c>
       <c r="Z115" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AA115" t="s">
         <v>659</v>
@@ -6354,7 +6354,7 @@
         <v>213</v>
       </c>
       <c r="Z116" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AA116" t="s">
         <v>677</v>
@@ -6389,7 +6389,7 @@
         <v>213</v>
       </c>
       <c r="Z117" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AA117" t="s">
         <v>651</v>
@@ -6421,7 +6421,7 @@
         <v>213</v>
       </c>
       <c r="Z118" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AA118" t="s">
         <v>652</v>
@@ -6450,7 +6450,7 @@
         <v>213</v>
       </c>
       <c r="Z119" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AA119" t="s">
         <v>676</v>
@@ -6482,7 +6482,7 @@
         <v>210</v>
       </c>
       <c r="Z120" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AA120" t="s">
         <v>643</v>
@@ -6514,7 +6514,7 @@
         <v>210</v>
       </c>
       <c r="Z121" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AA121" t="s">
         <v>638</v>
@@ -6549,7 +6549,7 @@
         <v>210</v>
       </c>
       <c r="Z122" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AA122" t="s">
         <v>641</v>
@@ -6581,7 +6581,7 @@
         <v>210</v>
       </c>
       <c r="Z123" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AA123" t="s">
         <v>640</v>
@@ -6613,7 +6613,7 @@
         <v>210</v>
       </c>
       <c r="Z124" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AA124" t="s">
         <v>639</v>
@@ -6642,7 +6642,7 @@
         <v>210</v>
       </c>
       <c r="Z125" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AA125" t="s">
         <v>644</v>
@@ -6677,7 +6677,7 @@
         <v>1</v>
       </c>
       <c r="Z126" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AA126" t="s">
         <v>642</v>
@@ -6709,7 +6709,7 @@
         <v>229</v>
       </c>
       <c r="Z127" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA127" t="s">
         <v>654</v>
@@ -6741,7 +6741,7 @@
         <v>231</v>
       </c>
       <c r="Z128" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA128" t="s">
         <v>655</v>
@@ -6770,7 +6770,7 @@
         <v>233</v>
       </c>
       <c r="Z129" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA129" t="s">
         <v>666</v>
@@ -6802,7 +6802,7 @@
         <v>235</v>
       </c>
       <c r="Z130" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA130" t="s">
         <v>653</v>
@@ -6837,10 +6837,10 @@
         <v>1</v>
       </c>
       <c r="Z131" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="132" spans="1:27">
@@ -6869,7 +6869,7 @@
         <v>1</v>
       </c>
       <c r="Z132" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA132" t="s">
         <v>672</v>
@@ -6895,7 +6895,7 @@
         <v>4</v>
       </c>
       <c r="Z133" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA133" t="s">
         <v>673</v>
@@ -6930,7 +6930,7 @@
         <v>1</v>
       </c>
       <c r="Z134" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA134" t="s">
         <v>674</v>
@@ -6956,7 +6956,7 @@
         <v>4</v>
       </c>
       <c r="Z135" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA135" t="s">
         <v>644</v>
@@ -6988,10 +6988,10 @@
         <v>1</v>
       </c>
       <c r="Z136" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA136" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="137" spans="1:27">
@@ -7017,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="Z137" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA137" t="s">
         <v>645</v>
@@ -7046,10 +7046,10 @@
         <v>2</v>
       </c>
       <c r="Z138" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA138" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="139" spans="1:27">
@@ -7483,10 +7483,10 @@
         <v>2</v>
       </c>
       <c r="Z151" t="s">
+        <v>708</v>
+      </c>
+      <c r="AA151" t="s">
         <v>709</v>
-      </c>
-      <c r="AA151" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="152" spans="1:27">
@@ -7518,7 +7518,7 @@
         <v>1</v>
       </c>
       <c r="Z152" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AA152" t="s">
         <v>669</v>
@@ -7550,7 +7550,7 @@
         <v>1</v>
       </c>
       <c r="Z153" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AA153" t="s">
         <v>668</v>
@@ -7579,10 +7579,10 @@
         <v>2</v>
       </c>
       <c r="Z154" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AA154" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="155" spans="1:27">
@@ -7739,10 +7739,10 @@
         <v>277</v>
       </c>
       <c r="Z159" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA159" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="160" spans="1:27">
@@ -7777,7 +7777,7 @@
         <v>277</v>
       </c>
       <c r="Z160" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA160" t="s">
         <v>669</v>
@@ -7815,10 +7815,10 @@
         <v>277</v>
       </c>
       <c r="Z161" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA161" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="162" spans="1:27">
@@ -7850,7 +7850,7 @@
         <v>1</v>
       </c>
       <c r="Z162" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA162" t="s">
         <v>668</v>
@@ -7882,7 +7882,7 @@
         <v>1</v>
       </c>
       <c r="Z163" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA163" t="s">
         <v>667</v>
@@ -7920,7 +7920,7 @@
         <v>284</v>
       </c>
       <c r="Z164" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA164" t="s">
         <v>679</v>
@@ -7952,7 +7952,7 @@
         <v>1</v>
       </c>
       <c r="Z165" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA165" t="s">
         <v>646</v>
@@ -7987,7 +7987,7 @@
         <v>1</v>
       </c>
       <c r="Z166" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA166" t="s">
         <v>678</v>
@@ -8022,7 +8022,7 @@
         <v>1</v>
       </c>
       <c r="Z167" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA167" t="s">
         <v>677</v>
@@ -8051,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="Z168" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA168" t="s">
         <v>646</v>
@@ -8083,7 +8083,7 @@
         <v>1</v>
       </c>
       <c r="Z169" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA169" t="s">
         <v>679</v>
@@ -8109,7 +8109,7 @@
         <v>-1</v>
       </c>
       <c r="Z170" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA170" t="s">
         <v>680</v>
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="Z171" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA171" t="s">
         <v>647</v>
@@ -8170,7 +8170,7 @@
         <v>1</v>
       </c>
       <c r="Z172" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA172" t="s">
         <v>681</v>
@@ -8452,7 +8452,7 @@
         <v>4</v>
       </c>
       <c r="Z181" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA181" t="s">
         <v>650</v>
@@ -8481,10 +8481,10 @@
         <v>1</v>
       </c>
       <c r="Z182" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA182" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="183" spans="1:27">
@@ -8510,7 +8510,7 @@
         <v>1</v>
       </c>
       <c r="Z183" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA183" t="s">
         <v>649</v>
@@ -8536,10 +8536,10 @@
         <v>5</v>
       </c>
       <c r="Z184" t="s">
+        <v>714</v>
+      </c>
+      <c r="AA184" t="s">
         <v>715</v>
-      </c>
-      <c r="AA184" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="185" spans="1:27">
@@ -8565,7 +8565,7 @@
         <v>1</v>
       </c>
       <c r="Z185" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA185" t="s">
         <v>655</v>
@@ -8594,7 +8594,7 @@
         <v>1</v>
       </c>
       <c r="Z186" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA186" t="s">
         <v>656</v>
@@ -8635,7 +8635,7 @@
         <v>1</v>
       </c>
       <c r="Z187" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA187" t="s">
         <v>654</v>
@@ -8667,7 +8667,7 @@
         <v>1</v>
       </c>
       <c r="Z188" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA188" t="s">
         <v>653</v>
@@ -8702,7 +8702,7 @@
         <v>1</v>
       </c>
       <c r="Z189" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA189" t="s">
         <v>666</v>
@@ -8731,7 +8731,7 @@
         <v>1</v>
       </c>
       <c r="Z190" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA190" t="s">
         <v>695</v>
@@ -8769,7 +8769,7 @@
         <v>1</v>
       </c>
       <c r="Z191" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA191" t="s">
         <v>659</v>
@@ -8804,7 +8804,7 @@
         <v>-1</v>
       </c>
       <c r="Z192" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA192" t="s">
         <v>661</v>
@@ -8833,7 +8833,7 @@
         <v>1</v>
       </c>
       <c r="Z193" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA193" t="s">
         <v>663</v>
@@ -8865,7 +8865,7 @@
         <v>2</v>
       </c>
       <c r="Z194" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA194" t="s">
         <v>662</v>
@@ -8906,7 +8906,7 @@
         <v>1</v>
       </c>
       <c r="Z195" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA195" t="s">
         <v>660</v>
@@ -9087,7 +9087,7 @@
         <v>1</v>
       </c>
       <c r="Z200" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AA200" t="s">
         <v>672</v>
@@ -9122,10 +9122,10 @@
         <v>1</v>
       </c>
       <c r="Z201" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AA201" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="202" spans="1:27">
@@ -9151,7 +9151,7 @@
         <v>-1</v>
       </c>
       <c r="Z202" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AA202" t="s">
         <v>673</v>
@@ -9183,7 +9183,7 @@
         <v>1</v>
       </c>
       <c r="Z203" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AA203" t="s">
         <v>692</v>
@@ -9212,7 +9212,7 @@
         <v>1</v>
       </c>
       <c r="Z204" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AA204" t="s">
         <v>693</v>
@@ -9244,7 +9244,7 @@
         <v>2</v>
       </c>
       <c r="Z205" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AA205" t="s">
         <v>674</v>
@@ -9279,7 +9279,7 @@
         <v>1</v>
       </c>
       <c r="Z206" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA206" t="s">
         <v>688</v>
@@ -9311,7 +9311,7 @@
         <v>1</v>
       </c>
       <c r="Z207" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA207" t="s">
         <v>687</v>
@@ -9340,10 +9340,10 @@
         <v>1</v>
       </c>
       <c r="Z208" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA208" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="209" spans="1:27">
@@ -9369,7 +9369,7 @@
         <v>338</v>
       </c>
       <c r="Z209" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA209" t="s">
         <v>664</v>
@@ -9401,7 +9401,7 @@
         <v>1</v>
       </c>
       <c r="Z210" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA210" t="s">
         <v>686</v>
@@ -9793,7 +9793,7 @@
         <v>-1</v>
       </c>
       <c r="Z223" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AA223" t="s">
         <v>652</v>
@@ -9825,7 +9825,7 @@
         <v>-1</v>
       </c>
       <c r="Z224" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AA224" t="s">
         <v>651</v>
@@ -9860,7 +9860,7 @@
         <v>-1</v>
       </c>
       <c r="Z225" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AA225" t="s">
         <v>639</v>
@@ -9895,7 +9895,7 @@
         <v>-1</v>
       </c>
       <c r="Z226" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AA226" t="s">
         <v>650</v>
@@ -10061,7 +10061,7 @@
         <v>363</v>
       </c>
       <c r="Z231" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA231" t="s">
         <v>638</v>
@@ -10096,7 +10096,7 @@
         <v>363</v>
       </c>
       <c r="Z232" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA232" t="s">
         <v>643</v>
@@ -10137,7 +10137,7 @@
         <v>363</v>
       </c>
       <c r="Z233" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA233" t="s">
         <v>642</v>
@@ -10172,7 +10172,7 @@
         <v>363</v>
       </c>
       <c r="Z234" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA234" t="s">
         <v>641</v>
@@ -10210,7 +10210,7 @@
         <v>363</v>
       </c>
       <c r="Z235" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA235" t="s">
         <v>639</v>
@@ -10251,7 +10251,7 @@
         <v>363</v>
       </c>
       <c r="Z236" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA236" t="s">
         <v>651</v>
@@ -10292,7 +10292,7 @@
         <v>363</v>
       </c>
       <c r="Z237" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA237" t="s">
         <v>652</v>
@@ -10336,7 +10336,7 @@
         <v>363</v>
       </c>
       <c r="Z238" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA238" t="s">
         <v>640</v>
@@ -10633,7 +10633,7 @@
         <v>1</v>
       </c>
       <c r="Z247" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA247" t="s">
         <v>647</v>
@@ -10665,7 +10665,7 @@
         <v>-1</v>
       </c>
       <c r="Z248" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA248" t="s">
         <v>680</v>
@@ -10703,7 +10703,7 @@
         <v>2</v>
       </c>
       <c r="Z249" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA249" t="s">
         <v>682</v>
@@ -10741,7 +10741,7 @@
         <v>1</v>
       </c>
       <c r="Z250" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA250" t="s">
         <v>681</v>
@@ -10773,7 +10773,7 @@
         <v>1</v>
       </c>
       <c r="Z251" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA251" t="s">
         <v>694</v>
@@ -10802,7 +10802,7 @@
         <v>1</v>
       </c>
       <c r="Z252" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA252" t="s">
         <v>693</v>
@@ -10834,7 +10834,7 @@
         <v>1</v>
       </c>
       <c r="Z253" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA253" t="s">
         <v>695</v>
@@ -10872,7 +10872,7 @@
         <v>198</v>
       </c>
       <c r="Z254" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AA254" t="s">
         <v>692</v>
@@ -10907,7 +10907,7 @@
         <v>1</v>
       </c>
       <c r="Z255" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA255" t="s">
         <v>657</v>
@@ -10939,7 +10939,7 @@
         <v>1</v>
       </c>
       <c r="Z256" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA256" t="s">
         <v>683</v>
@@ -10968,7 +10968,7 @@
         <v>1</v>
       </c>
       <c r="Z257" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA257" t="s">
         <v>684</v>
@@ -11000,7 +11000,7 @@
         <v>1</v>
       </c>
       <c r="Z258" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AA258" t="s">
         <v>685</v>
@@ -11029,10 +11029,10 @@
         <v>1</v>
       </c>
       <c r="Z259" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AA259" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="260" spans="1:27">
@@ -11055,10 +11055,10 @@
         <v>5</v>
       </c>
       <c r="Z260" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AA260" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="261" spans="1:27">
@@ -11087,7 +11087,7 @@
         <v>2</v>
       </c>
       <c r="Z261" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AA261" t="s">
         <v>672</v>
@@ -11119,10 +11119,10 @@
         <v>1</v>
       </c>
       <c r="Z262" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AA262" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="263" spans="1:27">
@@ -11145,7 +11145,7 @@
         <v>4</v>
       </c>
       <c r="Z263" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AA263" t="s">
         <v>671</v>
@@ -11174,10 +11174,10 @@
         <v>1</v>
       </c>
       <c r="Z264" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AA264" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="265" spans="1:27">
@@ -11203,10 +11203,10 @@
         <v>2</v>
       </c>
       <c r="Z265" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AA265" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="266" spans="1:27">
@@ -11360,7 +11360,7 @@
         <v>1</v>
       </c>
       <c r="Z270" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AA270" t="s">
         <v>659</v>
@@ -11389,7 +11389,7 @@
         <v>1</v>
       </c>
       <c r="Z271" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AA271" t="s">
         <v>660</v>
@@ -11415,7 +11415,7 @@
         <v>5</v>
       </c>
       <c r="Z272" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AA272" t="s">
         <v>661</v>
@@ -11447,7 +11447,7 @@
         <v>2</v>
       </c>
       <c r="Z273" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AA273" t="s">
         <v>657</v>
@@ -11482,7 +11482,7 @@
         <v>2</v>
       </c>
       <c r="Z274" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AA274" t="s">
         <v>658</v>
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="Z275" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AA275" t="s">
         <v>662</v>
@@ -11549,7 +11549,7 @@
         <v>1</v>
       </c>
       <c r="Z276" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AA276" t="s">
         <v>677</v>
@@ -11578,7 +11578,7 @@
         <v>1</v>
       </c>
       <c r="Z277" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AA277" t="s">
         <v>678</v>
@@ -11613,7 +11613,7 @@
         <v>1</v>
       </c>
       <c r="Z278" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AA278" t="s">
         <v>679</v>
@@ -11645,7 +11645,7 @@
         <v>2</v>
       </c>
       <c r="Z279" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AA279" t="s">
         <v>647</v>
@@ -11680,7 +11680,7 @@
         <v>2</v>
       </c>
       <c r="Z280" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AA280" t="s">
         <v>646</v>
@@ -11712,10 +11712,10 @@
         <v>1</v>
       </c>
       <c r="Z281" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AA281" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="282" spans="1:27">
@@ -11744,7 +11744,7 @@
         <v>1</v>
       </c>
       <c r="Z282" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AA282" t="s">
         <v>645</v>
@@ -11773,7 +11773,7 @@
         <v>1</v>
       </c>
       <c r="Z283" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AA283" t="s">
         <v>644</v>
@@ -11799,10 +11799,10 @@
         <v>7</v>
       </c>
       <c r="Z284" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AA284" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="285" spans="1:27">
@@ -11825,10 +11825,10 @@
         <v>-1</v>
       </c>
       <c r="Z285" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AA285" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="286" spans="1:27">
@@ -11854,7 +11854,7 @@
         <v>428</v>
       </c>
       <c r="Z286" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AA286" t="s">
         <v>655</v>
@@ -11892,7 +11892,7 @@
         <v>430</v>
       </c>
       <c r="Z287" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AA287" t="s">
         <v>656</v>
@@ -11927,7 +11927,7 @@
         <v>428</v>
       </c>
       <c r="Z288" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AA288" t="s">
         <v>695</v>
@@ -11959,7 +11959,7 @@
         <v>428</v>
       </c>
       <c r="Z289" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AA289" t="s">
         <v>694</v>
@@ -11991,10 +11991,10 @@
         <v>435</v>
       </c>
       <c r="Z290" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AA290" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="291" spans="1:27">
@@ -12023,10 +12023,10 @@
         <v>428</v>
       </c>
       <c r="Z291" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AA291" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="292" spans="1:27">
@@ -12052,10 +12052,10 @@
         <v>1</v>
       </c>
       <c r="Z292" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AA292" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="293" spans="1:27">
@@ -12084,10 +12084,10 @@
         <v>2</v>
       </c>
       <c r="Z293" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AA293" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="294" spans="1:27">
@@ -12116,7 +12116,7 @@
         <v>439</v>
       </c>
       <c r="Z294" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AA294" t="s">
         <v>671</v>
@@ -12148,7 +12148,7 @@
         <v>1</v>
       </c>
       <c r="Z295" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AA295" t="s">
         <v>671</v>
@@ -12177,10 +12177,10 @@
         <v>1</v>
       </c>
       <c r="Z296" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AA296" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="297" spans="1:27">
@@ -12215,7 +12215,7 @@
         <v>430</v>
       </c>
       <c r="Z297" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AA297" t="s">
         <v>634</v>
@@ -12250,7 +12250,7 @@
         <v>1</v>
       </c>
       <c r="Z298" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AA298" t="s">
         <v>635</v>
@@ -12279,7 +12279,7 @@
         <v>1</v>
       </c>
       <c r="Z299" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AA299" t="s">
         <v>672</v>
@@ -12311,7 +12311,7 @@
         <v>1</v>
       </c>
       <c r="Z300" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AA300" t="s">
         <v>633</v>
@@ -12340,7 +12340,7 @@
         <v>1</v>
       </c>
       <c r="Z301" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AA301" t="s">
         <v>686</v>
@@ -12366,7 +12366,7 @@
         <v>5</v>
       </c>
       <c r="Z302" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AA302" t="s">
         <v>664</v>
@@ -12401,7 +12401,7 @@
         <v>430</v>
       </c>
       <c r="Z303" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AA303" t="s">
         <v>663</v>
@@ -12430,7 +12430,7 @@
         <v>1</v>
       </c>
       <c r="Z304" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AA304" t="s">
         <v>687</v>
@@ -12465,7 +12465,7 @@
         <v>452</v>
       </c>
       <c r="Z305" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AA305" t="s">
         <v>688</v>
@@ -12497,7 +12497,7 @@
         <v>104</v>
       </c>
       <c r="Z306" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AA306" t="s">
         <v>639</v>
@@ -12535,7 +12535,7 @@
         <v>104</v>
       </c>
       <c r="Z307" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AA307" t="s">
         <v>651</v>
@@ -12576,7 +12576,7 @@
         <v>104</v>
       </c>
       <c r="Z308" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AA308" t="s">
         <v>652</v>
@@ -12608,7 +12608,7 @@
         <v>1</v>
       </c>
       <c r="Z309" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AA309" t="s">
         <v>650</v>
@@ -12643,7 +12643,7 @@
         <v>104</v>
       </c>
       <c r="Z310" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AA310" t="s">
         <v>649</v>
@@ -12684,10 +12684,10 @@
         <v>104</v>
       </c>
       <c r="Z311" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AA311" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="312" spans="1:27">
@@ -12719,10 +12719,10 @@
         <v>104</v>
       </c>
       <c r="Z312" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AA312" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="313" spans="1:27">
@@ -12745,7 +12745,7 @@
         <v>2</v>
       </c>
       <c r="Z313" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AA313" t="s">
         <v>637</v>
@@ -12771,7 +12771,7 @@
         <v>7</v>
       </c>
       <c r="Z314" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AA314" t="s">
         <v>653</v>
@@ -12800,7 +12800,7 @@
         <v>1</v>
       </c>
       <c r="Z315" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AA315" t="s">
         <v>654</v>
@@ -12829,7 +12829,7 @@
         <v>1</v>
       </c>
       <c r="Z316" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AA316" t="s">
         <v>655</v>
@@ -12861,7 +12861,7 @@
         <v>1</v>
       </c>
       <c r="Z317" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AA317" t="s">
         <v>656</v>
@@ -12896,7 +12896,7 @@
         <v>471</v>
       </c>
       <c r="Z318" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AA318" t="s">
         <v>645</v>
@@ -12928,7 +12928,7 @@
         <v>471</v>
       </c>
       <c r="Z319" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AA319" t="s">
         <v>642</v>
@@ -12960,7 +12960,7 @@
         <v>471</v>
       </c>
       <c r="Z320" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AA320" t="s">
         <v>644</v>
@@ -12995,7 +12995,7 @@
         <v>471</v>
       </c>
       <c r="Z321" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AA321" t="s">
         <v>640</v>
@@ -13027,10 +13027,10 @@
         <v>471</v>
       </c>
       <c r="Z322" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AA322" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="323" spans="1:27">
@@ -13059,7 +13059,7 @@
         <v>1</v>
       </c>
       <c r="Z323" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AA323" t="s">
         <v>641</v>
@@ -13094,7 +13094,7 @@
         <v>471</v>
       </c>
       <c r="Z324" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AA324" t="s">
         <v>671</v>
@@ -13126,10 +13126,10 @@
         <v>471</v>
       </c>
       <c r="Z325" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AA325" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="326" spans="1:27">
@@ -13161,10 +13161,10 @@
         <v>471</v>
       </c>
       <c r="Z326" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AA326" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="327" spans="1:27">
@@ -13196,10 +13196,10 @@
         <v>471</v>
       </c>
       <c r="Z327" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AA327" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="328" spans="1:27">
@@ -13234,7 +13234,7 @@
         <v>471</v>
       </c>
       <c r="Z328" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AA328" t="s">
         <v>674</v>
@@ -13272,7 +13272,7 @@
         <v>471</v>
       </c>
       <c r="Z329" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AA329" t="s">
         <v>672</v>
@@ -13307,10 +13307,10 @@
         <v>485</v>
       </c>
       <c r="Z330" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AA330" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="331" spans="1:27">
@@ -13339,7 +13339,7 @@
         <v>471</v>
       </c>
       <c r="Z331" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AA331" t="s">
         <v>673</v>
@@ -13624,7 +13624,7 @@
         <v>1</v>
       </c>
       <c r="Z340" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AA340" t="s">
         <v>695</v>
@@ -13656,7 +13656,7 @@
         <v>1</v>
       </c>
       <c r="Z341" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AA341" t="s">
         <v>693</v>
@@ -13688,7 +13688,7 @@
         <v>1</v>
       </c>
       <c r="Z342" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AA342" t="s">
         <v>694</v>
@@ -13723,7 +13723,7 @@
         <v>1</v>
       </c>
       <c r="Z343" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AA343" t="s">
         <v>692</v>
@@ -14005,7 +14005,7 @@
         <v>2</v>
       </c>
       <c r="Z352" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AA352" t="s">
         <v>667</v>
@@ -14031,7 +14031,7 @@
         <v>3</v>
       </c>
       <c r="Z353" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AA353" t="s">
         <v>668</v>
@@ -14060,7 +14060,7 @@
         <v>1</v>
       </c>
       <c r="Z354" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AA354" t="s">
         <v>669</v>
@@ -14092,10 +14092,10 @@
         <v>1</v>
       </c>
       <c r="Z355" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AA355" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="356" spans="1:27">
@@ -14127,7 +14127,7 @@
         <v>523</v>
       </c>
       <c r="Z356" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA356" t="s">
         <v>642</v>
@@ -14165,7 +14165,7 @@
         <v>522</v>
       </c>
       <c r="Z357" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA357" t="s">
         <v>644</v>
@@ -14194,10 +14194,10 @@
         <v>522</v>
       </c>
       <c r="Z358" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA358" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="359" spans="1:27">
@@ -14232,10 +14232,10 @@
         <v>522</v>
       </c>
       <c r="Z359" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA359" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="360" spans="1:27">
@@ -14267,7 +14267,7 @@
         <v>526</v>
       </c>
       <c r="Z360" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA360" t="s">
         <v>643</v>
@@ -14299,10 +14299,10 @@
         <v>529</v>
       </c>
       <c r="Z361" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA361" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="362" spans="1:27">
@@ -14331,7 +14331,7 @@
         <v>526</v>
       </c>
       <c r="Z362" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA362" t="s">
         <v>671</v>
@@ -14366,7 +14366,7 @@
         <v>529</v>
       </c>
       <c r="Z363" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA363" t="s">
         <v>672</v>
@@ -14398,7 +14398,7 @@
         <v>526</v>
       </c>
       <c r="Z364" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA364" t="s">
         <v>673</v>
@@ -14433,7 +14433,7 @@
         <v>529</v>
       </c>
       <c r="Z365" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA365" t="s">
         <v>674</v>
@@ -14465,10 +14465,10 @@
         <v>526</v>
       </c>
       <c r="Z366" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA366" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="367" spans="1:27">
@@ -14503,7 +14503,7 @@
         <v>529</v>
       </c>
       <c r="Z367" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA367" t="s">
         <v>692</v>
@@ -14538,7 +14538,7 @@
         <v>526</v>
       </c>
       <c r="Z368" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA368" t="s">
         <v>693</v>
@@ -14570,7 +14570,7 @@
         <v>1</v>
       </c>
       <c r="Z369" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA369" t="s">
         <v>633</v>
@@ -14605,7 +14605,7 @@
         <v>1</v>
       </c>
       <c r="Z370" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA370" t="s">
         <v>632</v>
@@ -14637,10 +14637,10 @@
         <v>1</v>
       </c>
       <c r="Z371" t="s">
+        <v>711</v>
+      </c>
+      <c r="AA371" t="s">
         <v>712</v>
-      </c>
-      <c r="AA371" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="372" spans="1:27">
@@ -14675,7 +14675,7 @@
         <v>1</v>
       </c>
       <c r="Z372" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA372" t="s">
         <v>635</v>
@@ -14707,7 +14707,7 @@
         <v>526</v>
       </c>
       <c r="Z373" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA373" t="s">
         <v>634</v>
@@ -14739,7 +14739,7 @@
         <v>545</v>
       </c>
       <c r="Z374" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA374" t="s">
         <v>650</v>
@@ -14777,7 +14777,7 @@
         <v>545</v>
       </c>
       <c r="Z375" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA375" t="s">
         <v>652</v>
@@ -14806,7 +14806,7 @@
         <v>545</v>
       </c>
       <c r="Z376" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA376" t="s">
         <v>651</v>
@@ -14838,7 +14838,7 @@
         <v>545</v>
       </c>
       <c r="Z377" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA377" t="s">
         <v>639</v>
@@ -14879,7 +14879,7 @@
         <v>545</v>
       </c>
       <c r="Z378" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA378" t="s">
         <v>638</v>
@@ -14911,7 +14911,7 @@
         <v>545</v>
       </c>
       <c r="Z379" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA379" t="s">
         <v>640</v>
@@ -14949,7 +14949,7 @@
         <v>1</v>
       </c>
       <c r="Z380" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA380" t="s">
         <v>641</v>
@@ -14978,7 +14978,7 @@
         <v>1</v>
       </c>
       <c r="Z381" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA381" t="s">
         <v>649</v>
@@ -15013,7 +15013,7 @@
         <v>557</v>
       </c>
       <c r="Z382" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AA382" t="s">
         <v>644</v>
@@ -15048,7 +15048,7 @@
         <v>557</v>
       </c>
       <c r="Z383" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AA383" t="s">
         <v>642</v>
@@ -15080,10 +15080,10 @@
         <v>557</v>
       </c>
       <c r="Z384" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AA384" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="385" spans="1:27">
@@ -15112,10 +15112,10 @@
         <v>557</v>
       </c>
       <c r="Z385" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AA385" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="386" spans="1:27">
@@ -15147,7 +15147,7 @@
         <v>557</v>
       </c>
       <c r="Z386" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AA386" t="s">
         <v>659</v>
@@ -15179,7 +15179,7 @@
         <v>557</v>
       </c>
       <c r="Z387" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AA387" t="s">
         <v>660</v>
@@ -15211,7 +15211,7 @@
         <v>557</v>
       </c>
       <c r="Z388" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AA388" t="s">
         <v>661</v>
@@ -15246,7 +15246,7 @@
         <v>1</v>
       </c>
       <c r="Z389" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AA389" t="s">
         <v>662</v>
@@ -15275,7 +15275,7 @@
         <v>1</v>
       </c>
       <c r="Z390" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AA390" t="s">
         <v>644</v>
@@ -15301,7 +15301,7 @@
         <v>5</v>
       </c>
       <c r="Z391" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AA391" t="s">
         <v>642</v>
@@ -15333,7 +15333,7 @@
         <v>1</v>
       </c>
       <c r="Z392" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AA392" t="s">
         <v>638</v>
@@ -15365,7 +15365,7 @@
         <v>1</v>
       </c>
       <c r="Z393" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AA393" t="s">
         <v>639</v>
@@ -15394,7 +15394,7 @@
         <v>571</v>
       </c>
       <c r="Z394" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AA394" t="s">
         <v>640</v>
@@ -15423,7 +15423,7 @@
         <v>571</v>
       </c>
       <c r="Z395" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AA395" t="s">
         <v>641</v>
@@ -15455,7 +15455,7 @@
         <v>-1</v>
       </c>
       <c r="Z396" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AA396" t="s">
         <v>672</v>
@@ -15490,10 +15490,10 @@
         <v>-1</v>
       </c>
       <c r="Z397" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AA397" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="398" spans="1:27">
@@ -15522,10 +15522,10 @@
         <v>571</v>
       </c>
       <c r="Z398" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA398" t="s">
         <v>699</v>
-      </c>
-      <c r="AA398" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="399" spans="1:27">
@@ -15551,10 +15551,10 @@
         <v>-1</v>
       </c>
       <c r="Z399" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AA399" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="400" spans="1:27">
@@ -15580,10 +15580,10 @@
         <v>571</v>
       </c>
       <c r="Z400" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AA400" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="401" spans="1:27">
@@ -15615,10 +15615,10 @@
         <v>571</v>
       </c>
       <c r="Z401" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AA401" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="402" spans="1:27">
@@ -15644,7 +15644,7 @@
         <v>1</v>
       </c>
       <c r="Z402" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AA402" t="s">
         <v>671</v>
@@ -15673,10 +15673,10 @@
         <v>1</v>
       </c>
       <c r="Z403" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AA403" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="404" spans="1:27">
@@ -15711,10 +15711,10 @@
         <v>2</v>
       </c>
       <c r="Z404" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AA404" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="405" spans="1:27">
@@ -15743,10 +15743,10 @@
         <v>1</v>
       </c>
       <c r="Z405" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AA405" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="406" spans="1:27">
@@ -15781,10 +15781,10 @@
         <v>1</v>
       </c>
       <c r="Z406" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AA406" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="407" spans="1:27">
@@ -15813,7 +15813,7 @@
         <v>1</v>
       </c>
       <c r="Z407" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AA407" t="s">
         <v>673</v>
@@ -15845,7 +15845,7 @@
         <v>1</v>
       </c>
       <c r="Z408" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AA408" t="s">
         <v>674</v>
@@ -15877,7 +15877,7 @@
         <v>1</v>
       </c>
       <c r="Z409" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AA409" t="s">
         <v>692</v>
@@ -15906,7 +15906,7 @@
         <v>1</v>
       </c>
       <c r="Z410" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AA410" t="s">
         <v>694</v>
@@ -15938,7 +15938,7 @@
         <v>1</v>
       </c>
       <c r="Z411" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AA411" t="s">
         <v>655</v>
@@ -15976,7 +15976,7 @@
         <v>1</v>
       </c>
       <c r="Z412" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AA412" t="s">
         <v>656</v>
@@ -16008,7 +16008,7 @@
         <v>1</v>
       </c>
       <c r="Z413" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AA413" t="s">
         <v>671</v>
@@ -16046,10 +16046,10 @@
         <v>2</v>
       </c>
       <c r="Z414" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AA414" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="415" spans="1:27">
@@ -16084,10 +16084,10 @@
         <v>1</v>
       </c>
       <c r="Z415" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AA415" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="416" spans="1:27">
@@ -16113,10 +16113,10 @@
         <v>1</v>
       </c>
       <c r="Z416" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AA416" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="417" spans="1:27">
@@ -16148,10 +16148,10 @@
         <v>611</v>
       </c>
       <c r="Z417" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AA417" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="418" spans="1:27">
@@ -16186,7 +16186,7 @@
         <v>611</v>
       </c>
       <c r="Z418" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AA418" t="s">
         <v>645</v>
@@ -16218,7 +16218,7 @@
         <v>1</v>
       </c>
       <c r="Z419" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AA419" t="s">
         <v>644</v>
@@ -16259,10 +16259,10 @@
         <v>611</v>
       </c>
       <c r="Z420" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AA420" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="421" spans="1:27">
@@ -16300,7 +16300,7 @@
         <v>618</v>
       </c>
       <c r="Z421" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AA421" t="s">
         <v>632</v>
@@ -16338,7 +16338,7 @@
         <v>618</v>
       </c>
       <c r="Z422" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AA422" t="s">
         <v>631</v>
@@ -16376,7 +16376,7 @@
         <v>618</v>
       </c>
       <c r="Z423" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AA423" t="s">
         <v>633</v>
@@ -16414,7 +16414,7 @@
         <v>618</v>
       </c>
       <c r="Z424" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AA424" t="s">
         <v>634</v>
@@ -16452,7 +16452,7 @@
         <v>618</v>
       </c>
       <c r="Z425" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AA425" t="s">
         <v>635</v>
@@ -16484,7 +16484,7 @@
         <v>1</v>
       </c>
       <c r="Z426" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AA426" t="s">
         <v>641</v>
@@ -16513,7 +16513,7 @@
         <v>1</v>
       </c>
       <c r="Z427" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AA427" t="s">
         <v>640</v>
@@ -16545,7 +16545,7 @@
         <v>1</v>
       </c>
       <c r="Z428" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AA428" t="s">
         <v>638</v>
@@ -16574,7 +16574,7 @@
         <v>1</v>
       </c>
       <c r="Z429" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AA429" t="s">
         <v>643</v>
@@ -16609,7 +16609,7 @@
         <v>1</v>
       </c>
       <c r="Z430" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AA430" t="s">
         <v>642</v>

--- a/data/villains.xlsx
+++ b/data/villains.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="748">
   <si>
     <t>Name</t>
   </si>
@@ -2211,6 +2211,54 @@
   </si>
   <si>
     <t>fearitself,jpg</t>
+  </si>
+  <si>
+    <t>Inhuman Rebellion</t>
+  </si>
+  <si>
+    <t>ROK</t>
+  </si>
+  <si>
+    <t>Lash</t>
+  </si>
+  <si>
+    <t>The Unspoken</t>
+  </si>
+  <si>
+    <t>Lineage</t>
+  </si>
+  <si>
+    <t>Omega</t>
+  </si>
+  <si>
+    <t>inreb,jpg</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Shi'ar Imperial Elite</t>
+  </si>
+  <si>
+    <t>Mentor</t>
+  </si>
+  <si>
+    <t>Plutonia</t>
+  </si>
+  <si>
+    <t>Starbolt</t>
+  </si>
+  <si>
+    <t>rokshiar,jpg</t>
   </si>
 </sst>
 </file>
@@ -2552,13 +2600,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA430"/>
+  <dimension ref="A1:AA438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C404" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA120" sqref="AA120"/>
+      <selection pane="bottomRight" activeCell="AA435" sqref="AA435:AA438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16615,6 +16663,235 @@
         <v>642</v>
       </c>
     </row>
+    <row r="431" spans="1:27">
+      <c r="A431" t="s">
+        <v>732</v>
+      </c>
+      <c r="B431" t="s">
+        <v>734</v>
+      </c>
+      <c r="C431">
+        <v>2</v>
+      </c>
+      <c r="D431" t="s">
+        <v>733</v>
+      </c>
+      <c r="E431">
+        <v>4</v>
+      </c>
+      <c r="F431">
+        <v>5</v>
+      </c>
+      <c r="N431">
+        <v>1</v>
+      </c>
+      <c r="Z431" t="s">
+        <v>738</v>
+      </c>
+      <c r="AA431" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="432" spans="1:27">
+      <c r="A432" t="s">
+        <v>732</v>
+      </c>
+      <c r="B432" t="s">
+        <v>735</v>
+      </c>
+      <c r="C432">
+        <v>2</v>
+      </c>
+      <c r="D432" t="s">
+        <v>733</v>
+      </c>
+      <c r="E432">
+        <v>5</v>
+      </c>
+      <c r="F432">
+        <v>5</v>
+      </c>
+      <c r="N432">
+        <v>1</v>
+      </c>
+      <c r="Z432" t="s">
+        <v>738</v>
+      </c>
+      <c r="AA432" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="433" spans="1:27">
+      <c r="A433" t="s">
+        <v>732</v>
+      </c>
+      <c r="B433" t="s">
+        <v>736</v>
+      </c>
+      <c r="C433">
+        <v>2</v>
+      </c>
+      <c r="D433" t="s">
+        <v>733</v>
+      </c>
+      <c r="E433">
+        <v>2</v>
+      </c>
+      <c r="F433">
+        <v>3</v>
+      </c>
+      <c r="Z433" t="s">
+        <v>738</v>
+      </c>
+      <c r="AA433" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="434" spans="1:27">
+      <c r="A434" t="s">
+        <v>732</v>
+      </c>
+      <c r="B434" t="s">
+        <v>737</v>
+      </c>
+      <c r="C434">
+        <v>2</v>
+      </c>
+      <c r="D434" t="s">
+        <v>733</v>
+      </c>
+      <c r="E434">
+        <v>3</v>
+      </c>
+      <c r="F434">
+        <v>4</v>
+      </c>
+      <c r="Z434" t="s">
+        <v>738</v>
+      </c>
+      <c r="AA434" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="435" spans="1:27">
+      <c r="A435" t="s">
+        <v>743</v>
+      </c>
+      <c r="B435" t="s">
+        <v>744</v>
+      </c>
+      <c r="C435">
+        <v>2</v>
+      </c>
+      <c r="D435" t="s">
+        <v>733</v>
+      </c>
+      <c r="E435">
+        <v>3</v>
+      </c>
+      <c r="F435">
+        <v>5</v>
+      </c>
+      <c r="N435">
+        <v>1</v>
+      </c>
+      <c r="Z435" t="s">
+        <v>747</v>
+      </c>
+      <c r="AA435" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="436" spans="1:27">
+      <c r="A436" t="s">
+        <v>743</v>
+      </c>
+      <c r="B436" t="s">
+        <v>147</v>
+      </c>
+      <c r="C436">
+        <v>2</v>
+      </c>
+      <c r="D436" t="s">
+        <v>733</v>
+      </c>
+      <c r="E436">
+        <v>5</v>
+      </c>
+      <c r="F436">
+        <v>7</v>
+      </c>
+      <c r="M436">
+        <v>1</v>
+      </c>
+      <c r="N436">
+        <v>1</v>
+      </c>
+      <c r="Z436" t="s">
+        <v>747</v>
+      </c>
+      <c r="AA436" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="437" spans="1:27">
+      <c r="A437" t="s">
+        <v>743</v>
+      </c>
+      <c r="B437" t="s">
+        <v>745</v>
+      </c>
+      <c r="C437">
+        <v>2</v>
+      </c>
+      <c r="D437" t="s">
+        <v>733</v>
+      </c>
+      <c r="E437">
+        <v>2</v>
+      </c>
+      <c r="F437">
+        <v>4</v>
+      </c>
+      <c r="N437">
+        <v>1</v>
+      </c>
+      <c r="Z437" t="s">
+        <v>747</v>
+      </c>
+      <c r="AA437" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="438" spans="1:27">
+      <c r="A438" t="s">
+        <v>743</v>
+      </c>
+      <c r="B438" t="s">
+        <v>746</v>
+      </c>
+      <c r="C438">
+        <v>2</v>
+      </c>
+      <c r="D438" t="s">
+        <v>733</v>
+      </c>
+      <c r="E438">
+        <v>3</v>
+      </c>
+      <c r="F438">
+        <v>4</v>
+      </c>
+      <c r="N438">
+        <v>1</v>
+      </c>
+      <c r="Z438" t="s">
+        <v>747</v>
+      </c>
+      <c r="AA438" t="s">
+        <v>742</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/villains.xlsx
+++ b/data/villains.xlsx
@@ -2603,10 +2603,10 @@
   <dimension ref="A1:AA438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C404" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA435" sqref="AA435:AA438"/>
+      <selection pane="bottomRight" activeCell="AA116" sqref="AA116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6373,7 +6373,7 @@
         <v>697</v>
       </c>
       <c r="AA115" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
     </row>
     <row r="116" spans="1:27">

--- a/data/villains.xlsx
+++ b/data/villains.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="760">
   <si>
     <t>Name</t>
   </si>
@@ -2259,6 +2259,42 @@
   </si>
   <si>
     <t>rokshiar,jpg</t>
+  </si>
+  <si>
+    <t>Annihilation Wave</t>
+  </si>
+  <si>
+    <t>Weaponized Galactus</t>
+  </si>
+  <si>
+    <t>Annihilation Armada</t>
+  </si>
+  <si>
+    <t>Queens of Annihilation</t>
+  </si>
+  <si>
+    <t>Ravenous</t>
+  </si>
+  <si>
+    <t>ANH</t>
+  </si>
+  <si>
+    <t>Timelines of Kang</t>
+  </si>
+  <si>
+    <t>Scarlet Centurion</t>
+  </si>
+  <si>
+    <t>Immortus</t>
+  </si>
+  <si>
+    <t>Iron Lad</t>
+  </si>
+  <si>
+    <t>Pharaoh Rama-Tut</t>
+  </si>
+  <si>
+    <t>anni,jpg</t>
   </si>
 </sst>
 </file>
@@ -2600,13 +2636,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA438"/>
+  <dimension ref="A1:AA446"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C413" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA116" sqref="AA116"/>
+      <selection pane="bottomRight" activeCell="AA445" sqref="AA445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16892,6 +16928,295 @@
         <v>742</v>
       </c>
     </row>
+    <row r="439" spans="1:27">
+      <c r="A439" t="s">
+        <v>748</v>
+      </c>
+      <c r="B439" t="s">
+        <v>749</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+      <c r="D439" t="s">
+        <v>753</v>
+      </c>
+      <c r="E439">
+        <v>7</v>
+      </c>
+      <c r="F439">
+        <v>9</v>
+      </c>
+      <c r="M439">
+        <v>1</v>
+      </c>
+      <c r="N439">
+        <v>1</v>
+      </c>
+      <c r="T439">
+        <v>2</v>
+      </c>
+      <c r="W439">
+        <v>1</v>
+      </c>
+      <c r="Z439" t="s">
+        <v>759</v>
+      </c>
+      <c r="AA439" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="440" spans="1:27">
+      <c r="A440" t="s">
+        <v>748</v>
+      </c>
+      <c r="B440" t="s">
+        <v>750</v>
+      </c>
+      <c r="C440">
+        <v>2</v>
+      </c>
+      <c r="D440" t="s">
+        <v>753</v>
+      </c>
+      <c r="E440">
+        <v>2</v>
+      </c>
+      <c r="F440">
+        <v>3</v>
+      </c>
+      <c r="N440">
+        <v>1</v>
+      </c>
+      <c r="T440">
+        <v>1</v>
+      </c>
+      <c r="Z440" t="s">
+        <v>759</v>
+      </c>
+      <c r="AA440" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="441" spans="1:27">
+      <c r="A441" t="s">
+        <v>748</v>
+      </c>
+      <c r="B441" t="s">
+        <v>751</v>
+      </c>
+      <c r="C441">
+        <v>3</v>
+      </c>
+      <c r="D441" t="s">
+        <v>753</v>
+      </c>
+      <c r="E441">
+        <v>3</v>
+      </c>
+      <c r="F441">
+        <v>4</v>
+      </c>
+      <c r="N441">
+        <v>1</v>
+      </c>
+      <c r="R441">
+        <v>1</v>
+      </c>
+      <c r="T441">
+        <v>1</v>
+      </c>
+      <c r="Z441" t="s">
+        <v>759</v>
+      </c>
+      <c r="AA441" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="442" spans="1:27">
+      <c r="A442" t="s">
+        <v>748</v>
+      </c>
+      <c r="B442" t="s">
+        <v>752</v>
+      </c>
+      <c r="C442">
+        <v>2</v>
+      </c>
+      <c r="D442" t="s">
+        <v>753</v>
+      </c>
+      <c r="E442">
+        <v>4</v>
+      </c>
+      <c r="F442">
+        <v>5</v>
+      </c>
+      <c r="I442">
+        <v>1</v>
+      </c>
+      <c r="M442">
+        <v>1</v>
+      </c>
+      <c r="N442">
+        <v>1</v>
+      </c>
+      <c r="Q442">
+        <v>1</v>
+      </c>
+      <c r="W442">
+        <v>1</v>
+      </c>
+      <c r="Z442" t="s">
+        <v>759</v>
+      </c>
+      <c r="AA442" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="443" spans="1:27">
+      <c r="A443" t="s">
+        <v>754</v>
+      </c>
+      <c r="B443" t="s">
+        <v>755</v>
+      </c>
+      <c r="C443">
+        <v>2</v>
+      </c>
+      <c r="D443" t="s">
+        <v>753</v>
+      </c>
+      <c r="E443">
+        <v>3</v>
+      </c>
+      <c r="F443">
+        <v>4</v>
+      </c>
+      <c r="H443">
+        <v>1</v>
+      </c>
+      <c r="N443">
+        <v>1</v>
+      </c>
+      <c r="R443">
+        <v>1</v>
+      </c>
+      <c r="W443">
+        <v>-1</v>
+      </c>
+      <c r="Z443" t="s">
+        <v>759</v>
+      </c>
+      <c r="AA443" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="444" spans="1:27">
+      <c r="A444" t="s">
+        <v>754</v>
+      </c>
+      <c r="B444" t="s">
+        <v>756</v>
+      </c>
+      <c r="C444">
+        <v>2</v>
+      </c>
+      <c r="D444" t="s">
+        <v>753</v>
+      </c>
+      <c r="E444">
+        <v>5</v>
+      </c>
+      <c r="F444">
+        <v>5</v>
+      </c>
+      <c r="G444">
+        <v>1</v>
+      </c>
+      <c r="M444">
+        <v>1</v>
+      </c>
+      <c r="Q444">
+        <v>1</v>
+      </c>
+      <c r="W444">
+        <v>-1</v>
+      </c>
+      <c r="Z444" t="s">
+        <v>759</v>
+      </c>
+      <c r="AA444" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="445" spans="1:27">
+      <c r="A445" t="s">
+        <v>754</v>
+      </c>
+      <c r="B445" t="s">
+        <v>757</v>
+      </c>
+      <c r="C445">
+        <v>2</v>
+      </c>
+      <c r="D445" t="s">
+        <v>753</v>
+      </c>
+      <c r="E445">
+        <v>0</v>
+      </c>
+      <c r="F445">
+        <v>4</v>
+      </c>
+      <c r="K445">
+        <v>1</v>
+      </c>
+      <c r="Z445" t="s">
+        <v>759</v>
+      </c>
+      <c r="AA445" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="446" spans="1:27">
+      <c r="A446" t="s">
+        <v>754</v>
+      </c>
+      <c r="B446" t="s">
+        <v>758</v>
+      </c>
+      <c r="C446">
+        <v>2</v>
+      </c>
+      <c r="D446" t="s">
+        <v>753</v>
+      </c>
+      <c r="E446">
+        <v>4</v>
+      </c>
+      <c r="F446">
+        <v>4</v>
+      </c>
+      <c r="I446">
+        <v>1</v>
+      </c>
+      <c r="J446">
+        <v>1</v>
+      </c>
+      <c r="N446">
+        <v>1</v>
+      </c>
+      <c r="W446">
+        <v>-1</v>
+      </c>
+      <c r="Z446" t="s">
+        <v>759</v>
+      </c>
+      <c r="AA446" t="s">
+        <v>676</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/villains.xlsx
+++ b/data/villains.xlsx
@@ -2639,10 +2639,10 @@
   <dimension ref="A1:AA446"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C413" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C250" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA445" sqref="AA445"/>
+      <selection pane="bottomRight" activeCell="F268" sqref="F268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11310,7 +11310,7 @@
         <v>4</v>
       </c>
       <c r="F266">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M266">
         <v>1</v>
@@ -11345,7 +11345,7 @@
         <v>5</v>
       </c>
       <c r="F267">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L267">
         <v>1</v>
@@ -11406,7 +11406,7 @@
         <v>3</v>
       </c>
       <c r="F269">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R269">
         <v>1</v>

--- a/data/villains.xlsx
+++ b/data/villains.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="797">
   <si>
     <t>Name</t>
   </si>
@@ -2295,6 +2295,117 @@
   </si>
   <si>
     <t>anni,jpg</t>
+  </si>
+  <si>
+    <t>Acolytes</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Frenzy</t>
+  </si>
+  <si>
+    <t>Tempo</t>
+  </si>
+  <si>
+    <t>Unuscione</t>
+  </si>
+  <si>
+    <t>mc,jpg</t>
+  </si>
+  <si>
+    <t>Clan Yashida</t>
+  </si>
+  <si>
+    <t>Lord Shingen</t>
+  </si>
+  <si>
+    <t>Scarlet Samurai</t>
+  </si>
+  <si>
+    <t>Silver Samurai</t>
+  </si>
+  <si>
+    <t>Purifiers</t>
+  </si>
+  <si>
+    <t>Cameron Hodge</t>
+  </si>
+  <si>
+    <t>Leper Queen</t>
+  </si>
+  <si>
+    <t>Predator X (Y)</t>
+  </si>
+  <si>
+    <t>Predator X (B)</t>
+  </si>
+  <si>
+    <t>Predator X ( R)</t>
+  </si>
+  <si>
+    <t>Predator X (G)</t>
+  </si>
+  <si>
+    <t>Predator X (S)</t>
+  </si>
+  <si>
+    <t>Reverend William Stryker</t>
+  </si>
+  <si>
+    <t>Reavers</t>
+  </si>
+  <si>
+    <t>Bonebreaker</t>
+  </si>
+  <si>
+    <t>Donald Pierce</t>
+  </si>
+  <si>
+    <t>Pretty Boy</t>
+  </si>
+  <si>
+    <t>Skullbuster</t>
+  </si>
+  <si>
+    <t>Fear Lords</t>
+  </si>
+  <si>
+    <t>DRS</t>
+  </si>
+  <si>
+    <t>Dreamstalker</t>
+  </si>
+  <si>
+    <t>D'Spayre</t>
+  </si>
+  <si>
+    <t>Nox</t>
+  </si>
+  <si>
+    <t>The Lurking Unknown</t>
+  </si>
+  <si>
+    <t>strangexp,jpg</t>
+  </si>
+  <si>
+    <t>Lords of the Netherworld</t>
+  </si>
+  <si>
+    <t>Baron Mordo</t>
+  </si>
+  <si>
+    <t>Mindless Ones</t>
+  </si>
+  <si>
+    <t>Satana Hellstrom</t>
+  </si>
+  <si>
+    <t>Satannish</t>
+  </si>
+  <si>
+    <t>Umar</t>
   </si>
 </sst>
 </file>
@@ -2636,13 +2747,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA446"/>
+  <dimension ref="A1:AA475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C250" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C465" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F268" sqref="F268"/>
+      <selection pane="bottomRight" activeCell="AA476" sqref="AA476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17217,6 +17328,760 @@
         <v>676</v>
       </c>
     </row>
+    <row r="447" spans="1:27">
+      <c r="A447" t="s">
+        <v>760</v>
+      </c>
+      <c r="B447" t="s">
+        <v>762</v>
+      </c>
+      <c r="C447">
+        <v>2</v>
+      </c>
+      <c r="D447" t="s">
+        <v>761</v>
+      </c>
+      <c r="E447">
+        <v>3</v>
+      </c>
+      <c r="F447">
+        <v>12</v>
+      </c>
+      <c r="Z447" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA447" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="448" spans="1:27">
+      <c r="A448" t="s">
+        <v>760</v>
+      </c>
+      <c r="B448" t="s">
+        <v>112</v>
+      </c>
+      <c r="C448">
+        <v>2</v>
+      </c>
+      <c r="D448" t="s">
+        <v>761</v>
+      </c>
+      <c r="E448">
+        <v>4</v>
+      </c>
+      <c r="F448">
+        <v>10</v>
+      </c>
+      <c r="Z448" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA448" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="449" spans="1:27">
+      <c r="A449" t="s">
+        <v>760</v>
+      </c>
+      <c r="B449" t="s">
+        <v>763</v>
+      </c>
+      <c r="C449">
+        <v>2</v>
+      </c>
+      <c r="D449" t="s">
+        <v>761</v>
+      </c>
+      <c r="E449">
+        <v>2</v>
+      </c>
+      <c r="F449">
+        <v>16</v>
+      </c>
+      <c r="Z449" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA449" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="450" spans="1:27">
+      <c r="A450" t="s">
+        <v>760</v>
+      </c>
+      <c r="B450" t="s">
+        <v>764</v>
+      </c>
+      <c r="C450">
+        <v>2</v>
+      </c>
+      <c r="D450" t="s">
+        <v>761</v>
+      </c>
+      <c r="E450">
+        <v>4</v>
+      </c>
+      <c r="F450">
+        <v>8</v>
+      </c>
+      <c r="Z450" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA450" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="451" spans="1:27">
+      <c r="A451" t="s">
+        <v>766</v>
+      </c>
+      <c r="B451" t="s">
+        <v>560</v>
+      </c>
+      <c r="C451">
+        <v>2</v>
+      </c>
+      <c r="D451" t="s">
+        <v>761</v>
+      </c>
+      <c r="E451">
+        <v>4</v>
+      </c>
+      <c r="F451">
+        <v>5</v>
+      </c>
+      <c r="Z451" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA451" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="452" spans="1:27">
+      <c r="A452" t="s">
+        <v>766</v>
+      </c>
+      <c r="B452" t="s">
+        <v>767</v>
+      </c>
+      <c r="C452">
+        <v>2</v>
+      </c>
+      <c r="D452" t="s">
+        <v>761</v>
+      </c>
+      <c r="E452">
+        <v>5</v>
+      </c>
+      <c r="F452">
+        <v>4</v>
+      </c>
+      <c r="Z452" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA452" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="453" spans="1:27">
+      <c r="A453" t="s">
+        <v>766</v>
+      </c>
+      <c r="B453" t="s">
+        <v>768</v>
+      </c>
+      <c r="C453">
+        <v>2</v>
+      </c>
+      <c r="D453" t="s">
+        <v>761</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+      <c r="F453">
+        <v>3</v>
+      </c>
+      <c r="Z453" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA453" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="454" spans="1:27">
+      <c r="A454" t="s">
+        <v>766</v>
+      </c>
+      <c r="B454" t="s">
+        <v>769</v>
+      </c>
+      <c r="C454">
+        <v>2</v>
+      </c>
+      <c r="D454" t="s">
+        <v>761</v>
+      </c>
+      <c r="E454">
+        <v>3</v>
+      </c>
+      <c r="F454">
+        <v>3</v>
+      </c>
+      <c r="Z454" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA454" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="455" spans="1:27">
+      <c r="A455" t="s">
+        <v>770</v>
+      </c>
+      <c r="B455" t="s">
+        <v>771</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+      <c r="D455" t="s">
+        <v>761</v>
+      </c>
+      <c r="E455">
+        <v>4</v>
+      </c>
+      <c r="F455">
+        <v>6</v>
+      </c>
+      <c r="Z455" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA455" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="456" spans="1:27">
+      <c r="A456" t="s">
+        <v>770</v>
+      </c>
+      <c r="B456" t="s">
+        <v>772</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+      <c r="D456" t="s">
+        <v>761</v>
+      </c>
+      <c r="E456">
+        <v>2</v>
+      </c>
+      <c r="F456">
+        <v>4</v>
+      </c>
+      <c r="Z456" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA456" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="457" spans="1:27">
+      <c r="A457" t="s">
+        <v>770</v>
+      </c>
+      <c r="B457" t="s">
+        <v>773</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+      <c r="D457" t="s">
+        <v>761</v>
+      </c>
+      <c r="E457">
+        <v>2</v>
+      </c>
+      <c r="F457">
+        <v>3</v>
+      </c>
+      <c r="Z457" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA457" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="458" spans="1:27">
+      <c r="A458" t="s">
+        <v>770</v>
+      </c>
+      <c r="B458" t="s">
+        <v>774</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+      <c r="D458" t="s">
+        <v>761</v>
+      </c>
+      <c r="E458">
+        <v>2</v>
+      </c>
+      <c r="F458">
+        <v>3</v>
+      </c>
+      <c r="Z458" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA458" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="459" spans="1:27">
+      <c r="A459" t="s">
+        <v>770</v>
+      </c>
+      <c r="B459" t="s">
+        <v>775</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+      <c r="D459" t="s">
+        <v>761</v>
+      </c>
+      <c r="E459">
+        <v>2</v>
+      </c>
+      <c r="F459">
+        <v>3</v>
+      </c>
+      <c r="Z459" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA459" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="460" spans="1:27">
+      <c r="A460" t="s">
+        <v>770</v>
+      </c>
+      <c r="B460" t="s">
+        <v>776</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+      <c r="D460" t="s">
+        <v>761</v>
+      </c>
+      <c r="E460">
+        <v>2</v>
+      </c>
+      <c r="F460">
+        <v>3</v>
+      </c>
+      <c r="Z460" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA460" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="461" spans="1:27">
+      <c r="A461" t="s">
+        <v>770</v>
+      </c>
+      <c r="B461" t="s">
+        <v>777</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+      <c r="D461" t="s">
+        <v>761</v>
+      </c>
+      <c r="E461">
+        <v>2</v>
+      </c>
+      <c r="F461">
+        <v>3</v>
+      </c>
+      <c r="Z461" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA461" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="462" spans="1:27">
+      <c r="A462" t="s">
+        <v>770</v>
+      </c>
+      <c r="B462" t="s">
+        <v>778</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+      <c r="D462" t="s">
+        <v>761</v>
+      </c>
+      <c r="E462">
+        <v>3</v>
+      </c>
+      <c r="F462">
+        <v>5</v>
+      </c>
+      <c r="Z462" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA462" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="463" spans="1:27">
+      <c r="A463" t="s">
+        <v>779</v>
+      </c>
+      <c r="B463" t="s">
+        <v>780</v>
+      </c>
+      <c r="C463">
+        <v>2</v>
+      </c>
+      <c r="D463" t="s">
+        <v>761</v>
+      </c>
+      <c r="E463">
+        <v>3</v>
+      </c>
+      <c r="F463">
+        <v>5</v>
+      </c>
+      <c r="Z463" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA463" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="464" spans="1:27">
+      <c r="A464" t="s">
+        <v>779</v>
+      </c>
+      <c r="B464" t="s">
+        <v>781</v>
+      </c>
+      <c r="C464">
+        <v>2</v>
+      </c>
+      <c r="D464" t="s">
+        <v>761</v>
+      </c>
+      <c r="E464">
+        <v>4</v>
+      </c>
+      <c r="F464">
+        <v>6</v>
+      </c>
+      <c r="Z464" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA464" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="465" spans="1:27">
+      <c r="A465" t="s">
+        <v>779</v>
+      </c>
+      <c r="B465" t="s">
+        <v>782</v>
+      </c>
+      <c r="C465">
+        <v>2</v>
+      </c>
+      <c r="D465" t="s">
+        <v>761</v>
+      </c>
+      <c r="E465">
+        <v>2</v>
+      </c>
+      <c r="F465">
+        <v>2</v>
+      </c>
+      <c r="Z465" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA465" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="466" spans="1:27">
+      <c r="A466" t="s">
+        <v>779</v>
+      </c>
+      <c r="B466" t="s">
+        <v>783</v>
+      </c>
+      <c r="C466">
+        <v>2</v>
+      </c>
+      <c r="D466" t="s">
+        <v>761</v>
+      </c>
+      <c r="E466">
+        <v>3</v>
+      </c>
+      <c r="F466">
+        <v>5</v>
+      </c>
+      <c r="Z466" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA466" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="467" spans="1:27">
+      <c r="A467" t="s">
+        <v>784</v>
+      </c>
+      <c r="B467" t="s">
+        <v>786</v>
+      </c>
+      <c r="C467">
+        <v>2</v>
+      </c>
+      <c r="D467" t="s">
+        <v>785</v>
+      </c>
+      <c r="E467">
+        <v>3</v>
+      </c>
+      <c r="F467">
+        <v>5</v>
+      </c>
+      <c r="Z467" t="s">
+        <v>790</v>
+      </c>
+      <c r="AA467" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="468" spans="1:27">
+      <c r="A468" t="s">
+        <v>784</v>
+      </c>
+      <c r="B468" t="s">
+        <v>787</v>
+      </c>
+      <c r="C468">
+        <v>2</v>
+      </c>
+      <c r="D468" t="s">
+        <v>785</v>
+      </c>
+      <c r="E468">
+        <v>3</v>
+      </c>
+      <c r="F468">
+        <v>5</v>
+      </c>
+      <c r="Z468" t="s">
+        <v>790</v>
+      </c>
+      <c r="AA468" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="469" spans="1:27">
+      <c r="A469" t="s">
+        <v>784</v>
+      </c>
+      <c r="B469" t="s">
+        <v>788</v>
+      </c>
+      <c r="C469">
+        <v>2</v>
+      </c>
+      <c r="D469" t="s">
+        <v>785</v>
+      </c>
+      <c r="E469">
+        <v>2</v>
+      </c>
+      <c r="F469">
+        <v>4</v>
+      </c>
+      <c r="Z469" t="s">
+        <v>790</v>
+      </c>
+      <c r="AA469" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="470" spans="1:27">
+      <c r="A470" t="s">
+        <v>784</v>
+      </c>
+      <c r="B470" t="s">
+        <v>789</v>
+      </c>
+      <c r="C470">
+        <v>2</v>
+      </c>
+      <c r="D470" t="s">
+        <v>785</v>
+      </c>
+      <c r="E470">
+        <v>3</v>
+      </c>
+      <c r="F470">
+        <v>2</v>
+      </c>
+      <c r="Z470" t="s">
+        <v>790</v>
+      </c>
+      <c r="AA470" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="471" spans="1:27">
+      <c r="A471" t="s">
+        <v>791</v>
+      </c>
+      <c r="B471" t="s">
+        <v>792</v>
+      </c>
+      <c r="C471">
+        <v>2</v>
+      </c>
+      <c r="D471" t="s">
+        <v>785</v>
+      </c>
+      <c r="E471">
+        <v>3</v>
+      </c>
+      <c r="F471">
+        <v>5</v>
+      </c>
+      <c r="Z471" t="s">
+        <v>790</v>
+      </c>
+      <c r="AA471" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="472" spans="1:27">
+      <c r="A472" t="s">
+        <v>791</v>
+      </c>
+      <c r="B472" t="s">
+        <v>793</v>
+      </c>
+      <c r="C472">
+        <v>2</v>
+      </c>
+      <c r="D472" t="s">
+        <v>785</v>
+      </c>
+      <c r="E472">
+        <v>2</v>
+      </c>
+      <c r="F472">
+        <v>4</v>
+      </c>
+      <c r="Z472" t="s">
+        <v>790</v>
+      </c>
+      <c r="AA472" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="473" spans="1:27">
+      <c r="A473" t="s">
+        <v>791</v>
+      </c>
+      <c r="B473" t="s">
+        <v>794</v>
+      </c>
+      <c r="C473">
+        <v>2</v>
+      </c>
+      <c r="D473" t="s">
+        <v>785</v>
+      </c>
+      <c r="E473">
+        <v>3</v>
+      </c>
+      <c r="F473">
+        <v>5</v>
+      </c>
+      <c r="Z473" t="s">
+        <v>790</v>
+      </c>
+      <c r="AA473" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="474" spans="1:27">
+      <c r="A474" t="s">
+        <v>791</v>
+      </c>
+      <c r="B474" t="s">
+        <v>795</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+      <c r="D474" t="s">
+        <v>785</v>
+      </c>
+      <c r="E474">
+        <v>4</v>
+      </c>
+      <c r="F474">
+        <v>6</v>
+      </c>
+      <c r="Z474" t="s">
+        <v>790</v>
+      </c>
+      <c r="AA474" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="475" spans="1:27">
+      <c r="A475" t="s">
+        <v>791</v>
+      </c>
+      <c r="B475" t="s">
+        <v>796</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+      <c r="D475" t="s">
+        <v>785</v>
+      </c>
+      <c r="E475">
+        <v>5</v>
+      </c>
+      <c r="F475">
+        <v>7</v>
+      </c>
+      <c r="Z475" t="s">
+        <v>790</v>
+      </c>
+      <c r="AA475" t="s">
+        <v>695</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/villains.xlsx
+++ b/data/villains.xlsx
@@ -2375,13 +2375,69 @@
     <t xml:space="preserve">BW</t>
   </si>
   <si>
-    <t xml:space="preserve">Taskmaster’s Thunderbolts</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Taskmaster</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">s Thunderbolts</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Enemies of Wakanda</t>
   </si>
   <si>
-    <t xml:space="preserve">Killmonger’s League</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Killmonger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">s League</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Villain group name</t>
@@ -2457,7 +2513,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2487,6 +2543,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2564,20 +2626,20 @@
   <dimension ref="A1:AA490"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C456" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C459" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A456" activeCellId="0" sqref="A456"/>
+      <selection pane="bottomLeft" activeCell="A459" activeCellId="0" sqref="A459"/>
       <selection pane="bottomRight" activeCell="A491" activeCellId="0" sqref="A491"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="28.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="2.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="2.14"/>
@@ -2594,7 +2656,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="14.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18031,7 +18093,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
         <v>784</v>
       </c>
@@ -18086,7 +18148,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="101.29"/>
